--- a/exports/06b_analysis/llama3.1:70b_V4/Sleep/TN_Event_Name_LLM_Events_example_evidence_Doc_Sleep.xlsx
+++ b/exports/06b_analysis/llama3.1:70b_V4/Sleep/TN_Event_Name_LLM_Events_example_evidence_Doc_Sleep.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q52"/>
+  <dimension ref="A1:S52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,60 +456,70 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>DCT</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>LLM_Events_example_evidence_Doc</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>Event_Name_Sleep</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>comment</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>negation</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Event_Name_LLM_Events_example_evidence_Doc_Sleep</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Text_Quote_in_gt</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Text_Quote_LLM_Events_example_evidence_Doc_Sleep</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Attribute_LLM_Events_example_evidence_Doc_Sleep</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Event_Name_LLM_Events_example_evidence_Doc</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Attribute_LLM_Events_example_evidence_Doc</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Text_Quote_LLM_Events_example_evidence_Doc</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Event_Id_LLM_Events_example_evidence_Doc</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Order_LLM_Events_example_evidence_Doc</t>
         </is>
@@ -536,25 +546,25 @@
       <c r="E2" t="n">
         <v>0</v>
       </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>(Timestamp('2180-03-11 19:34:00'), Timestamp('2180-03-11 19:36:00'))</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">{'text': '7 pm  bp to 80,ci &gt; 2 on less milrinone,wedge 16 .patient co of mild back pain .seen by ho.fluid bollus ordered.stat hct,chem 6 sent\n', 'event': [], 'event_id': [], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Pain",\n      "text_quote": "patient co of mild back pain",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "mild",\n          "location": "back",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Family",\n      "text_quote": "seen by ho",\n      "actor": "patient",\n      "object": "family member",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {\n          "interaction": "visit",\n          "relation": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e3",\n      "event_type": "Excretion",\n      "text_quote": "stat hct,chem 6 sent",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "Unknown",\n          "frequency": "Unknown",\n          "quality": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e4",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {\n          "food": "Unknown",\n          "amount": "Unknown",\n          "method": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e5",\n      "event_type": "Sleep",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e6",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "Unknown",\n          "frequency": "Unknown",\n          "quality": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e7",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e8",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "family member",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {\n          "interaction": "Unknown",\n          "relation": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e9",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {\n          "food": "Unknown",\n          "amount": "Unknown",\n          "method": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e10",\n      "event_type": "Sleep",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e11",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "Unknown",\n          "frequency": "Unknown",\n          "quality": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e12",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e13",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "family member",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {\n          "interaction": "Unknown",\n          "relation": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e14",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {\n          "food": "Unknown",\n          "amount": "Unknown",\n          "method": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e15",\n      "event_type": "Sleep",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e16",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "Unknown",\n          "frequency": "Unknown",\n          "quality": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e17",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e18",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "family member",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {\n          "interaction": "Unknown",\n          "relation": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e19",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {\n          "food": "Unknown",\n          "amount": "Unknown",\n          "method": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e20",\n      "event_type": "Sleep",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e21",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "Unknown",\n          "frequency": "Unknown",\n          "quality": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e22",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e23",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "family member",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {\n          "interaction": "Unknown",\n          "relation": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e24",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {\n          "food": "Unknown",\n          "amount": "Unknown",\n          "method": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e25",\n      "event_type": "Sleep",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e26",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "Unknown",\n          "frequency": "Unknown",\n          "quality": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e27",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e28",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "family member",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {\n          "interaction": "Unknown",\n          "relation": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e29",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {\n          "food": "Unknown",\n          "amount": "Unknown",\n          "method": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e30",\n      "event_type": "Sleep",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e31",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "Unknown",\n          "frequency": "Unknown",\n          "quality": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e32",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e33",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "family member",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {\n          "interaction": "Unknown",\n          "relation": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e34",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {\n          "food": "Unknown",\n          "amount": "Unknown",\n          "method": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e35",\n      "event_type": "Sleep",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e36",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "Unknown",\n          "frequency": "Unknown",\n          "quality": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e37",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e38",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "family member",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {\n          "interaction": "Unknown",\n          "relation": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e39",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {\n          "food": "Unknown",\n          "amount": "Unknown",\n          "method": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e40",\n      "event_type": "Sleep",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e41",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "Unknown",\n          "frequency": "Unknown",\n          "quality": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e42",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e43",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "family member",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {\n          "interaction": "Unknown",\n          "relation": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e44",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {\n          "food": "Unknown",\n          "amount": "Unknown",\n          "method": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e45",\n      "event_type": "Sleep",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e46",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "Unknown",\n          "frequency": "Unknown",\n          "quality": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e47",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e48",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "family member",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {\n          "interaction": "Unknown",\n          "relation": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e49",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {\n          "food": "Unknown",\n          "amount": "Unknown",\n          "method": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e50",\n      "event_type": "Sleep",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e51",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "Unknown",\n          "frequency": "Unknown",\n          "quality": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e52",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e53",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "family member",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {\n          "interaction": "Unknown",\n          "relation": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e54",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {\n          "food": "Unknown",\n          "amount": "Unknown",\n          "method": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e55",\n      "event_type": "Sleep",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e56",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "Unknown",\n          "frequency": "Unknown",\n          "quality": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e57",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e58",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "family member",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {\n          "interaction": "Unknown",\n          "relation": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e59",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {\n          "food": "Unknown",\n          "amount": "Unknown",\n          "method": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e60",\n      "event_type": "Sleep",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e61",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "Unknown",\n          "frequency": "Unknown",\n          "quality": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e62",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e63",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "family member",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {\n          "interaction": "Unknown",\n          "relation": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e64",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {\n          "food": "Unknown",\n          "amount": "Unknown",\n          "method": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e65",\n      "event_type": "Sleep",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e66",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "Unknown",\n          "frequency": "Unknown",\n          "quality": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e67",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e68",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "family member",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {\n          "interaction": "Unknown",\n          "relation": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e69",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {\n          "food": "Unknown",\n          "amount": "Unknown",\n          "method": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e70",\n      "event_type": "Sleep",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e71",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "Unknown",\n          "frequency": "Unknown",\n          "quality": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e72",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e73",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "family member",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {\n          "interaction": "Unknown",\n          "relation": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e74",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {\n          "food": "Unknown",\n          "amount": "Unknown",\n          "method": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e75",\n      "event_type": "Sleep",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e76",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "Unknown",\n          "frequency": "Unknown",\n          "quality": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e77",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e78",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "family member",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {\n          "interaction": "Unknown",\n          "relation": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e79",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {\n          "food": "Unknown",\n          "amount": "Unknown",\n          "method": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e80",\n      "event_type": "Sleep",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e81",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "Unknown",\n          "frequency": "Unknown",\n          "quality": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e82",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e83",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "family member",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {\n          "interaction": "Unknown",\n          "relation": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e84",\n     </t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2" t="b">
+        <v>0</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
@@ -582,6 +592,16 @@
         </is>
       </c>
       <c r="Q2" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
         <is>
           <t>['[]']</t>
         </is>
@@ -612,25 +632,25 @@
       <c r="E3" t="n">
         <v>0</v>
       </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>(Timestamp('2162-06-14 18:16:00'), Timestamp('2162-06-14 18:58:00'))</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>{'text': 'ccu nsg note: alt in cv/cardiomyopathy\n(continued)\npleased that ci has improved with milrinone.\na: severe cardiogenic shock/improvement with milrinone.\np: monitor hemodynamics. restart captopril this evenening. monitor groin for bleeding. keep careful i &amp; o. support patient and family. notify nimic if condition worsens. transplant workup labs to be drawn tomorrow am.\n', 'event': ['Unknown', 'Unknown', 'Unknown', 'Family', 'Unknown', 'Unknown'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5', 'e6'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Unknown",\n      "text_quote": "ccu nsg note: alt in cv/cardiomyopathy",\n      "actor": "others",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {}\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Unknown",\n      "text_quote": "pleased that ci has improved with milrinone.",\n      "actor": "others",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {}\n    },\n    {\n      "event_id": "e3",\n      "event_type": "Unknown",\n      "text_quote": "a: severe cardiogenic shock/improvement with milrinone.",\n      "actor": "others",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {}\n    },\n    {\n      "event_id": "e4",\n      "event_type": "Family",\n      "text_quote": "support patient and family.",\n      "actor": "others",\n      "object": "family member",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "interaction": "support",\n        "relation": "Unknown"\n      }\n    },\n    {\n      "event_id": "e5",\n      "event_type": "Unknown",\n      "text_quote": "notify nimic if condition worsens.",\n      "actor": "others",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {}\n    },\n    {\n      "event_id": "e6",\n      "event_type": "Unknown",\n      "text_quote": "transplant workup labs to be drawn tomorrow am.",\n      "actor": "others",\n      "object": "patient",\n      "negation": false,\n      "time": "tomorrow am",\n      "caused_by": "Unknown",\n      "event_attributes": {}\n    }\n  ],\n  "order": [\n    {\n      "event_id_1": "e1",\n      "relation": "before",\n      "event_id_2": "e2"\n    },\n    {\n      "event_id_1": "e2",\n      "relation": "before",\n      "event_id_2": "e3"\n    },\n    {\n      "event_id_1": "e3",\n      "relation": "before",\n      "event_id_2": "e4"\n    },\n    {\n      "event_id_1": "e4",\n      "relation": "before",\n      "event_id_2": "e5"\n    },\n    {\n      "event_id_1": "e5",\n      "relation": "before",\n      "event_id_2": "e6"\n    }\n  ]\n}', 'attributes': [{'Unknown': {}}, {'Unknown': {}}, {'Unknown': {}}, {'Family': {'interaction': 'support', 'relation': 'Unknown'}}, {'Unknown': {}}, {'Unknown': {}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e3'}, {'event_id_1': 'e3', 'relation': 'before', 'event_id_2': 'e4'}, {'event_id_1': 'e4', 'relation': 'before', 'event_id_2': 'e5'}, {'event_id_1': 'e5', 'relation': 'before', 'event_id_2': 'e6'}]], 'text_quotes': ['ccu nsg note: alt in cv/cardiomyopathy', 'pleased that ci has improved with milrinone.', 'a: severe cardiogenic shock/improvement with milrinone.', 'support patient and family.', 'notify nimic if condition worsens.', 'transplant workup labs to be drawn tomorrow am.'], 'event_time': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'tomorrow am'], 'negation': [False, False, False, False, False, False], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2162-06-14 18:16:00 and 2162-06-14 18:58:00):\n           ccu nsg note: alt in cv/cardiomyopathy\n(continued)\npleased that ci has improved with milrinone.\na: severe cardiogenic shock/improvement with milrinone.\np: monitor hemodynamics. restart captopril this evenening. monitor groin for bleeding. keep careful i &amp; o. support patient and family. notify nimic if condition worsens. transplant workup labs to be drawn tomorrow am.\n\n        ', 'case_attributes': [[]], 'actor': ['others', 'others', 'others', 'others', 'others', 'others'], 'event_detection_time': 20.5000884369947}</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" t="b">
+        <v>0</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
@@ -639,25 +659,35 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
           <t>['Unknown', 'Unknown', 'Unknown', 'Family', 'Unknown', 'Unknown']</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>[{'Unknown': {}}, {'Unknown': {}}, {'Unknown': {}}, {'Family': {'interaction': 'support', 'relation': 'Unknown'}}, {'Unknown': {}}, {'Unknown': {}}]</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>['ccu nsg note: alt in cv/cardiomyopathy', 'pleased that ci has improved with milrinone.', 'a: severe cardiogenic shock/improvement with milrinone.', 'support patient and family.', 'notify nimic if condition worsens.', 'transplant workup labs to be drawn tomorrow am.']</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="R3" t="inlineStr">
         <is>
           <t>['e1=Unknown|1:ccu nsg note: alt in cv/cardiomyopathy', 'e2=Unknown|1:pleased that ci has improved with milrinone.', 'e3=Unknown|1:a: severe cardiogenic shock/improvement with milrinone.', 'e4=Family|1:support patient and family.', 'e5=Unknown|1:notify nimic if condition worsens.', 'e6=Unknown|1:transplant workup labs to be drawn tomorrow am.']</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e3'}, {'event_id_1': 'e3', 'relation': 'before', 'event_id_2': 'e4'}, {'event_id_1': 'e4', 'relation': 'before', 'event_id_2': 'e5'}, {'event_id_1': 'e5', 'relation': 'before', 'event_id_2': 'e6'}]]</t>
         </is>
@@ -699,52 +729,62 @@
       <c r="E4" t="n">
         <v>0</v>
       </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>(Timestamp('2162-06-18 06:00:00'), Timestamp('2162-06-18 06:13:00'))</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>{'text': "ccu npn 1900-0700\no:\ntm 100.2core temp.  tylenol x1. down to 97.7-98core.  contin. vanco [**hospital1 **], ceftriax and azithromycin (day [**3-28**]).\nset bc sent with am labs.\ncv: hr 105-&gt;80's sr with pvc's  bp 103/62-130/79. tolerated 12.5mg captopril by mouth with no hypotension.\nmilrinine contin. at .375mcq/k/min.  pap 50/23-44/20.\npa sat 66%.  c.o. 5.1/2.3/1098.\n\nu/o improved to 30/hr to 60-100cc/hr.  (+) 500cc for [**6-17**], (-) 300cc since mn.\n\ncontin. with minimal appitite. taking sips water with meds. large bm on commode.  colace held.\n\nls clear upper with scatt. coarse lower bs.  sats 100% on 2lnc.\nstrong productive cough thick tan sputum.  taking robitussin/codeine for excessive cough with good effect.\nc/o upper chest/muscle ache/pain d/t coughing.  med. with morphine 1mg iv at 0600 with fair to good effect.\n\nskin:  couple areas of redness between shoulder blades.  patient. prefers to lay on back.  anticipate able to get oob today to chair.\n\na/p:  am labs pnd at 0600.  ? d/c swan today.  per husband- plan for picc placement for possible home milrinone.  ? try to wean milrinone again today.  tolerated captopril well overnight.\nrobitussin/morphine for cough.  is / oob tochair.\nfamily support.  husband stayed overnight.\n\n\n", 'event': ['Pain', 'Eating', 'Excretion', 'Sleep', 'Family', 'Pain'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5', 'e6'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Pain",\n      "text_quote": "c/o upper chest/muscle ache/pain d/t coughing.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "fair to good effect",\n          "location": "upper chest/muscle",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Eating",\n      "text_quote": "contin. with minimal appitite. taking sips water with meds.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {\n          "food": "water",\n          "amount": "sips",\n          "method": "oral"\n        }\n      }\n    },\n    {\n      "event_id": "e3",\n      "event_type": "Excretion",\n      "text_quote": "large bm on commode.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "stool",\n          "frequency": "Unknown",\n          "quality": "large"\n        }\n      }\n    },\n    {\n      "event_id": "e4",\n      "event_type": "Sleep",\n      "text_quote": "husband stayed overnight.",\n      "actor": "family member",\n      "object": "patient",\n      "negation": false,\n      "time": "overnight",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e5",\n      "event_type": "Family",\n      "text_quote": "husband stayed overnight.",\n      "actor": "family member",\n      "object": "patient",\n      "negation": false,\n      "time": "overnight",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {\n          "interaction": "visit",\n          "relation": "husband"\n        }\n      }\n    },\n    {\n      "event_id": "e6",\n      "event_type": "Pain",\n      "text_quote": "med. with morphine 1mg iv at 0600 with fair to good effect.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "0600",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "fair to good effect",\n          "location": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    }\n  ],\n  "order": [\n    {\n      "event_id_1": "e6",\n      "relation": "before",\n      "event_id_2": "e4"\n    },\n    {\n      "event_id_1": "e5",\n      "relation": "simultaneous",\n      "event_id_2": "e4"\n    }\n  ]\n}', 'attributes': [{'Pain': {'Pain': {'severity': 'fair to good effect', 'location': 'upper chest/muscle', 'duration': 'Unknown'}}}, {'Eating': {'Eating': {'food': 'water', 'amount': 'sips', 'method': 'oral'}}}, {'Excretion': {'Excretion': {'type': 'stool', 'frequency': 'Unknown', 'quality': 'large'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Family': {'Family': {'interaction': 'visit', 'relation': 'husband'}}}, {'Pain': {'Pain': {'severity': 'fair to good effect', 'location': 'Unknown', 'duration': 'Unknown'}}}], 'orders': [[{'event_id_1': 'e6', 'relation': 'before', 'event_id_2': 'e4'}, {'event_id_1': 'e5', 'relation': 'simultaneous', 'event_id_2': 'e4'}]], 'text_quotes': ['c/o upper chest/muscle ache/pain d/t coughing.', 'contin. with minimal appitite. taking sips water with meds.', 'large bm on commode.', 'husband stayed overnight.', 'husband stayed overnight.', 'med. with morphine 1mg iv at 0600 with fair to good effect.'], 'event_time': ['Unknown', 'Unknown', 'Unknown', 'overnight', 'overnight', '0600'], 'negation': [False, False, False, False, False, False], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2162-06-18 06:00:00 and 2162-06-18 06:13:00):\n           ccu npn 1900-0700\no:\ntm 100.2core temp.  tylenol x1. down to 97.7-98core.  contin. vanco [**hospital1 **], ceftriax and azithromycin (day [**3-28**]).\nset bc sent with am labs.\ncv: hr 105-&gt;80\'s sr with pvc\'s  bp 103/62-130/79. tolerated 12.5mg captopril by mouth with no hypotension.\nmilrinine contin. at .375mcq/k/min.  pap 50/23-44/20.\npa sat 66%.  c.o. 5.1/2.3/1098.\n\nu/o improved to 30/hr to 60-100cc/hr.  (+) 500cc for [**6-17**], (-) 300cc since mn.\n\ncontin. with minimal appitite. taking sips water with meds. large bm on commode.  colace held.\n\nls clear upper with scatt. coarse lower bs.  sats 100% on 2lnc.\nstrong productive cough thick tan sputum.  taking robitussin/codeine for excessive cough with good effect.\nc/o upper chest/muscle ache/pain d/t coughing.  med. with morphine 1mg iv at 0600 with fair to good effect.\n\nskin:  couple areas of redness between shoulder blades.  patient. prefers to lay on back.  anticipate able to get oob today to chair.\n\na/p:  am labs pnd at 0600.  ? d/c swan today.  per husband- plan for picc placement for possible home milrinone.  ? try to wean milrinone again today.  tolerated captopril well overnight.\nrobitussin/morphine for cough.  is / oob tochair.\nfamily support.  husband stayed overnight.\n\n\n\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient', 'patient', 'family member', 'family member', 'patient'], 'event_detection_time': 23.203443062957376}</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" t="b">
+        <v>0</v>
+      </c>
+      <c r="L4" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>['husband stayed overnight.']</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>['Pain', 'Eating', 'Excretion', 'Sleep', 'Family', 'Pain']</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>[{'Pain': {'Pain': {'severity': 'fair to good effect', 'location': 'upper chest/muscle', 'duration': 'Unknown'}}}, {'Eating': {'Eating': {'food': 'water', 'amount': 'sips', 'method': 'oral'}}}, {'Excretion': {'Excretion': {'type': 'stool', 'frequency': 'Unknown', 'quality': 'large'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Family': {'Family': {'interaction': 'visit', 'relation': 'husband'}}}, {'Pain': {'Pain': {'severity': 'fair to good effect', 'location': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>['c/o upper chest/muscle ache/pain d/t coughing.', 'contin. with minimal appitite. taking sips water with meds.', 'large bm on commode.', 'husband stayed overnight.', 'husband stayed overnight.', 'med. with morphine 1mg iv at 0600 with fair to good effect.']</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="R4" t="inlineStr">
         <is>
           <t>['e1=Pain|1:c/o upper chest/muscle ache/pain d/t coughing.', 'e2=Eating|1:contin. with minimal appitite. taking sips water with meds.', 'e3=Excretion|1:large bm on commode.', 'e4=Sleep|1:husband stayed overnight.', 'e5=Family|1:husband stayed overnight.', 'e6=Pain|1:med. with morphine 1mg iv at 0600 with fair to good effect.']</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e6', 'relation': 'before', 'event_id_2': 'e4'}, {'event_id_1': 'e5', 'relation': 'simultaneous', 'event_id_2': 'e4'}]]</t>
         </is>
@@ -778,25 +818,25 @@
       <c r="E5" t="n">
         <v>0</v>
       </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>(Timestamp('2164-12-12 06:31:00'), Timestamp('2164-12-12 06:36:00'))</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>{'text': 'nursing admission note\nplease see careview for details\n\nneuro: intact.  c/o headache [**2168-5-26**].  med with ms 2 mg iv x 1 with some relief.  photosensitive, room darkened, door partially closed for noise control. head ct done.\ncv: stable.\npulm: sats 95-98 on room air,  bs clear.\ngi: npo\ngu: foley to gravity, draining clear yellow\n\nplan: monitor nvs closely. med for headache pro re nata\n', 'event': ['Pain', 'Excretion', 'Eating'], 'event_id': ['e1', 'e2', 'e3'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [\n        {\n            "attribute_name": "neurological status",\n            "attribute_value": "intact"\n        },\n        {\n            "attribute_name": "chief complaint",\n            "attribute_value": "headache"\n        },\n        {\n            "attribute_name": "medication administered",\n            "attribute_value": "ms 2 mg iv x 1"\n        }\n    ],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Pain",\n            "text_quote": "c/o headache [**2168-5-26**].  med with ms 2 mg iv x 1 with some relief.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "Unknown",\n                    "location": "head",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Excretion",\n            "text_quote": "gu: foley to gravity, draining clear yellow",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "urine",\n                    "frequency": "Unknown",\n                    "quality": "clear yellow"\n                }\n            }\n        },\n        {\n            "event_id": "e3",\n            "event_type": "Eating",\n            "text_quote": "gi: npo",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {\n                    "food": "None",\n                    "amount": "None",\n                    "method": "None"\n                }\n            }\n        }\n    ],\n    "order": [\n        {\n            "event_id_1": "e1",\n            "relation": "before",\n            "event_id_2": "e2"\n        },\n        {\n            "event_id_1": "e2",\n            "relation": "after",\n            "event_id_2": "e3"\n        }\n    ]\n}', 'attributes': [{'Pain': {'Pain': {'severity': 'Unknown', 'location': 'head', 'duration': 'Unknown'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'Unknown', 'quality': 'clear yellow'}}}, {'Eating': {'Eating': {'food': 'None', 'amount': 'None', 'method': 'None'}}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'after', 'event_id_2': 'e3'}]], 'text_quotes': ['c/o headache [**2168-5-26**].  med with ms 2 mg iv x 1 with some relief.', 'gu: foley to gravity, draining clear yellow', 'gi: npo'], 'event_time': ['Unknown', 'Unknown', 'Unknown'], 'negation': [False, False, True], 'caused_by': ['Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2164-12-12 06:31:00 and 2164-12-12 06:36:00):\n           nursing admission note\nplease see careview for details\n\nneuro: intact.  c/o headache [**2168-5-26**].  med with ms 2 mg iv x 1 with some relief.  photosensitive, room darkened, door partially closed for noise control. head ct done.\ncv: stable.\npulm: sats 95-98 on room air,  bs clear.\ngi: npo\ngu: foley to gravity, draining clear yellow\n\nplan: monitor nvs closely. med for headache pro re nata\n\n        ', 'case_attributes': [[{'attribute_name': 'neurological status', 'attribute_value': 'intact'}, {'attribute_name': 'chief complaint', 'attribute_value': 'headache'}, {'attribute_name': 'medication administered', 'attribute_value': 'ms 2 mg iv x 1'}]], 'actor': ['patient', 'patient', 'patient'], 'event_detection_time': 15.529489770065993}</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
@@ -805,25 +845,35 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
           <t>['Pain', 'Excretion', 'Eating']</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>[{'Pain': {'Pain': {'severity': 'Unknown', 'location': 'head', 'duration': 'Unknown'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'Unknown', 'quality': 'clear yellow'}}}, {'Eating': {'Eating': {'food': 'None', 'amount': 'None', 'method': 'None'}}}]</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>['c/o headache [**2168-5-26**].  med with ms 2 mg iv x 1 with some relief.', 'gu: foley to gravity, draining clear yellow', 'gi: npo']</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="R5" t="inlineStr">
         <is>
           <t>['e1=Pain|1:c/o headache [**2168-5-26**].  med with ms 2 mg iv x 1 with some relief.', 'e2=Excretion|1:gu: foley to gravity, draining clear yellow', 'e3=Eating|1:gi: npo']</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'after', 'event_id_2': 'e3'}]]</t>
         </is>
@@ -852,25 +902,25 @@
       <c r="E6" t="n">
         <v>0</v>
       </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>(Timestamp('2164-12-13 17:26:00'), Timestamp('2164-12-13 17:35:00'))</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>{'text': "please refer to carevue for complete assessment and specifics.\n\na&amp;o x3, appropriate conversation, mae spont/purp, following commands, no deficit noted, patient not c/o of diplopia/headache nor nausea and dizziness.lt eye with slight droop, perl. evd remains open at 5cm above tragus with clear fluid drainage. ct/cta of head and neck done.\ndiastolic blood pressure very labile, nipride titrated and currently at 5.5 mcg/kg/min. diastolic blood pressure persistent at 170's despite nipride being titrated, dr. [**last name (stitle) 5127**] informed, received lopressor 10mg iv for hr 101, labetolol 5mg ivp x 2--diastolic blood pressure [**month (only) **] to 140-150's. morphine 4mg ivp given as well for pain control. cont to monitor vs, neuro status, pain. f/u ct/cta results. echo pending.\n", 'event': [], 'event_id': [], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Pain",\n            "text_quote": "morphine 4mg ivp given as well for pain control",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "Unknown",\n                    "location": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Excretion",\n            "text_quote": "evd remains open at 5cm above tragus with clear fluid drainage",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "fluid",\n                    "frequency": "Unknown",\n                    "quality": "clear"\n                }\n            }\n        },\n        {\n            "event_id": "e3",\n            "event_type": "Eating",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {}\n            }\n        },\n        {\n            "event_id": "e4",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {}\n            }\n        },\n        {\n            "event_id": "e5",\n            "event_type": "Family",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {}\n            }\n        },\n        {\n            "event_id": "e6",\n            "event_type": "Pain",\n            "text_quote": "diastolic blood pressure persistent at 170\'s despite nipride being titrated, dr. [**last name (stitle) 5127**] informed, received lopressor 10mg iv for hr 101, labetolol 5mg ivp x 2--diastolic blood pressure [**month (only) **] to 140-150\'s",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e7",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e8",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e9",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e10",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e11",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e12",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e13",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e14",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e15",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e16",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e17",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e18",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e19",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e20",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e21",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e22",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e23",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e24",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e25",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e26",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e27",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e28",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e29",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e30",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e31",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e32",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e33",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e34",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e35",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e36",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e37",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e38",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e39",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e40",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e41",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e42",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e43",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e44",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e45",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e46",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e47",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e48",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e49",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e50",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e51",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e52",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e53",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e54",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e55",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e56",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e57",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e58",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e59",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e60",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e61",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e62",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e63",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e64",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e65",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e66",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e67",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e68",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e69",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e70",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e71",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e72",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e73",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e74",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e75",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e76",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e77",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e78",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e79",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e80",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e81",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e82",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e83",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e84",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e85",\n            "event_</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
@@ -898,6 +948,16 @@
         </is>
       </c>
       <c r="Q6" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
         <is>
           <t>['[]']</t>
         </is>
@@ -928,25 +988,25 @@
       <c r="E7" t="n">
         <v>0</v>
       </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>(Timestamp('2164-12-15 05:02:00'), Timestamp('2164-12-15 05:10:00'))</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">{'text': 'data: afrebile   hr 65-75 nsr without ect.   sb/p&gt;160 after returning from\nmri. snp 1mcg/kg/min started(had been stopped for 5hrs)\nlabetalol/verapril/enalapril given as ordered along with hydralazine\n20mg iv x2 pro re nata.\nneuro: pupils = 2 react to light. alert and orient x3. following commands. c/o headache and neck pain-medicated with morphine 2mg iv with good releif.\n\n', 'event': [], 'event_id': [], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Pain",\n            "text_quote": "c/o headache and neck pain-medicated with morphine 2mg iv with good releif.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "Unknown",\n                    "location": "head and neck",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Eating",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {}\n            }\n        },\n        {\n            "event_id": "e3",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e4",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {}\n            }\n        },\n        {\n            "event_id": "e5",\n            "event_type": "Family",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {}\n            }\n        },\n        {\n            "event_id": "e6",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e7",\n            "event_type": "Eating",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {}\n            }\n        },\n        {\n            "event_id": "e8",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e9",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {}\n            }\n        },\n        {\n            "event_id": "e10",\n            "event_type": "Family",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {}\n            }\n        },\n        {\n            "event_id": "e11",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e12",\n            "event_type": "Eating",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {}\n            }\n        },\n        {\n            "event_id": "e13",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e14",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {}\n            }\n        },\n        {\n            "event_id": "e15",\n            "event_type": "Family",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {}\n            }\n        },\n        {\n            "event_id": "e16",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e17",\n            "event_type": "Eating",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {}\n            }\n        },\n        {\n            "event_id": "e18",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e19",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {}\n            }\n        },\n        {\n            "event_id": "e20",\n            "event_type": "Family",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {}\n            }\n        },\n        {\n            "event_id": "e21",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e22",\n            "event_type": "Eating",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {}\n            }\n        },\n        {\n            "event_id": "e23",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e24",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {}\n            }\n        },\n        {\n            "event_id": "e25",\n            "event_type": "Family",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {}\n            }\n        },\n        {\n            "event_id": "e26",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e27",\n            "event_type": "Eating",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {}\n            }\n        },\n        {\n            "event_id": "e28",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e29",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {}\n            }\n        },\n        {\n            "event_id": "e30",\n            "event_type": "Family",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {}\n            }\n        },\n        {\n            "event_id": "e31",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e32",\n            "event_type": "Eating",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {}\n            }\n        },\n        {\n            "event_id": "e33",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e34",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {}\n            }\n        },\n        {\n            "event_id": "e35",\n            "event_type": "Family",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {}\n            }\n        },\n        {\n            "event_id": "e36",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e37",\n            "event_type": "Eating",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {}\n            }\n        },\n        {\n            "event_id": "e38",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e39",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {}\n            }\n        },\n        {\n            "event_id": "e40",\n            "event_type": "Family",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {}\n            }\n        },\n        {\n            "event_id": "e41",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e42",\n            "event_type": "Eating",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {}\n            }\n        },\n        {\n            "event_id": "e43",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e44",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {}\n            }\n        },\n        {\n            "event_id": "e45",\n            "event_type": "Family",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {}\n            }\n        },\n        {\n            "event_id": "e46",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e47",\n            "event_type": "Eating",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {}\n            }\n        },\n        {\n            "event_id": "e48",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e49",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {}\n            }\n        },\n        {\n            "event_id": "e50",\n            "event_type": "Family",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {}\n            }\n        },\n        {\n            "event_id": "e51",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e52",\n            "event_type": "Eating",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {}\n            }\n        },\n        {\n            "event_id": "e53",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e54",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {}\n            }\n        },\n        {\n            "event_id": "e55",\n            "event_type": "Family",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {}\n            }\n        },\n        {\n            "event_id": "e56",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e57",\n            "event_type": "Eating",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {}\n            }\n        },\n        {\n            "event_id": "e58",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e59",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {}\n            }\n        },\n        {\n            "event_id": "e60",\n            "event_type": "Family",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {}\n            }\n        },\n        {\n            "event_id": "e61",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e62",\n            "event_type": "Eating",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {}\n            }\n        },\n        {\n            "event_id": "e63",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e64",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {}\n            }\n        },\n        {\n            "event_id": "e65",\n            "event_type": "Family",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {}\n            }\n        },\n        {\n            "event_id": "e66",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e67",\n            "event_type": "Eating",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {}\n            }\n        },\n        {\n            "event_id": "e68",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e69",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {}\n            }\n        },\n        {\n            "event_id": "e70",\n            "event_type": "Family",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {}\n            }\n        },\n        {\n            "event_id": "e71",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e72",\n            "event_type": "Eating",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {}\n            }\n        },\n        {\n            "event_id": "e73",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e74",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {}\n            }\n        },\n        {\n            "event_id": "e75",\n            "event_type": "Family",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {}\n            }\n        },\n        {\n            "event_id": "e76",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e77",\n            "event_type": "Eating",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {}\n            }\n        },\n        {\n            "event_id": "e78",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e79",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {}\n            }\n        },\n        {\n            "event_id": "e80",\n            "event_type": "Family",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {}\n            }\n        },\n        {\n            "event_id": "e81",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e82",\n            "event_type": "Eating",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {}\n            }\n        },\n        {\n            "event_id": "e83",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e84",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {}\n            }\n        },\n        {\n            "event_id": "e85",\n            "event_type": "Family",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {}\n            }\n        },\n        {\n            "event_id": "e86",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e87",\n            "event_type": "Eating",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n  </t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" t="b">
+        <v>0</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
@@ -974,6 +1034,16 @@
         </is>
       </c>
       <c r="Q7" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
         <is>
           <t>['[]']</t>
         </is>
@@ -1001,25 +1071,25 @@
       <c r="E8" t="n">
         <v>0</v>
       </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>(Timestamp('2179-07-05 15:18:00'), Timestamp('2179-07-05 15:21:00'))</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>{'text': 'respiratory care\npatient remains intubated and on mechanical ventilatory support, breath sounds bilaterally diminished, and few crackles heard, suctioned intermittently for moderate amounts of thick white secretions, cvp line placement has followed intubation, patient is now awake although still being on some [**last name (lf) 10324**], [**first name3 (lf) 126**] continue to be followed.\n', 'event': ['Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_id': ['e1', 'e2', 'e3', 'e4'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Unknown",\n            "text_quote": "patient remains intubated and on mechanical ventilatory support, breath sounds bilaterally diminished, and few crackles heard",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Unknown",\n            "text_quote": "suctioned intermittently for moderate amounts of thick white secretions",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        },\n        {\n            "event_id": "e3",\n            "event_type": "Unknown",\n            "text_quote": "cvm line placement has followed intubation",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        },\n        {\n            "event_id": "e4",\n            "event_type": "Unknown",\n            "text_quote": "patient is now awake although still being on some [**last name (lf) 10324**], [**first name3 (lf) 126**] continue to be followed",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        }\n    ],\n    "order": []\n}', 'attributes': [{'Unknown': {}}, {'Unknown': {}}, {'Unknown': {}}, {'Unknown': {}}], 'orders': [[]], 'text_quotes': ['patient remains intubated and on mechanical ventilatory support, breath sounds bilaterally diminished, and few crackles heard', 'suctioned intermittently for moderate amounts of thick white secretions', 'cvm line placement has followed intubation', 'patient is now awake although still being on some [**last name (lf) 10324**], [**first name3 (lf) 126**] continue to be followed'], 'event_time': ['Unknown', 'Unknown', 'Unknown', 'Unknown'], 'negation': [False, False, False, False], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2179-07-05 15:18:00 and 2179-07-05 15:21:00):\n           respiratory care\npatient remains intubated and on mechanical ventilatory support, breath sounds bilaterally diminished, and few crackles heard, suctioned intermittently for moderate amounts of thick white secretions, cvp line placement has followed intubation, patient is now awake although still being on some [**last name (lf) 10324**], [**first name3 (lf) 126**] continue to be followed.\n\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient', 'patient', 'patient'], 'event_detection_time': 11.606648418819532}</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" t="b">
+        <v>0</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
@@ -1028,25 +1098,35 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
           <t>['Unknown', 'Unknown', 'Unknown', 'Unknown']</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>[{'Unknown': {}}, {'Unknown': {}}, {'Unknown': {}}, {'Unknown': {}}]</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>['patient remains intubated and on mechanical ventilatory support, breath sounds bilaterally diminished, and few crackles heard', 'suctioned intermittently for moderate amounts of thick white secretions', 'cvm line placement has followed intubation', 'patient is now awake although still being on some [**last name (lf) 10324**], [**first name3 (lf) 126**] continue to be followed']</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="R8" t="inlineStr">
         <is>
           <t>['e1=Unknown|1:patient remains intubated and on mechanical ventilatory support, breath sounds bilaterally diminished, and few crackles heard', 'e2=Unknown|1:suctioned intermittently for moderate amounts of thick white secretions', 'e3=Unknown|0:cvm line placement has followed intubation', 'e4=Unknown|1:patient is now awake although still being on some [**last name (lf) 10324**], [**first name3 (lf) 126**] continue to be followed']</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -1086,25 +1166,25 @@
       <c r="E9" t="n">
         <v>0</v>
       </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>(Timestamp('2179-07-05 19:46:00'), Timestamp('2179-07-05 20:23:00'))</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>{'text': "npn 7 am-- 7 pm\n\npatient had been in sr with long pr and doing well on lidocaine drip.\naround 1130 am after bed bath patient in chair had v tach rapid 180,\npacer attemmpted overdrive pace then patient was shocked back to sinus tach at a faster rate than usual 120. patient put back to bed and then started c/o chest pressure [**2-22**]-- then up to [**6-24**]. remained in rapid hr sinus tach. team came and fellow also. patient was given sl nitro for cp x 1, then his icd fired again when patient was in sinus tach. after firing, patient rate slowed and he became pain free . he was in sr at 80-90 then down to 70's. patient was loaded with amiodarone x 2, and bolus with lidocaine 100 mg, and an amio drip 1 mg was started. patient had several episodes of v tach over next hourr and ep attending reprogramed icd, then decided patient was very anxious, would need elective intubation and sedation to surpress catecholamine surges, patient agreed and md spoke with his wife by phone. patient intubated at 12:40 and sedated with fentanyl, versed. team placed ij line, art line an og tube was placed and per dr [**first name (stitle) **] all lines in good position ok to use. patient was stabilized with meds and lyte replacement, and did well after a 250 normal saline bolus for post intubation hypotension that resolved. sedation meds were titrated down to help maintain bp. lopressor 5 mg x 2 doses had been given earlier and patient hr remained 58-62 so esmolol was held until later then started at 1830.\npatient is very anxious and writing notes asking about the plan, and meds. patient and wife were updated by ep fellow, resident and dr [**last name (stitle) 10325**]\nas well.  patient has had av fistular or access issues after last ablation a few days ago and we went to ct scan for a cta of pelvis, please look for reports. patient stable on trip to ct.\n\n[**name (ni) **] patient [**name (ni) 467**] converses by writing notes, moves all extremities to command. asks for frequent suctioning.\n\n[**name (ni) 78**] patient in sr with first degree av block, stable rhythm since 1310\nbp 96/55--130/68 hr 58-62 and has been pain free since noon or a little earier. cp resolved after second shock and hr came down from 120 to 80-90, and ekg showed resolved ischemia per cards fellow [**doctor first name 4433**].\npulses on right foot by doppler palp on left. grions eccymotic from cath last week.\n\nrepiratory- patient intubated and denies sob, abg on 60 percent fio2 was 74 and we increased peep to 7.5 suctioned for thick white secreations via ett and copious oral secreations.\n\ngu foley placed patient getting hydration, foloow i/o renal labs lytes.\n\na: pt with recurring v tach, icd firing, angina and ischemia when heart rate was  rapid. intubated sedation, awaiting further ep intervention.\n\np: plan is not to wean any drips and titrate esmolol to keep hr 55-60 sedate patient, follow lytes, abg, vap prevention.\n", 'event': [], 'event_id': [], 'phrase': '', 'raw_output': '{\n    "case_attributes": [\n        {\n            "attribute_name": "patient history",\n            "attribute_value": "had been in sr with long pr and doing well on lidocaine drip"\n        },\n        {\n            "attribute_name": "previous medical procedure",\n            "attribute_value": "ablation a few days ago"\n        }\n    ],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Pain",\n            "text_quote": "patient started c/o chest pressure [**2-22**]-- then up to [**6-24**]",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "moderate to severe",\n                    "location": "chest",\n                    "duration": " Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Excretion",\n            "text_quote": "gu foley placed patient getting hydration, foloow i/o renal labs lytes",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "urine",\n                    "frequency": " Unknown",\n                    "quality": " Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e3",\n            "event_type": "Sleep",\n            "text_quote": "patient intubated at 12:40 and sedated with fentanyl, versed",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": " Unknown",\n                    "duration": " Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e4",\n            "event_type": "Family",\n            "text_quote": "md spoke with his wife by phone",\n            "actor": "patient\'s wife",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {\n                    "interaction": "phone call",\n                    "relation": "wife"\n                }\n            }\n        },\n        {\n            "event_id": "e5",\n            "event_type": "Eating",\n            "text_quote": " None",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {\n                    "food": " Unknown",\n                    "amount": " Unknown",\n                    "method": " Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e6",\n            "event_type": "Pain",\n            "text_quote": "patient became pain free . he was in sr at 80-90 then down to 70\'s",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "resolved",\n                    "location": " Unknown",\n                    "duration": " Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e7",\n            "event_type": "Sleep",\n            "text_quote": "patient intubated and denies sob, abg on 60 percent fio2 was 74 and we increased peep to 7.5 suctioned for thick white secreations via ett and copious oral secreations",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": " Unknown",\n                    "duration": " Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e8",\n            "event_type": "Family",\n            "text_quote": "patient and wife were updated by ep fellow, resident and dr [**last name (stitle) 10325**]",\n            "actor": "patient\'s wife",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {\n                    "interaction": "update",\n                    "relation": "wife"\n                }\n            }\n        },\n        {\n            "event_id": "e9",\n            "event_type": "Pain",\n            "text_quote": "cp resolved after second shock and hr came down from 120 to 80-90, and ekg showed resolved ischemia per cards fellow [**doctor first name 4433**]",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "resolved",\n                    "location": " Unknown",\n                    "duration": " Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e10",\n            "event_type": "Excretion",\n            "text_quote": "patient getting hydration, foloow i/o renal labs lytes",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "urine",\n                    "frequency": " Unknown",\n                    "quality": " Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e11",\n            "event_type": "Sleep",\n            "text_quote": "patient intubated at 12:40 and sedated with fentanyl, versed",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": " Unknown",\n                    "duration": " Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e12",\n            "event_type": "Family",\n            "text_quote": "md spoke with his wife by phone",\n            "actor": "patient\'s wife",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {\n                    "interaction": "phone call",\n                    "relation": "wife"\n                }\n            }\n        },\n        {\n            "event_id": "e13",\n            "event_type": "Pain",\n            "text_quote": "patient became pain free . he was in sr at 80-90 then down to 70\'s",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "resolved",\n                    "location": " Unknown",\n                    "duration": " Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e14",\n            "event_type": "Sleep",\n            "text_quote": "patient intubated and denies sob, abg on 60 percent fio2 was 74 and we increased peep to 7.5 suctioned for thick white secreations via ett and copious oral secreations",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": " Unknown",\n                    "duration": " Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e15",\n            "event_type": "Family",\n            "text_quote": "patient and wife were updated by ep fellow, resident and dr [**last name (stitle) 10325**]",\n            "actor": "patient\'s wife",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {\n                    "interaction": "update",\n                    "relation": "wife"\n                }\n            }\n        },\n        {\n            "event_id": "e16",\n            "event_type": "Pain",\n            "text_quote": "cp resolved after second shock and hr came down from 120 to 80-90, and ekg showed resolved ischemia per cards fellow [**doctor first name 4433**]",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "resolved",\n                    "location": " Unknown",\n                    "duration": " Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e17",\n            "event_type": "Excretion",\n            "text_quote": "patient getting hydration, foloow i/o renal labs lytes",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "urine",\n                    "frequency": " Unknown",\n                    "quality": " Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e18",\n            "event_type": "Sleep",\n            "text_quote": "patient intubated at 12:40 and sedated with fentanyl, versed",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": " Unknown",\n                    "duration": " Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e19",\n            "event_type": "Family",\n            "text_quote": "md spoke with his wife by phone",\n            "actor": "patient\'s wife",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {\n                    "interaction": "phone call",\n                    "relation": "wife"\n                }\n            }\n        },\n        {\n            "event_id": "e20",\n            "event_type": "Pain",\n            "text_quote": "patient became pain free . he was in sr at 80-90 then down to 70\'s",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "resolved",\n                    "location": " Unknown",\n                    "duration": " Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e21",\n            "event_type": "Sleep",\n            "text_quote": "patient intubated and denies sob, abg on 60 percent fio2 was 74 and we increased peep to 7.5 suctioned for thick white secreations via ett and copious oral secreations",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": " Unknown",\n                    "duration": " Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e22",\n            "event_type": "Family",\n            "text_quote": "patient and wife were updated by ep fellow, resident and dr [**last name (stitle) 10325**]",\n            "actor": "patient\'s wife",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {\n                    "interaction": "update",\n                    "relation": "wife"\n                }\n            }\n        },\n        {\n            "event_id": "e23",\n            "event_type": "Pain",\n            "text_quote": "cp resolved after second shock and hr came down from 120 to 80-90, and ekg showed resolved ischemia per cards fellow [**doctor first name 4433**]",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "resolved",\n                    "location": " Unknown",\n                    "duration": " Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e24",\n            "event_type": "Excretion",\n            "text_quote": "patient getting hydration, foloow i/o renal labs lytes",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "urine",\n                    "frequency": " Unknown",\n                    "quality": " Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e25",\n            "event_type": "Sleep",\n            "text_quote": "patient intubated at 12:40 and sedated with fentanyl, versed",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": " Unknown",\n                    "duration": " Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e26",\n            "event_type": "Family",\n            "text_quote": "md spoke with his wife by phone",\n            "actor": "patient\'s wife",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {\n                    "interaction": "phone call",\n                    "relation": "wife"\n                }\n            }\n        },\n        {\n            "event_id": "e27",\n            "event_type": "Pain",\n            "text_quote": "patient became pain free . he was in sr at 80-90 then down to 70\'s",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "resolved",\n                    "location": " Unknown",\n                    "duration": " Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e28",\n            "event_type": "Sleep",\n            "text_quote": "patient intubated and denies sob, abg on 60 percent fio2 was 74 and we increased peep to 7.5 suctioned for thick white secreations via ett and copious oral secreations",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": " Unknown",\n                    "duration": " Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e29",\n            "event_type": "Family",\n            "text_quote": "patient and wife were updated by ep fellow, resident and dr [**last name (stitle) 10325**]",\n            "actor": "patient\'s wife",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {\n                    "interaction": "update",\n                    "relation": "wife"\n                }\n            }\n        },\n        {\n            "event_id": "e30",\n            "event_type": "Pain",\n            "text_quote": "cp resolved after second shock and hr came down from 120 to 80-90, and ekg showed resolved ischemia per cards fellow [**doctor first name 4433**]",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "resolved",\n                    "location": " Unknown",\n                    "duration": " Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e31",\n            "event_type": "Excretion",\n            "text_quote": "patient getting hydration, foloow i/o renal labs lytes",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "urine",\n                    "frequency": " Unknown",\n                    "quality": " Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e32",\n            "event_type": "Sleep",\n            "text_quote": "patient intubated at 12:40 and sedated with fentanyl, versed",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": " Unknown",\n                    "duration": " Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e33",\n            "event_type": "Family",\n            "text_quote": "md spoke with his wife by phone",\n            "actor": "patient\'s wife",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {\n                    "interaction": "phone call",\n                    "relation": "wife"\n                }\n            }\n        },\n        {\n            "event_id": "e34",\n            "event_type": "Pain",\n            "text_quote": "patient became pain free . he was in sr at 80-90 then down to 70\'s",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "resolved",\n                    "location": " Unknown",\n                    "duration": " Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e35",\n            "event_type": "Sleep",\n            "text_quote": "patient intubated and denies sob, abg on 60 percent fio2 was 74 and we increased peep to 7.5 suctioned for thick white secreations via ett and copious oral secreations",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": " Unknown",\n                    "duration": " Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e36",\n            "event_type": "Family",\n            "text_quote": "patient and wife were updated by ep fellow, resident and dr [**last name (stitle) 10325**]",\n            "actor": "patient\'s wife",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {\n                    "interaction": "update",\n                    "relation": "wife"\n                }\n            }\n        },\n        {\n            "event_id": "e37",\n            "event_type": "Pain",\n            "text_quote": "cp resolved after second shock and hr came down from 120 to 80-90, and ekg showed resolved ischemia per cards fellow [**doctor first name 4433**]",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "resolved",\n                    "location": " Unknown",\n                    "duration": " Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e38",\n            "event_type": "Excretion",\n            "text_quote": "patient getting hydration, foloow i/o renal labs lytes",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "urine",\n                    "frequency": " Unknown",\n                    "quality": " Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e39",\n            "event_type": "Sleep",\n            "text_quote": "patient intubated at 12:40 and sedated with fentanyl, versed",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": " Unknown",\n                    "duration": " Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e40",\n            "event_type": "Family",\n            "text_quote": "md spoke with his wife by phone",\n            "actor": "patient\'s wife",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {\n                    "interaction": "phone call",\n                    "relation": "wife"\n                }\n            }\n        },\n        {\n            "event_id": "e41",\n            "event_type": "Pain",\n            "text_quote": "patient became pain free . he was in sr at 80-90 then down to 70\'s",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "resolved",\n                    "location": " Unknown",\n                    "duration": " Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e42",\n            "event_type": "Sleep",\n            "text_quote": "patient intubated and denies sob, abg on 60 percent fio2 was 74 and we increased peep to 7.5 suctioned for thick white secreations via ett and copious oral secreations",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": " Unknown",\n                    "duration": " Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e43",\n            "event_type": "Family",\n            "text_quote": "patient and wife were updated by ep fellow, resident and dr [**last name (stitle) 10325**]",\n            "actor": "patient\'s wife",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {\n                    "interaction": "update",\n                    "relation": "wife"\n                }\n            }\n        },\n        {\n            "event_id": "e44",\n            "event_type": "Pain",\n            "text_quote": "cp resolved after second shock and hr came down from 120 to 80-90, and ekg showed resolved ischemia per cards fellow [**doctor first name 4433**]",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "resolved",\n                    "location": " Unknown",\n                    "duration": " Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e45",\n            "event_type": "Excretion",\n            "text_quote": "patient getting hydration, foloow i/o renal labs lytes",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "urine",\n                    "frequency": " Unknown",\n                    "quality": " Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e46",\n            "event_type": "Sleep",\n            "text_quote": "patient intubated at 12:40 and sedated with fentanyl, versed",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": " Unknown",\n                    "duration": " Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e47",\n            "event_type": "Family",\n            "text_quote": "md spoke with his wife by phone",\n            "actor": "patient\'s wife",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {\n                    "interaction": "phone call",\n                    "relation": "wife"\n                }\n            }\n        },\n        {\n            "event_id": "e48",\n            "event_type": "Pain",\n            "text_quote": "patient became pain free . he was in sr at 80-90 then down to 70\'s",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "resolved",\n                    "location": " Unknown",\n                    "duration": " Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e49",\n            "event_type": "Sleep",\n            "text_quote": "patient intubated and denies sob, abg on 60 percent fio2 was 74 and we increased peep to 7.5 suctioned for thick white secreations via ett and copious oral secreations",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": " Unknown",\n                    "duration": " Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e50",\n            "event_type": "Family",\n            "text_quote": "patient and wife were updated by ep fellow, resident and dr [**last name (stitle) 10325**]",\n            "actor": "patient\'s wife",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {\n                    "interaction": "update",\n                    "relation": "wife"\n                }\n            }\n        },\n        {\n            "event_id": "e51",\n            "event_type": "Pain",\n            "text_quote": "cp resolved after second shock and hr came down from 120 to 80-90, and ekg showed resolved ischemia per cards fellow [**doctor first name 4433**]",\n            "actor": "pa</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9" t="b">
+        <v>0</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
@@ -1132,6 +1212,16 @@
         </is>
       </c>
       <c r="Q9" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
         <is>
           <t>['[]']</t>
         </is>
@@ -1159,25 +1249,25 @@
       <c r="E10" t="n">
         <v>0</v>
       </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>(Timestamp('2179-07-06 04:27:00'), Timestamp('2179-07-06 04:33:00'))</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>{'text': "respiratory note:\n patient received on ac 650/12/10 with 60%. remained on current mode overnight. based on abg fio2 wean to 50. clear bs, occ sx for small amt of white secretions. last abg (normal) 7.39/42/104/26/0. rsbi wasn't completed due to peep level. ?plan this am. will continue to monitor.\n", 'event': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5', 'e6', 'e7', 'e8'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Unknown",\n            "text_quote": "patient received on ac 650/12/10 with 60%",\n            "actor": "others",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Unknown",\n            "text_quote": "remained on current mode overnight",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "overnight",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        },\n        {\n            "event_id": "e3",\n            "event_type": "Unknown",\n            "text_quote": "based on abg fio2 wean to 50",\n            "actor": "others",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        },\n        {\n            "event_id": "e4",\n            "event_type": "Unknown",\n            "text_quote": "clear bs, occ sx for small amt of white secretions",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        },\n        {\n            "event_id": "e5",\n            "event_type": "Unknown",\n            "text_quote": "last abg (normal) 7.39/42/104/26/0",\n            "actor": "others",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        },\n        {\n            "event_id": "e6",\n            "event_type": "Unknown",\n            "text_quote": "rsbi wasn\'t completed due to peep level",\n            "actor": "others",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        },\n        {\n            "event_id": "e7",\n            "event_type": "Unknown",\n            "text_quote": "?plan this am",\n            "actor": "others",\n            "object": "patient",\n            "negation": false,\n            "time": "this am",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        },\n        {\n            "event_id": "e8",\n            "event_type": "Unknown",\n            "text_quote": "will continue to monitor",\n            "actor": "others",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        }\n    ],\n    "order": []\n}', 'attributes': [{'Unknown': {}}, {'Unknown': {}}, {'Unknown': {}}, {'Unknown': {}}, {'Unknown': {}}, {'Unknown': {}}, {'Unknown': {}}, {'Unknown': {}}], 'orders': [[]], 'text_quotes': ['patient received on ac 650/12/10 with 60%', 'remained on current mode overnight', 'based on abg fio2 wean to 50', 'clear bs, occ sx for small amt of white secretions', 'last abg (normal) 7.39/42/104/26/0', "rsbi wasn't completed due to peep level", '?plan this am', 'will continue to monitor'], 'event_time': ['Unknown', 'overnight', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'this am', 'Unknown'], 'negation': [False, False, False, False, False, True, False, False], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2179-07-06 04:27:00 and 2179-07-06 04:33:00):\n           respiratory note:\n patient received on ac 650/12/10 with 60%. remained on current mode overnight. based on abg fio2 wean to 50. clear bs, occ sx for small amt of white secretions. last abg (normal) 7.39/42/104/26/0. rsbi wasn\'t completed due to peep level. ?plan this am. will continue to monitor.\n\n        ', 'case_attributes': [[]], 'actor': ['others', 'patient', 'others', 'patient', 'others', 'others', 'others', 'others'], 'event_detection_time': 20.665990890935063}</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="b">
+        <v>0</v>
+      </c>
+      <c r="K10" t="b">
+        <v>0</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
@@ -1186,25 +1276,35 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
           <t>['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown']</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>[{'Unknown': {}}, {'Unknown': {}}, {'Unknown': {}}, {'Unknown': {}}, {'Unknown': {}}, {'Unknown': {}}, {'Unknown': {}}, {'Unknown': {}}]</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>['patient received on ac 650/12/10 with 60%', 'remained on current mode overnight', 'based on abg fio2 wean to 50', 'clear bs, occ sx for small amt of white secretions', 'last abg (normal) 7.39/42/104/26/0', "rsbi wasn't completed due to peep level", '?plan this am', 'will continue to monitor']</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="R10" t="inlineStr">
         <is>
           <t>['e1=Unknown|1:patient received on ac 650/12/10 with 60%', 'e2=Unknown|1:remained on current mode overnight', 'e3=Unknown|1:based on abg fio2 wean to 50', 'e4=Unknown|1:clear bs, occ sx for small amt of white secretions', 'e5=Unknown|1:last abg (normal) 7.39/42/104/26/0', "e6=Unknown|1:rsbi wasn't completed due to peep level", 'e7=Unknown|1:?plan this am', 'e8=Unknown|1:will continue to monitor']</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -1233,25 +1333,25 @@
       <c r="E11" t="n">
         <v>0</v>
       </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="b">
-        <v>0</v>
-      </c>
-      <c r="I11" t="b">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>(Timestamp('2179-07-06 16:52:00'), Timestamp('2179-07-06 16:55:00'))</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>{'text': 'the has been weaning on the vent and doing quite well .abg results:\n7.39/43/92.on spontaneous mode [**7-20**] and 40%.bs clear,minimal secretion.\nhe bis ordered to remain on spont if tolarated.\n', 'event': ['Unknown'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Unknown",\n            "text_quote": "the has been weaning on the vent and doing quite well .abg results: 7.39/43/92.on spontaneous mode [**7-20**] and 40%.bs clear,minimal secretion.",\n            "actor": "patient",\n            "object": "vent",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        }\n    ],\n    "order": []\n}', 'attributes': [{'Unknown': {}}], 'orders': [[]], 'text_quotes': ['the has been weaning on the vent and doing quite well .abg results: 7.39/43/92.on spontaneous mode [**7-20**] and 40%.bs clear,minimal secretion.'], 'event_time': ['Unknown'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2179-07-06 16:52:00 and 2179-07-06 16:55:00):\n           the has been weaning on the vent and doing quite well .abg results:\n7.39/43/92.on spontaneous mode [**7-20**] and 40%.bs clear,minimal secretion.\nhe bis ordered to remain on spont if tolarated.\n\n        ', 'case_attributes': [[]], 'actor': ['patient'], 'event_detection_time': 4.197620751103386}</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="b">
+        <v>0</v>
+      </c>
+      <c r="K11" t="b">
+        <v>0</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
@@ -1260,25 +1360,35 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
           <t>['Unknown']</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>[{'Unknown': {}}]</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>['the has been weaning on the vent and doing quite well .abg results: 7.39/43/92.on spontaneous mode [**7-20**] and 40%.bs clear,minimal secretion.']</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="R11" t="inlineStr">
         <is>
           <t>['e1=Unknown|0:the has been weaning on the vent and doing quite well .abg results: 7.39/43/92.on spontaneous mode [**7-20**] and 40%.bs clear,minimal secretion.']</t>
         </is>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="S11" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -1307,25 +1417,25 @@
       <c r="E12" t="n">
         <v>0</v>
       </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12" t="b">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>(Timestamp('2179-07-07 04:32:00'), Timestamp('2179-07-07 04:35:00'))</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>{'text': 'respiratory care note\n\npatient remains intubated and ventilated on ac settings at this time.  no vent changes made up to this time.  sxn for thick white secretions.  rsbi completed on ps 5=57.  plan to wean on cpap/ps this am.\n\n                            [**first name11 (name pattern1) 113**] [**last name (namepattern4) 114**], rrt\n', 'event': ['Unknown', 'Unknown', 'Pain', 'Unknown', 'Unknown'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Unknown",\n            "text_quote": "patient remains intubated and ventilated on ac settings at this time.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Unknown",\n            "text_quote": "no vent changes made up to this time.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        },\n        {\n            "event_id": "e3",\n            "event_type": "Pain",\n            "text_quote": "sxn for thick white secretions.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "severity": "Unknown",\n                "location": "Unknown",\n                "duration": "Unknown"\n            }\n        },\n        {\n            "event_id": "e4",\n            "event_type": "Unknown",\n            "text_quote": "rsbi completed on ps 5=57.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        },\n        {\n            "event_id": "e5",\n            "event_type": "Unknown",\n            "text_quote": "plan to wean on cpap/ps this am.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "am",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        }\n    ],\n    "order": [\n        {\n            "event_id_1": "e1",\n            "relation": "before",\n            "event_id_2": "e2"\n        },\n        {\n            "event_id_1": "e2",\n            "relation": "before",\n            "event_id_2": "e3"\n        },\n        {\n            "event_id_1": "e3",\n            "relation": "before",\n            "event_id_2": "e4"\n        },\n        {\n            "event_id_1": "e4",\n            "relation": "before",\n            "event_id_2": "e5"\n        }\n    ]\n}', 'attributes': [{'Unknown': {}}, {'Unknown': {}}, {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}, {'Unknown': {}}, {'Unknown': {}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e3'}, {'event_id_1': 'e3', 'relation': 'before', 'event_id_2': 'e4'}, {'event_id_1': 'e4', 'relation': 'before', 'event_id_2': 'e5'}]], 'text_quotes': ['patient remains intubated and ventilated on ac settings at this time.', 'no vent changes made up to this time.', 'sxn for thick white secretions.', 'rsbi completed on ps 5=57.', 'plan to wean on cpap/ps this am.'], 'event_time': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'am'], 'negation': [False, True, False, False, False], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2179-07-07 04:32:00 and 2179-07-07 04:35:00):\n           respiratory care note\n\npatient remains intubated and ventilated on ac settings at this time.  no vent changes made up to this time.  sxn for thick white secretions.  rsbi completed on ps 5=57.  plan to wean on cpap/ps this am.\n\n                            [**first name11 (name pattern1) 113**] [**last name (namepattern4) 114**], rrt\n\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient', 'patient', 'patient', 'patient'], 'event_detection_time': 17.34563826303929}</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="b">
+        <v>0</v>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
@@ -1334,25 +1444,35 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
           <t>['Unknown', 'Unknown', 'Pain', 'Unknown', 'Unknown']</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="P12" t="inlineStr">
         <is>
           <t>[{'Unknown': {}}, {'Unknown': {}}, {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}, {'Unknown': {}}, {'Unknown': {}}]</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="Q12" t="inlineStr">
         <is>
           <t>['patient remains intubated and ventilated on ac settings at this time.', 'no vent changes made up to this time.', 'sxn for thick white secretions.', 'rsbi completed on ps 5=57.', 'plan to wean on cpap/ps this am.']</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
+      <c r="R12" t="inlineStr">
         <is>
           <t>['e1=Unknown|1:patient remains intubated and ventilated on ac settings at this time.', 'e2=Unknown|1:no vent changes made up to this time.', 'e3=Pain|1:sxn for thick white secretions.', 'e4=Unknown|1:rsbi completed on ps 5=57.', 'e5=Unknown|1:plan to wean on cpap/ps this am.']</t>
         </is>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="S12" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e3'}, {'event_id_1': 'e3', 'relation': 'before', 'event_id_2': 'e4'}, {'event_id_1': 'e4', 'relation': 'before', 'event_id_2': 'e5'}]]</t>
         </is>
@@ -1380,25 +1500,25 @@
       <c r="E13" t="n">
         <v>0</v>
       </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>(Timestamp('2179-07-07 17:43:00'), Timestamp('2179-07-07 17:45:00'))</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>{'text': 'resp care\nremains intub/vented in ac mode. transported to cath lab without incident. sxned small amts thick yellow sputum. awaiting decision re:surgery before attempting wean. comfortable on present settings.\n', 'event': ['Unknown', 'Excretion', 'Pain'], 'event_id': ['e1', 'e2', 'e3'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Unknown",\n            "text_quote": "remains intub/vented in ac mode.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Excretion",\n            "text_quote": "sxned small amts thick yellow sputum.",\n            "actor": "patient",\n            "object": "sputum",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "sputum",\n                    "frequency": "small amounts",\n                    "quality": "thick yellow"\n                }\n            }\n        },\n        {\n            "event_id": "e3",\n            "event_type": "Pain",\n            "text_quote": "comfortable on present settings.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "none",\n                    "location": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        }\n    ],\n    "order": [\n        {\n            "event_id_1": "e1",\n            "relation": "before",\n            "event_id_2": "e2"\n        },\n        {\n            "event_id_1": "e2",\n            "relation": "before",\n            "event_id_2": "e3"\n        }\n    ]\n}', 'attributes': [{'Unknown': {}}, {'Excretion': {'Excretion': {'type': 'sputum', 'frequency': 'small amounts', 'quality': 'thick yellow'}}}, {'Pain': {'Pain': {'severity': 'none', 'location': 'Unknown', 'duration': 'Unknown'}}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e3'}]], 'text_quotes': ['remains intub/vented in ac mode.', 'sxned small amts thick yellow sputum.', 'comfortable on present settings.'], 'event_time': ['Unknown', 'Unknown', 'Unknown'], 'negation': [False, False, False], 'caused_by': ['Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2179-07-07 17:43:00 and 2179-07-07 17:45:00):\n           resp care\nremains intub/vented in ac mode. transported to cath lab without incident. sxned small amts thick yellow sputum. awaiting decision re:surgery before attempting wean. comfortable on present settings.\n\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient', 'patient'], 'event_detection_time': 11.760012008016929}</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="b">
+        <v>0</v>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
@@ -1407,25 +1527,35 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
           <t>['Unknown', 'Excretion', 'Pain']</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="P13" t="inlineStr">
         <is>
           <t>[{'Unknown': {}}, {'Excretion': {'Excretion': {'type': 'sputum', 'frequency': 'small amounts', 'quality': 'thick yellow'}}}, {'Pain': {'Pain': {'severity': 'none', 'location': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
+      <c r="Q13" t="inlineStr">
         <is>
           <t>['remains intub/vented in ac mode.', 'sxned small amts thick yellow sputum.', 'comfortable on present settings.']</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
+      <c r="R13" t="inlineStr">
         <is>
           <t>['e1=Unknown|1:remains intub/vented in ac mode.', 'e2=Excretion|1:sxned small amts thick yellow sputum.', 'e3=Pain|1:comfortable on present settings.']</t>
         </is>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="S13" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e3'}]]</t>
         </is>
@@ -1452,25 +1582,25 @@
       <c r="E14" t="n">
         <v>0</v>
       </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>(Timestamp('2179-07-07 18:35:00'), Timestamp('2179-07-07 18:44:00'))</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>{'text': '(continued)\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n', 'event': [], 'event_id': [], 'phrase': '', 'raw_output': '{"case_attributes": [], "events": [], "order": []}', 'attributes': [], 'orders': [[]], 'text_quotes': [], 'event_time': [], 'negation': [], 'caused_by': [], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2179-07-07 18:35:00 and 2179-07-07 18:44:00):\n           (continued)\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n        ', 'case_attributes': [[]], 'actor': [], 'event_detection_time': 0.5889970238786191}</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="b">
+        <v>0</v>
+      </c>
+      <c r="K14" t="b">
+        <v>0</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
@@ -1498,6 +1628,16 @@
         </is>
       </c>
       <c r="Q14" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -1525,25 +1665,25 @@
       <c r="E15" t="n">
         <v>0</v>
       </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>(Timestamp('2179-07-08 05:27:00'), Timestamp('2179-07-08 05:32:00'))</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>{'text': "respiratory care:\n\npatient remains intubated, vent supported. no changes made overnight. bs's ess clear, some coarseness. see flowsheet for further patient data. will follow.\n", 'event': ['Unknown'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Unknown",\n            "text_quote": "patient remains intubated, vent supported.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "overnight",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        }\n    ],\n    "order": []\n}', 'attributes': [{'Unknown': {}}], 'orders': [[]], 'text_quotes': ['patient remains intubated, vent supported.'], 'event_time': ['overnight'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2179-07-08 05:27:00 and 2179-07-08 05:32:00):\n           respiratory care:\n\npatient remains intubated, vent supported. no changes made overnight. bs\'s ess clear, some coarseness. see flowsheet for further patient data. will follow.\n\n        ', 'case_attributes': [[]], 'actor': ['patient'], 'event_detection_time': 3.1584780218545347}</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="b">
+        <v>0</v>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
@@ -1552,25 +1692,35 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
           <t>['Unknown']</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="P15" t="inlineStr">
         <is>
           <t>[{'Unknown': {}}]</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
+      <c r="Q15" t="inlineStr">
         <is>
           <t>['patient remains intubated, vent supported.']</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr">
+      <c r="R15" t="inlineStr">
         <is>
           <t>['e1=Unknown|1:patient remains intubated, vent supported.']</t>
         </is>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="S15" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -1598,25 +1748,25 @@
       <c r="E16" t="n">
         <v>0</v>
       </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>(Timestamp('2179-07-09 05:48:00'), Timestamp('2179-07-09 05:58:00'))</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>{'text': "respiratory care:\n\npatient remains intubated, fully vent supported on ac mode. no changes made overnight. bs's diminished with some coarseness. sxing thick pale yellow secretions from ett. attempted rsbi this am, patient without spont. rr at that time. will reattempt later this am.  see flowsheet for further patient data. will follow.\n", 'event': ['Unknown', 'Unknown', 'Unknown', 'Excretion', 'Unknown', 'Unknown'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5', 'e6'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Unknown",\n            "text_quote": "patient remains intubated, fully vent supported on ac mode.",\n            "actor": "patient",\n            "object": "ventilator",\n            "negation": false,\n            "time": "overnight",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Unknown",\n            "text_quote": "no changes made overnight.",\n            "actor": "medical staff",\n            "object": "patient care",\n            "negation": true,\n            "time": "overnight",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        },\n        {\n            "event_id": "e3",\n            "event_type": "Unknown",\n            "text_quote": "bs\'s diminished with some coarseness.",\n            "actor": "patient",\n            "object": "breath sounds",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        },\n        {\n            "event_id": "e4",\n            "event_type": "Excretion",\n            "text_quote": "sxing thick pale yellow secretions from ett.",\n            "actor": "patient",\n            "object": "secretions",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "secretions",\n                    "frequency": "Unknown",\n                    "quality": "thick pale yellow"\n                }\n            }\n        },\n        {\n            "event_id": "e5",\n            "event_type": "Unknown",\n            "text_quote": "attempted rsbi this am, patient without spont. rr at that time.",\n            "actor": "medical staff",\n            "object": "patient care",\n            "negation": true,\n            "time": "this am",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        },\n        {\n            "event_id": "e6",\n            "event_type": "Unknown",\n            "text_quote": "will reattempt later this am.",\n            "actor": "medical staff",\n            "object": "patient care",\n            "negation": false,\n            "time": "later this am",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        }\n    ],\n    "order": [\n        {\n            "event_id_1": "e1",\n            "relation": "before",\n            "event_id_2": "e2"\n        },\n        {\n            "event_id_1": "e2",\n            "relation": "before",\n            "event_id_2": "e3"\n        },\n        {\n            "event_id_1": "e3",\n            "relation": "before",\n            "event_id_2": "e4"\n        },\n        {\n            "event_id_1": "e4",\n            "relation": "before",\n            "event_id_2": "e5"\n        },\n        {\n            "event_id_1": "e5",\n            "relation": "before",\n            "event_id_2": "e6"\n        }\n    ]\n}', 'attributes': [{'Unknown': {}}, {'Unknown': {}}, {'Unknown': {}}, {'Excretion': {'Excretion': {'type': 'secretions', 'frequency': 'Unknown', 'quality': 'thick pale yellow'}}}, {'Unknown': {}}, {'Unknown': {}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e3'}, {'event_id_1': 'e3', 'relation': 'before', 'event_id_2': 'e4'}, {'event_id_1': 'e4', 'relation': 'before', 'event_id_2': 'e5'}, {'event_id_1': 'e5', 'relation': 'before', 'event_id_2': 'e6'}]], 'text_quotes': ['patient remains intubated, fully vent supported on ac mode.', 'no changes made overnight.', "bs's diminished with some coarseness.", 'sxing thick pale yellow secretions from ett.', 'attempted rsbi this am, patient without spont. rr at that time.', 'will reattempt later this am.'], 'event_time': ['overnight', 'overnight', 'Unknown', 'Unknown', 'this am', 'later this am'], 'negation': [False, True, False, False, True, False], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2179-07-09 05:48:00 and 2179-07-09 05:58:00):\n           respiratory care:\n\npatient remains intubated, fully vent supported on ac mode. no changes made overnight. bs\'s diminished with some coarseness. sxing thick pale yellow secretions from ett. attempted rsbi this am, patient without spont. rr at that time. will reattempt later this am.  see flowsheet for further patient data. will follow.\n\n        ', 'case_attributes': [[]], 'actor': ['patient', 'medical staff', 'patient', 'patient', 'medical staff', 'medical staff'], 'event_detection_time': 21.359480641083792}</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="b">
+        <v>0</v>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
@@ -1625,25 +1775,35 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
           <t>['Unknown', 'Unknown', 'Unknown', 'Excretion', 'Unknown', 'Unknown']</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr">
+      <c r="P16" t="inlineStr">
         <is>
           <t>[{'Unknown': {}}, {'Unknown': {}}, {'Unknown': {}}, {'Excretion': {'Excretion': {'type': 'secretions', 'frequency': 'Unknown', 'quality': 'thick pale yellow'}}}, {'Unknown': {}}, {'Unknown': {}}]</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr">
+      <c r="Q16" t="inlineStr">
         <is>
           <t>['patient remains intubated, fully vent supported on ac mode.', 'no changes made overnight.', "bs's diminished with some coarseness.", 'sxing thick pale yellow secretions from ett.', 'attempted rsbi this am, patient without spont. rr at that time.', 'will reattempt later this am.']</t>
         </is>
       </c>
-      <c r="P16" t="inlineStr">
+      <c r="R16" t="inlineStr">
         <is>
           <t>['e1=Unknown|1:patient remains intubated, fully vent supported on ac mode.', 'e2=Unknown|1:no changes made overnight.', "e3=Unknown|1:bs's diminished with some coarseness.", 'e4=Excretion|1:sxing thick pale yellow secretions from ett.', 'e5=Unknown|1:attempted rsbi this am, patient without spont. rr at that time.', 'e6=Unknown|1:will reattempt later this am.']</t>
         </is>
       </c>
-      <c r="Q16" t="inlineStr">
+      <c r="S16" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e3'}, {'event_id_1': 'e3', 'relation': 'before', 'event_id_2': 'e4'}, {'event_id_1': 'e4', 'relation': 'before', 'event_id_2': 'e5'}, {'event_id_1': 'e5', 'relation': 'before', 'event_id_2': 'e6'}]]</t>
         </is>
@@ -1671,25 +1831,25 @@
       <c r="E17" t="n">
         <v>0</v>
       </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="b">
-        <v>0</v>
-      </c>
-      <c r="I17" t="b">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>(Timestamp('2179-07-09 15:48:00'), Timestamp('2179-07-09 15:50:00'))</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>{'text': 'respiratory care\npatient. remains on ventilator, settings as stated in carevue, no changes made and tolerating well. plan: to wait to wean to extubate tomorrow. [**first name8 (namepattern2) 427**] [**last name (namepattern1) 10328**].\n', 'event': ['Unknown'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Unknown",\n            "text_quote": "patient. remains on ventilator, settings as stated in carevue, no changes made and tolerating well.",\n            "actor": "patient",\n            "object": "ventilator",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        }\n    ],\n    "order": []\n}', 'attributes': [{'Unknown': {}}], 'orders': [[]], 'text_quotes': ['patient. remains on ventilator, settings as stated in carevue, no changes made and tolerating well.'], 'event_time': ['Unknown'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2179-07-09 15:48:00 and 2179-07-09 15:50:00):\n           respiratory care\npatient. remains on ventilator, settings as stated in carevue, no changes made and tolerating well. plan: to wait to wean to extubate tomorrow. [**first name8 (namepattern2) 427**] [**last name (namepattern1) 10328**].\n\n        ', 'case_attributes': [[]], 'actor': ['patient'], 'event_detection_time': 3.591009512078017}</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="b">
+        <v>0</v>
+      </c>
+      <c r="K17" t="b">
+        <v>0</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
@@ -1698,25 +1858,35 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
           <t>['Unknown']</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr">
+      <c r="P17" t="inlineStr">
         <is>
           <t>[{'Unknown': {}}]</t>
         </is>
       </c>
-      <c r="O17" t="inlineStr">
+      <c r="Q17" t="inlineStr">
         <is>
           <t>['patient. remains on ventilator, settings as stated in carevue, no changes made and tolerating well.']</t>
         </is>
       </c>
-      <c r="P17" t="inlineStr">
+      <c r="R17" t="inlineStr">
         <is>
           <t>['e1=Unknown|1:patient. remains on ventilator, settings as stated in carevue, no changes made and tolerating well.']</t>
         </is>
       </c>
-      <c r="Q17" t="inlineStr">
+      <c r="S17" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -1743,25 +1913,25 @@
       <c r="E18" t="n">
         <v>0</v>
       </c>
-      <c r="F18" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="b">
-        <v>0</v>
-      </c>
-      <c r="I18" t="b">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>(Timestamp('2179-07-09 18:20:00'), Timestamp('2179-07-09 18:28:00'))</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>{'text': "addendum: vent changed to cpap 5/5/50%- tolerating well- spo2 95-98%- abg ordered for [**2170**]- amiodarone drops d/c'd @ 1700-  no ectopy noted- ultrasound/doppler study of both arms done r/o emboli.\n", 'event': ['Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_id': ['e1', 'e2', 'e3', 'e4'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Unknown",\n            "text_quote": "vent changed to cpap 5/5/50%- tolerating well- spo2 95-98%",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Unknown",\n            "text_quote": "abg ordered for [**2170**]",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        },\n        {\n            "event_id": "e3",\n            "event_type": "Unknown",\n            "text_quote": "amiodarone drops d/c\'d @ 1700- no ectopy noted",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "1700",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        },\n        {\n            "event_id": "e4",\n            "event_type": "Unknown",\n            "text_quote": "ultrasound/doppler study of both arms done r/o emboli",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        }\n    ],\n    "order": [\n        {\n            "event_id_1": "e3",\n            "relation": "before",\n            "event_id_2": "e4"\n        },\n        {\n            "event_id_1": "e1",\n            "relation": "unknown",\n            "event_id_2": "e2"\n        }\n    ]\n}', 'attributes': [{'Unknown': {}}, {'Unknown': {}}, {'Unknown': {}}, {'Unknown': {}}], 'orders': [[{'event_id_1': 'e3', 'relation': 'before', 'event_id_2': 'e4'}, {'event_id_1': 'e1', 'relation': 'unknown', 'event_id_2': 'e2'}]], 'text_quotes': ['vent changed to cpap 5/5/50%- tolerating well- spo2 95-98%', 'abg ordered for [**2170**]', "amiodarone drops d/c'd @ 1700- no ectopy noted", 'ultrasound/doppler study of both arms done r/o emboli'], 'event_time': ['Unknown', 'Unknown', '1700', 'Unknown'], 'negation': [False, False, False, False], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2179-07-09 18:20:00 and 2179-07-09 18:28:00):\n           addendum: vent changed to cpap 5/5/50%- tolerating well- spo2 95-98%- abg ordered for [**2170**]- amiodarone drops d/c\'d @ 1700-  no ectopy noted- ultrasound/doppler study of both arms done r/o emboli.\n\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient', 'patient', 'patient'], 'event_detection_time': 13.00360955693759}</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="b">
+        <v>0</v>
+      </c>
+      <c r="K18" t="b">
+        <v>0</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
@@ -1770,25 +1940,35 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
           <t>['Unknown', 'Unknown', 'Unknown', 'Unknown']</t>
         </is>
       </c>
-      <c r="N18" t="inlineStr">
+      <c r="P18" t="inlineStr">
         <is>
           <t>[{'Unknown': {}}, {'Unknown': {}}, {'Unknown': {}}, {'Unknown': {}}]</t>
         </is>
       </c>
-      <c r="O18" t="inlineStr">
+      <c r="Q18" t="inlineStr">
         <is>
           <t>['vent changed to cpap 5/5/50%- tolerating well- spo2 95-98%', 'abg ordered for [**2170**]', "amiodarone drops d/c'd @ 1700- no ectopy noted", 'ultrasound/doppler study of both arms done r/o emboli']</t>
         </is>
       </c>
-      <c r="P18" t="inlineStr">
+      <c r="R18" t="inlineStr">
         <is>
           <t>['e1=Unknown|1:vent changed to cpap 5/5/50%- tolerating well- spo2 95-98%', 'e2=Unknown|1:abg ordered for [**2170**]', "e3=Unknown|0:amiodarone drops d/c'd @ 1700- no ectopy noted", 'e4=Unknown|1:ultrasound/doppler study of both arms done r/o emboli']</t>
         </is>
       </c>
-      <c r="Q18" t="inlineStr">
+      <c r="S18" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e3', 'relation': 'before', 'event_id_2': 'e4'}, {'event_id_1': 'e1', 'relation': 'unknown', 'event_id_2': 'e2'}]]</t>
         </is>
@@ -1816,25 +1996,25 @@
       <c r="E19" t="n">
         <v>0</v>
       </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19" t="b">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>(Timestamp('2179-07-10 06:34:00'), Timestamp('2179-07-10 06:36:00'))</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">{'text': 'resp care\npatient changed back to a/c to rest overnight. patient initially on [**4-19**] but appeared to tire with rr inc &gt; 30 and vt &lt;300cc. bs coarse bil. suct frequently for thick tan sput.currently on a/c 600x14 50% 5peep.rsbi done =83.will cont to follow and change back to psv as tolerated.\n', 'event': [], 'event_id': [], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Sleep",\n            "text_quote": "patient changed back to a/c to rest overnight.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "overnight",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Excretion",\n            "text_quote": "suct frequently for thick tan sput.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "sputum",\n                    "frequency": "frequently",\n                    "quality": "thick tan"\n                }\n            }\n        },\n        {\n            "event_id": "e3",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "Unknown",\n                    "location": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e4",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "Unknown",\n                    "frequency": "Unknown",\n                    "quality": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e5",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e6",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "Unknown",\n                    "frequency": "Unknown",\n                    "quality": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e7",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e8",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "Unknown",\n                    "frequency": "Unknown",\n                    "quality": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e9",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e10",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "Unknown",\n                    "frequency": "Unknown",\n                    "quality": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e11",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e12",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "Unknown",\n                    "frequency": "Unknown",\n                    "quality": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e13",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e14",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "Unknown",\n                    "frequency": "Unknown",\n                    "quality": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e15",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e16",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "Unknown",\n                    "frequency": "Unknown",\n                    "quality": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e17",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e18",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "Unknown",\n                    "frequency": "Unknown",\n                    "quality": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e19",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e20",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "Unknown",\n                    "frequency": "Unknown",\n                    "quality": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e21",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e22",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "Unknown",\n                    "frequency": "Unknown",\n                    "quality": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e23",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e24",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "Unknown",\n                    "frequency": "Unknown",\n                    "quality": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e25",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e26",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "Unknown",\n                    "frequency": "Unknown",\n                    "quality": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e27",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e28",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "Unknown",\n                    "frequency": "Unknown",\n                    "quality": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e29",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e30",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "Unknown",\n                    "frequency": "Unknown",\n                    "quality": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e31",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e32",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "Unknown",\n                    "frequency": "Unknown",\n                    "quality": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e33",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e34",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "Unknown",\n                    "frequency": "Unknown",\n                    "quality": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e35",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e36",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "Unknown",\n                    "frequency": "Unknown",\n                    "quality": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e37",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e38",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "Unknown",\n                    "frequency": "Unknown",\n                    "quality": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e39",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e40",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "Unknown",\n                    "frequency": "Unknown",\n                    "quality": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e41",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e42",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "Unknown",\n                    "frequency": "Unknown",\n                    "quality": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e43",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e44",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "Unknown",\n                    "frequency": "Unknown",\n                    "quality": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e45",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e46",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "Unknown",\n                    "frequency": "Unknown",\n                    "quality": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e47",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e48",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "Unknown",\n                    "frequency": "Unknown",\n                    "quality": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e49",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e50",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "Unknown",\n                    "frequency": "Unknown",\n                    "quality": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e51",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e52",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "Unknown",\n                    "frequency": "Unknown",\n                    "quality": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e53",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e54",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "Unknown",\n                    "frequency": "Unknown",\n                    "quality": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e55",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e56",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "Unknown",\n                    "frequency": "Unknown",\n                    "quality": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e57",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e58",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "Unknown",\n                    "frequency": "Unknown",\n                    "quality": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e59",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e60",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "Unknown",\n                    "frequency": "Unknown",\n                    "quality": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e61",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e62",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "Unknown",\n                    "frequency": "Unknown",\n                    "quality": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e63",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e64",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "Unknown",\n                    "frequency": "Unknown",\n                    "quality": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e65",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "Unknown",\n                    "duration": "Unknown"\n                }\n     </t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="b">
+        <v>0</v>
+      </c>
+      <c r="K19" t="b">
+        <v>0</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
@@ -1862,6 +2042,16 @@
         </is>
       </c>
       <c r="Q19" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
         <is>
           <t>['[]']</t>
         </is>
@@ -1889,25 +2079,25 @@
       <c r="E20" t="n">
         <v>0</v>
       </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>(Timestamp('2179-07-10 14:46:00'), Timestamp('2179-07-10 14:47:00'))</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>{'text': 'respiratory care\npatient was weaned and extubated tol well.  see respiratory page of carevue for more information.\n', 'event': ['Unknown'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Unknown",\n            "text_quote": "patient was weaned and extubated tol well.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        }\n    ],\n    "order": []\n}', 'attributes': [{'Unknown': {}}], 'orders': [[]], 'text_quotes': ['patient was weaned and extubated tol well.'], 'event_time': ['Unknown'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2179-07-10 14:46:00 and 2179-07-10 14:47:00):\n           respiratory care\npatient was weaned and extubated tol well.  see respiratory page of carevue for more information.\n\n        ', 'case_attributes': [[]], 'actor': ['patient'], 'event_detection_time': 3.161935456097126}</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="b">
+        <v>0</v>
+      </c>
+      <c r="K20" t="b">
+        <v>0</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
@@ -1916,25 +2106,35 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
           <t>['Unknown']</t>
         </is>
       </c>
-      <c r="N20" t="inlineStr">
+      <c r="P20" t="inlineStr">
         <is>
           <t>[{'Unknown': {}}]</t>
         </is>
       </c>
-      <c r="O20" t="inlineStr">
+      <c r="Q20" t="inlineStr">
         <is>
           <t>['patient was weaned and extubated tol well.']</t>
         </is>
       </c>
-      <c r="P20" t="inlineStr">
+      <c r="R20" t="inlineStr">
         <is>
           <t>['e1=Unknown|1:patient was weaned and extubated tol well.']</t>
         </is>
       </c>
-      <c r="Q20" t="inlineStr">
+      <c r="S20" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -1975,25 +2175,25 @@
       <c r="E21" t="n">
         <v>0</v>
       </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" t="b">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>(Timestamp('2179-07-11 16:53:00'), Timestamp('2179-07-11 17:17:00'))</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>{'text': 'npn ccu 0700-1900\n\ns/o: "my throat feels better"\n67 year old male status post vt ablation, transitioned to oral anti arrythmics and beta blockers. extubated on [**7-10**]. rare pvc or couplets, no sustained vt this shift.\n\ncv: hr 60 sr w 1st degree hb. pr 0.23, qtc 0.40\non by mouth amio, mexilitine, and lopressor. hep drops at 1250units/hr for rue dvt. bp 113/62. groin ecchymotic, +pp.\nresp: cough improving. productive of thick white sputum. lasix 80mg by mouth given today. cxr with pulm vasc congestion, ls clear this afternoon. cpt done to help with secretions. oxygen saturation 96 % on 3lnc.\noob x2 today with 1 assist.\ngi: abd obese. bm soft x1 today. tolerating by mouth meds crushed in ice cream. swollowing has improved today, tolerating icecream, jello and sips of o2 without difficulty.\ngu: voiding adequate amounts, foley d/c\'d. creat wnl.\nskin: rue remains edematous d/t dvt. lue improved.\naccess: tlcl in l ij d/c\'d. midline placed in left ac.\nid: wbc wnl, temp 98.4 ax. on iv cefazolin for mssa in sputum. bld cx sent x1 today.\n\na: no vt on oral meds post ablation. rue dvt. afebrile on iv abx. resp status stable. swollowing and voice improved.\np: patient consult. speech and swallow [**7-12**]. monitor ptt and k+/mag. cont hep drops. to start coumadin tonight.  transfer note initiated.\nf/u with pm labs.\n', 'event': ['Pain'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [\n        {\n            "attribute_name": "patient history",\n            "attribute_value": "status post vt ablation, transitioned to oral anti arrythmics and beta blockers"\n        },\n        {\n            "attribute_name": "previous treatment",\n            "attribute_value": "extubated on [**7-10**]"\n        }\n    ],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Pain",\n            "text_quote": "" \n            },\n            "actor" \n            ],\n            "object":"patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "mild",\n                    "location": "throat"\n                }\n            }\n        }', 'attributes': [{'Pain': {}}], 'orders': [], 'text_quotes': [''], 'event_time': ['Unknown'], 'negation': ['Unknown'], 'caused_by': ['Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2179-07-11 16:53:00 and 2179-07-11 17:17:00):\n           npn ccu 0700-1900\n\ns/o: "my throat feels better"\n67 year old male status post vt ablation, transitioned to oral anti arrythmics and beta blockers. extubated on [**7-10**]. rare pvc or couplets, no sustained vt this shift.\n\ncv: hr 60 sr w 1st degree hb. pr 0.23, qtc 0.40\non by mouth amio, mexilitine, and lopressor. hep drops at 1250units/hr for rue dvt. bp 113/62. groin ecchymotic, +pp.\nresp: cough improving. productive of thick white sputum. lasix 80mg by mouth given today. cxr with pulm vasc congestion, ls clear this afternoon. cpt done to help with secretions. oxygen saturation 96 % on 3lnc.\noob x2 today with 1 assist.\ngi: abd obese. bm soft x1 today. tolerating by mouth meds crushed in ice cream. swollowing has improved today, tolerating icecream, jello and sips of o2 without difficulty.\ngu: voiding adequate amounts, foley d/c\'d. creat wnl.\nskin: rue remains edematous d/t dvt. lue improved.\naccess: tlcl in l ij d/c\'d. midline placed in left ac.\nid: wbc wnl, temp 98.4 ax. on iv cefazolin for mssa in sputum. bld cx sent x1 today.\n\na: no vt on oral meds post ablation. rue dvt. afebrile on iv abx. resp status stable. swollowing and voice improved.\np: patient consult. speech and swallow [**7-12**]. monitor ptt and k+/mag. cont hep drops. to start coumadin tonight.  transfer note initiated.\nf/u with pm labs.\n\n        ', 'case_attributes': [], 'actor': ['Unknown'], 'event_detection_time': 6.015602760948241}</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="b">
+        <v>0</v>
+      </c>
+      <c r="K21" t="b">
+        <v>0</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
@@ -2002,25 +2202,35 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
           <t>['Pain']</t>
         </is>
       </c>
-      <c r="N21" t="inlineStr">
+      <c r="P21" t="inlineStr">
         <is>
           <t>[{'Pain': {}}]</t>
         </is>
       </c>
-      <c r="O21" t="inlineStr">
+      <c r="Q21" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
       </c>
-      <c r="P21" t="inlineStr">
+      <c r="R21" t="inlineStr">
         <is>
           <t>['e1=Pain|1:']</t>
         </is>
       </c>
-      <c r="Q21" t="inlineStr">
+      <c r="S21" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -2048,25 +2258,25 @@
       <c r="E22" t="n">
         <v>0</v>
       </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="b">
-        <v>0</v>
-      </c>
-      <c r="I22" t="b">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>(Timestamp('2186-03-01 05:08:00'), Timestamp('2186-03-01 05:10:00'))</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>{'text': 'resp care,\npatient. remains intubated on simv overnoc. rr decreased to 10 this shift to correct alkalosis. remains on 60% 8 peep. see carevue.\n', 'event': ['Unknown', 'Unknown', 'Unknown'], 'event_id': ['e1', 'e2', 'e3'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Unknown",\n            "text_quote": "resp care, patient. remains intubated on simv overnoc.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "overnight",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Unknown",\n            "text_quote": "rr decreased to 10 this shift to correct alkalosis.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "this shift",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        },\n        {\n            "event_id": "e3",\n            "event_type": "Unknown",\n            "text_quote": "remains on 60% 8 peep.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        }\n    ],\n    "order": [\n        {\n            "event_id_1": "e1",\n            "relation": "before",\n            "event_id_2": "e2"\n        },\n        {\n            "event_id_1": "e2",\n            "relation": "before",\n            "event_id_2": "e3"\n        }\n    ]\n}', 'attributes': [{'Unknown': {}}, {'Unknown': {}}, {'Unknown': {}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e3'}]], 'text_quotes': ['resp care, patient. remains intubated on simv overnoc.', 'rr decreased to 10 this shift to correct alkalosis.', 'remains on 60% 8 peep.'], 'event_time': ['overnight', 'this shift', 'Unknown'], 'negation': [False, False, False], 'caused_by': ['Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2186-03-01 05:08:00 and 2186-03-01 05:10:00):\n           resp care,\npatient. remains intubated on simv overnoc. rr decreased to 10 this shift to correct alkalosis. remains on 60% 8 peep. see carevue.\n\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient', 'patient'], 'event_detection_time': 10.122197358869016}</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="b">
+        <v>0</v>
+      </c>
+      <c r="K22" t="b">
+        <v>0</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
@@ -2075,25 +2285,35 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
           <t>['Unknown', 'Unknown', 'Unknown']</t>
         </is>
       </c>
-      <c r="N22" t="inlineStr">
+      <c r="P22" t="inlineStr">
         <is>
           <t>[{'Unknown': {}}, {'Unknown': {}}, {'Unknown': {}}]</t>
         </is>
       </c>
-      <c r="O22" t="inlineStr">
+      <c r="Q22" t="inlineStr">
         <is>
           <t>['resp care, patient. remains intubated on simv overnoc.', 'rr decreased to 10 this shift to correct alkalosis.', 'remains on 60% 8 peep.']</t>
         </is>
       </c>
-      <c r="P22" t="inlineStr">
+      <c r="R22" t="inlineStr">
         <is>
           <t>['e1=Unknown|0:resp care, patient. remains intubated on simv overnoc.', 'e2=Unknown|1:rr decreased to 10 this shift to correct alkalosis.', 'e3=Unknown|1:remains on 60% 8 peep.']</t>
         </is>
       </c>
-      <c r="Q22" t="inlineStr">
+      <c r="S22" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e3'}]]</t>
         </is>
@@ -2121,52 +2341,62 @@
       <c r="E23" t="n">
         <v>0</v>
       </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="b">
-        <v>0</v>
-      </c>
-      <c r="I23" t="b">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr">
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>(Timestamp('2186-03-01 18:09:00'), Timestamp('2186-03-01 18:12:00'))</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>{'text': 'addm: iabp\n\niabp d/cd, r groin site clean and dry. no hematoma noted. doppler pulses present. fentanyl given for pain during iabp removal per cardiology.\n', 'event': ['Pain', 'Excretion', 'Eating', 'Family', 'Sleep'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Pain",\n            "text_quote": "fentanyl given for pain during iabp removal per cardiology.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "iabp removal",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "Unknown",\n                    "location": "Unknown",\n                    "duration": "during iabp removal"\n                }\n            }\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "",\n            "object": "",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        },\n        {\n            "event_id": "e3",\n            "event_type": "Eating",\n            "text_quote": "",\n            "actor": "",\n            "object": "",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        },\n        {\n            "event_id": "e4",\n            "event_type": "Family",\n            "text_quote": "",\n            "actor": "",\n            "object": "",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        },\n        {\n            "event_id": "e5",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "",\n            "object": "",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        }\n    ],\n    "order": []\n}', 'attributes': [{'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'during iabp removal'}}}, {'Excretion': {}}, {'Eating': {}}, {'Family': {}}, {'Sleep': {}}], 'orders': [[]], 'text_quotes': ['fentanyl given for pain during iabp removal per cardiology.', '', '', '', ''], 'event_time': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'negation': [False, True, True, True, True], 'caused_by': ['iabp removal', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2186-03-01 18:09:00 and 2186-03-01 18:12:00):\n           addm: iabp\n\niabp d/cd, r groin site clean and dry. no hematoma noted. doppler pulses present. fentanyl given for pain during iabp removal per cardiology.\n\n        ', 'case_attributes': [[]], 'actor': ['patient', '', '', '', ''], 'event_detection_time': 12.14067092211917}</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="b">
+        <v>0</v>
+      </c>
+      <c r="K23" t="b">
+        <v>0</v>
+      </c>
+      <c r="L23" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr">
+      <c r="M23" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
       </c>
-      <c r="L23" t="inlineStr">
+      <c r="N23" t="inlineStr">
         <is>
           <t>[{'Sleep': {}}]</t>
         </is>
       </c>
-      <c r="M23" t="inlineStr">
+      <c r="O23" t="inlineStr">
         <is>
           <t>['Pain', 'Excretion', 'Eating', 'Family', 'Sleep']</t>
         </is>
       </c>
-      <c r="N23" t="inlineStr">
+      <c r="P23" t="inlineStr">
         <is>
           <t>[{'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'during iabp removal'}}}, {'Excretion': {}}, {'Eating': {}}, {'Family': {}}, {'Sleep': {}}]</t>
         </is>
       </c>
-      <c r="O23" t="inlineStr">
+      <c r="Q23" t="inlineStr">
         <is>
           <t>['fentanyl given for pain during iabp removal per cardiology.', '', '', '', '']</t>
         </is>
       </c>
-      <c r="P23" t="inlineStr">
+      <c r="R23" t="inlineStr">
         <is>
           <t>['e1=Pain|1:fentanyl given for pain during iabp removal per cardiology.', 'e2=Excretion|1:', 'e3=Eating|1:', 'e4=Family|1:', 'e5=Sleep|1:']</t>
         </is>
       </c>
-      <c r="Q23" t="inlineStr">
+      <c r="S23" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -2195,25 +2425,25 @@
       <c r="E24" t="n">
         <v>0</v>
       </c>
-      <c r="F24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="b">
-        <v>0</v>
-      </c>
-      <c r="I24" t="b">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>(Timestamp('2186-03-01 18:51:00'), Timestamp('2186-03-01 18:54:00'))</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>{'text': "respiratory care note\npatient recieved on simv as noted. patient placed on cpap + ps. abg's on cpap are good - weaned fio2 and ps according to abg's.\nplan to remain intubated on cpap + ps as tolerated. possibly extubate in am.\n", 'event': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Unknown",\n      "text_quote": "patient recieved on simv as noted.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {}\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Unknown",\n      "text_quote": "patient placed on cpap + ps.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {}\n    },\n    {\n      "event_id": "e3",\n      "event_type": "Unknown",\n      "text_quote": "abg\'s on cpap are good - weaned fio2 and ps according to abg\'s.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {}\n    },\n    {\n      "event_id": "e4",\n      "event_type": "Unknown",\n      "text_quote": "plan to remain intubated on cpap + ps as tolerated.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {}\n    },\n    {\n      "event_id": "e5",\n      "event_type": "Unknown",\n      "text_quote": "possibly extubate in am.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "am",\n      "caused_by": "Unknown",\n      "event_attributes": {}\n    }\n  ],\n  "order": [\n    {\n      "event_id_1": "e1",\n      "relation": "before",\n      "event_id_2": "e2"\n    },\n    {\n      "event_id_1": "e2",\n      "relation": "before",\n      "event_id_2": "e3"\n    },\n    {\n      "event_id_1": "e3",\n      "relation": "before",\n      "event_id_2": "e4"\n    },\n    {\n      "event_id_1": "e4",\n      "relation": "before",\n      "event_id_2": "e5"\n    }\n  ]\n}', 'attributes': [{'Unknown': {}}, {'Unknown': {}}, {'Unknown': {}}, {'Unknown': {}}, {'Unknown': {}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e3'}, {'event_id_1': 'e3', 'relation': 'before', 'event_id_2': 'e4'}, {'event_id_1': 'e4', 'relation': 'before', 'event_id_2': 'e5'}]], 'text_quotes': ['patient recieved on simv as noted.', 'patient placed on cpap + ps.', "abg's on cpap are good - weaned fio2 and ps according to abg's.", 'plan to remain intubated on cpap + ps as tolerated.', 'possibly extubate in am.'], 'event_time': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'am'], 'negation': [False, False, False, False, False], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2186-03-01 18:51:00 and 2186-03-01 18:54:00):\n           respiratory care note\npatient recieved on simv as noted. patient placed on cpap + ps. abg\'s on cpap are good - weaned fio2 and ps according to abg\'s.\nplan to remain intubated on cpap + ps as tolerated. possibly extubate in am.\n\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient', 'patient', 'patient', 'patient'], 'event_detection_time': 16.747933055041358}</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="b">
+        <v>0</v>
+      </c>
+      <c r="K24" t="b">
+        <v>0</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
@@ -2222,25 +2452,35 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
           <t>['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown']</t>
         </is>
       </c>
-      <c r="N24" t="inlineStr">
+      <c r="P24" t="inlineStr">
         <is>
           <t>[{'Unknown': {}}, {'Unknown': {}}, {'Unknown': {}}, {'Unknown': {}}, {'Unknown': {}}]</t>
         </is>
       </c>
-      <c r="O24" t="inlineStr">
+      <c r="Q24" t="inlineStr">
         <is>
           <t>['patient recieved on simv as noted.', 'patient placed on cpap + ps.', "abg's on cpap are good - weaned fio2 and ps according to abg's.", 'plan to remain intubated on cpap + ps as tolerated.', 'possibly extubate in am.']</t>
         </is>
       </c>
-      <c r="P24" t="inlineStr">
+      <c r="R24" t="inlineStr">
         <is>
           <t>['e1=Unknown|1:patient recieved on simv as noted.', 'e2=Unknown|1:patient placed on cpap + ps.', "e3=Unknown|1:abg's on cpap are good - weaned fio2 and ps according to abg's.", 'e4=Unknown|1:plan to remain intubated on cpap + ps as tolerated.', 'e5=Unknown|1:possibly extubate in am.']</t>
         </is>
       </c>
-      <c r="Q24" t="inlineStr">
+      <c r="S24" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e3'}, {'event_id_1': 'e3', 'relation': 'before', 'event_id_2': 'e4'}, {'event_id_1': 'e4', 'relation': 'before', 'event_id_2': 'e5'}]]</t>
         </is>
@@ -2268,25 +2508,25 @@
       <c r="E25" t="n">
         <v>0</v>
       </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="b">
-        <v>0</v>
-      </c>
-      <c r="I25" t="b">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>(Timestamp('2186-03-02 06:56:00'), Timestamp('2186-03-02 06:58:00'))</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>{'text': "respiratory care:\n\npatient remains intubated, vent supported. no changes overnight. bs's decreased, ess clear. sxing small amts thick white. rsbi=173 this am. see flowsheet for further patient data.   will follow, wean as ordered.\n", 'event': ['Unknown', 'Excretion', 'Unknown'], 'event_id': ['e1', 'e2', 'e3'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Unknown",\n      "text_quote": "patient remains intubated, vent supported.",\n      "actor": "patient",\n      "object": "ventilator",\n      "negation": false,\n      "time": "overnight",\n      "caused_by": "Unknown",\n      "event_attributes": {}\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Excretion",\n      "text_quote": "sxing small amts thick white.",\n      "actor": "patient",\n      "object": "secretions",\n      "negation": false,\n      "time": "this am",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "secretions",\n          "frequency": "small amounts",\n          "quality": "thick white"\n        }\n      }\n    },\n    {\n      "event_id": "e3",\n      "event_type": "Unknown",\n      "text_quote": "rsbi=173 this am.",\n      "actor": "patient",\n      "object": "respiratory rate",\n      "negation": false,\n      "time": "this am",\n      "caused_by": "Unknown",\n      "event_attributes": {}\n    }\n  ],\n  "order": [\n    {\n      "event_id_1": "e1",\n      "relation": "before",\n      "event_id_2": "e2"\n    },\n    {\n      "event_id_1": "e2",\n      "relation": "simultaneous",\n      "event_id_2": "e3"\n    }\n  ]\n}', 'attributes': [{'Unknown': {}}, {'Excretion': {'Excretion': {'type': 'secretions', 'frequency': 'small amounts', 'quality': 'thick white'}}}, {'Unknown': {}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'simultaneous', 'event_id_2': 'e3'}]], 'text_quotes': ['patient remains intubated, vent supported.', 'sxing small amts thick white.', 'rsbi=173 this am.'], 'event_time': ['overnight', 'this am', 'this am'], 'negation': [False, False, False], 'caused_by': ['Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2186-03-02 06:56:00 and 2186-03-02 06:58:00):\n           respiratory care:\n\npatient remains intubated, vent supported. no changes overnight. bs\'s decreased, ess clear. sxing small amts thick white. rsbi=173 this am. see flowsheet for further patient data.   will follow, wean as ordered.\n\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient', 'patient'], 'event_detection_time': 11.027814622037113}</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="b">
+        <v>0</v>
+      </c>
+      <c r="K25" t="b">
+        <v>0</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
@@ -2295,25 +2535,35 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
           <t>['Unknown', 'Excretion', 'Unknown']</t>
         </is>
       </c>
-      <c r="N25" t="inlineStr">
+      <c r="P25" t="inlineStr">
         <is>
           <t>[{'Unknown': {}}, {'Excretion': {'Excretion': {'type': 'secretions', 'frequency': 'small amounts', 'quality': 'thick white'}}}, {'Unknown': {}}]</t>
         </is>
       </c>
-      <c r="O25" t="inlineStr">
+      <c r="Q25" t="inlineStr">
         <is>
           <t>['patient remains intubated, vent supported.', 'sxing small amts thick white.', 'rsbi=173 this am.']</t>
         </is>
       </c>
-      <c r="P25" t="inlineStr">
+      <c r="R25" t="inlineStr">
         <is>
           <t>['e1=Unknown|1:patient remains intubated, vent supported.', 'e2=Excretion|1:sxing small amts thick white.', 'e3=Unknown|1:rsbi=173 this am.']</t>
         </is>
       </c>
-      <c r="Q25" t="inlineStr">
+      <c r="S25" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'simultaneous', 'event_id_2': 'e3'}]]</t>
         </is>
@@ -2341,25 +2591,25 @@
       <c r="E26" t="n">
         <v>0</v>
       </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26" t="b">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>(Timestamp('2186-03-02 16:41:00'), Timestamp('2186-03-02 16:42:00'))</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>{'text': 'resp care\npatient remains on mech vent-parameters noted.  patient has worsening resp status-increased peep to 10 and fio2 to 60%.  coarse breath sounds bilat-suction small thick yellow.  mdis ordered.  will continue mech vent and wean as tol.\n', 'event': ['Unknown', 'Unknown', 'Excretion', 'Unknown', 'Unknown'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Unknown",\n            "text_quote": "patient remains on mech vent-parameters noted.",\n            "actor": "patient",\n            "object": "mech vent",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Unknown",\n            "text_quote": "patient has worsening resp status-increased peep to 10 and fio2 to 60%.",\n            "actor": "patient",\n            "object": "resp status",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        },\n        {\n            "event_id": "e3",\n            "event_type": "Excretion",\n            "text_quote": "coarse breath sounds bilat-suction small thick yellow.",\n            "actor": "patient",\n            "object": "breath sounds",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "sputum",\n                    "frequency": "small",\n                    "quality": "thick yellow"\n                }\n            }\n        },\n        {\n            "event_id": "e4",\n            "event_type": "Unknown",\n            "text_quote": "mdis ordered.",\n            "actor": "others",\n            "object": "mdis",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        },\n        {\n            "event_id": "e5",\n            "event_type": "Unknown",\n            "text_quote": "will continue mech vent and wean as tol.",\n            "actor": "others",\n            "object": "mech vent",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        }\n    ],\n    "order": [\n        {\n            "event_id_1": "e1",\n            "relation": "before",\n            "event_id_2": "e2"\n        },\n        {\n            "event_id_1": "e2",\n            "relation": "before",\n            "event_id_2": "e3"\n        },\n        {\n            "event_id_1": "e3",\n            "relation": "before",\n            "event_id_2": "e4"\n        },\n        {\n            "event_id_1": "e4",\n            "relation": "before",\n            "event_id_2": "e5"\n        }\n    ]\n}', 'attributes': [{'Unknown': {}}, {'Unknown': {}}, {'Excretion': {'Excretion': {'type': 'sputum', 'frequency': 'small', 'quality': 'thick yellow'}}}, {'Unknown': {}}, {'Unknown': {}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e3'}, {'event_id_1': 'e3', 'relation': 'before', 'event_id_2': 'e4'}, {'event_id_1': 'e4', 'relation': 'before', 'event_id_2': 'e5'}]], 'text_quotes': ['patient remains on mech vent-parameters noted.', 'patient has worsening resp status-increased peep to 10 and fio2 to 60%.', 'coarse breath sounds bilat-suction small thick yellow.', 'mdis ordered.', 'will continue mech vent and wean as tol.'], 'event_time': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'negation': [False, False, False, False, False], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2186-03-02 16:41:00 and 2186-03-02 16:42:00):\n           resp care\npatient remains on mech vent-parameters noted.  patient has worsening resp status-increased peep to 10 and fio2 to 60%.  coarse breath sounds bilat-suction small thick yellow.  mdis ordered.  will continue mech vent and wean as tol.\n\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient', 'patient', 'others', 'others'], 'event_detection_time': 17.99584792787209}</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="b">
+        <v>0</v>
+      </c>
+      <c r="K26" t="b">
+        <v>0</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
@@ -2368,25 +2618,35 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
           <t>['Unknown', 'Unknown', 'Excretion', 'Unknown', 'Unknown']</t>
         </is>
       </c>
-      <c r="N26" t="inlineStr">
+      <c r="P26" t="inlineStr">
         <is>
           <t>[{'Unknown': {}}, {'Unknown': {}}, {'Excretion': {'Excretion': {'type': 'sputum', 'frequency': 'small', 'quality': 'thick yellow'}}}, {'Unknown': {}}, {'Unknown': {}}]</t>
         </is>
       </c>
-      <c r="O26" t="inlineStr">
+      <c r="Q26" t="inlineStr">
         <is>
           <t>['patient remains on mech vent-parameters noted.', 'patient has worsening resp status-increased peep to 10 and fio2 to 60%.', 'coarse breath sounds bilat-suction small thick yellow.', 'mdis ordered.', 'will continue mech vent and wean as tol.']</t>
         </is>
       </c>
-      <c r="P26" t="inlineStr">
+      <c r="R26" t="inlineStr">
         <is>
           <t>['e1=Unknown|1:patient remains on mech vent-parameters noted.', 'e2=Unknown|1:patient has worsening resp status-increased peep to 10 and fio2 to 60%.', 'e3=Excretion|1:coarse breath sounds bilat-suction small thick yellow.', 'e4=Unknown|1:mdis ordered.', 'e5=Unknown|1:will continue mech vent and wean as tol.']</t>
         </is>
       </c>
-      <c r="Q26" t="inlineStr">
+      <c r="S26" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e3'}, {'event_id_1': 'e3', 'relation': 'before', 'event_id_2': 'e4'}, {'event_id_1': 'e4', 'relation': 'before', 'event_id_2': 'e5'}]]</t>
         </is>
@@ -2414,25 +2674,25 @@
       <c r="E27" t="n">
         <v>0</v>
       </c>
-      <c r="F27" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="b">
-        <v>0</v>
-      </c>
-      <c r="I27" t="b">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>(Timestamp('2186-03-04 18:24:00'), Timestamp('2186-03-04 18:25:00'))</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>{'text': 'respiratory care\npatient weaned and extubated to 50% cool aerosol see carevue for details.\n', 'event': ['Unknown'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Unknown",\n            "text_quote": "respiratory care patient weaned and extubated to 50% cool aerosol see carevue for details.",\n            "actor": "patient",\n            "object": "others",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        }\n    ],\n    "order": []\n}', 'attributes': [{'Unknown': {}}], 'orders': [[]], 'text_quotes': ['respiratory care patient weaned and extubated to 50% cool aerosol see carevue for details.'], 'event_time': ['Unknown'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2186-03-04 18:24:00 and 2186-03-04 18:25:00):\n           respiratory care\npatient weaned and extubated to 50% cool aerosol see carevue for details.\n\n        ', 'case_attributes': [[]], 'actor': ['patient'], 'event_detection_time': 3.5382365859113634}</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="b">
+        <v>0</v>
+      </c>
+      <c r="K27" t="b">
+        <v>0</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
@@ -2441,25 +2701,35 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
           <t>['Unknown']</t>
         </is>
       </c>
-      <c r="N27" t="inlineStr">
+      <c r="P27" t="inlineStr">
         <is>
           <t>[{'Unknown': {}}]</t>
         </is>
       </c>
-      <c r="O27" t="inlineStr">
+      <c r="Q27" t="inlineStr">
         <is>
           <t>['respiratory care patient weaned and extubated to 50% cool aerosol see carevue for details.']</t>
         </is>
       </c>
-      <c r="P27" t="inlineStr">
+      <c r="R27" t="inlineStr">
         <is>
           <t>['e1=Unknown|0:respiratory care patient weaned and extubated to 50% cool aerosol see carevue for details.']</t>
         </is>
       </c>
-      <c r="Q27" t="inlineStr">
+      <c r="S27" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -2493,25 +2763,25 @@
       <c r="E28" t="n">
         <v>0</v>
       </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="b">
-        <v>0</v>
-      </c>
-      <c r="I28" t="b">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>(Timestamp('2167-05-14 14:20:00'), Timestamp('2167-05-14 14:24:00'))</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>{'text': 'cath lab report 230pm\npatient recieved 1gm kefzol. given fentanyl 50mcg ivp.\nrca stented - given 3000u heparin.\npa line reintroduced - pcwp 20-22 pa 50/25 given lasix 20mg iv.\ntotal contrast 125cc\nact 332 @130pm.\nivf 450cc, urine out-600cc.\ntolerated intervention well.\n', 'event': [], 'event_id': [], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Excretion",\n            "text_quote": "urine out-600cc",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "urine",\n                    "frequency": "Unknown",\n                    "quality": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Eating",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {\n                    "food": "Unknown",\n                    "amount": "Unknown",\n                    "method": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e3",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "Unknown",\n                    "location": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e4",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e5",\n            "event_type": "Family",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {\n                    "interaction": "Unknown",\n                    "relation": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e6",\n            "event_type": "Excretion",\n            "text_quote": "ivf 450cc",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "fluid",\n                    "frequency": "Unknown",\n                    "quality": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e7",\n            "event_type": "Eating",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {\n                    "food": "Unknown",\n                    "amount": "Unknown",\n                    "method": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e8",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "Unknown",\n                    "location": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e9",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e10",\n            "event_type": "Family",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {\n                    "interaction": "Unknown",\n                    "relation": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e11",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "Unknown",\n                    "frequency": "Unknown",\n                    "quality": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e12",\n            "event_type": "Eating",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {\n                    "food": "Unknown",\n                    "amount": "Unknown",\n                    "method": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e13",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "Unknown",\n                    "location": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e14",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e15",\n            "event_type": "Family",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {\n                    "interaction": "Unknown",\n                    "relation": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e16",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "Unknown",\n                    "frequency": "Unknown",\n                    "quality": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e17",\n            "event_type": "Eating",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {\n                    "food": "Unknown",\n                    "amount": "Unknown",\n                    "method": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e18",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "Unknown",\n                    "location": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e19",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e20",\n            "event_type": "Family",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {\n                    "interaction": "Unknown",\n                    "relation": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e21",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "Unknown",\n                    "frequency": "Unknown",\n                    "quality": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e22",\n            "event_type": "Eating",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {\n                    "food": "Unknown",\n                    "amount": "Unknown",\n                    "method": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e23",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "Unknown",\n                    "location": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e24",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e25",\n            "event_type": "Family",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {\n                    "interaction": "Unknown",\n                    "relation": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e26",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "Unknown",\n                    "frequency": "Unknown",\n                    "quality": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e27",\n            "event_type": "Eating",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {\n                    "food": "Unknown",\n                    "amount": "Unknown",\n                    "method": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e28",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "Unknown",\n                    "location": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e29",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e30",\n            "event_type": "Family",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {\n                    "interaction": "Unknown",\n                    "relation": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e31",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "Unknown",\n                    "frequency": "Unknown",\n                    "quality": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e32",\n            "event_type": "Eating",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {\n                    "food": "Unknown",\n                    "amount": "Unknown",\n                    "method": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e33",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "Unknown",\n                    "location": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e34",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e35",\n            "event_type": "Family",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {\n                    "interaction": "Unknown",\n                    "relation": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e36",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "Unknown",\n                    "frequency": "Unknown",\n                    "quality": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e37",\n            "event_type": "Eating",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {\n                    "food": "Unknown",\n                    "amount": "Unknown",\n                    "method": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e38",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "Unknown",\n                    "location": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e39",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e40",\n            "event_type": "Family",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {\n                    "interaction": "Unknown",\n                    "relation": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e41",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "Unknown",\n                    "frequency": "Unknown",\n                    "quality": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e42",\n            "event_type": "Eating",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {\n                    "food": "Unknown",\n                    "amount": "Unknown",\n                    "method": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e43",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "Unknown",\n                    "location": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e44",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e45",\n            "event_type": "Family",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {\n                    "interaction": "Unknown",\n                    "relation": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e46",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "Unknown",\n                    "frequency": "Unknown",\n                    "quality": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e47",\n            "event_type": "Eating",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {\n                    "food": "Unknown",\n                    "amount": "Unknown",\n                    "method": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e48",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "Unknown",\n                    "location": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e49",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e50",\n            "event_type": "Family",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {\n                    "interaction": "Unknown",\n                    "relation": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e51",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "Unknown",\n                    "frequency": "Unknown",\n                    "quality": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e52",\n            "event_type": "Eating",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {\n                    "food": "Unknown",\n                    "amount": "Unknown",\n                    "method": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e53",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "Unknown",\n                    "location": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e54",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e55",\n            "event_type": "Family",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {\n                    "interaction": "Unknown",\n                    "relation": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e56",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "Unknown",\n                    "frequency": "Unknown",\n                    "quality": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e57",\n            "event_type": "Eating",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {\n                    "food": "Unknown",\n                    "amount": "Unknown",\n                    "method": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e58",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "Unknown",\n                    "location": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e59",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e60",\n            "event_type": "Family",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {\n                    "interaction": "Unknown",\n                    "relation": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e61",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "Unknown",\n                    "frequency": "Unknown",\n                    "quality": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e62",\n            "event_type": "Eating",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {\n                    "food": "Unknown",\n                    "amount": "Unknown",\n                    "method": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e63",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "Unknown",\n                    "location": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e64",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e65",\n            "event_type": "Family",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {\n                    "interaction</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="b">
+        <v>0</v>
+      </c>
+      <c r="K28" t="b">
+        <v>0</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
@@ -2539,6 +2809,16 @@
         </is>
       </c>
       <c r="Q28" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
         <is>
           <t>['[]']</t>
         </is>
@@ -2572,25 +2852,25 @@
       <c r="E29" t="n">
         <v>0</v>
       </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="b">
-        <v>0</v>
-      </c>
-      <c r="I29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>(Timestamp('2167-05-15 18:51:00'), Timestamp('2167-05-15 19:18:00'))</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>{'text': "ccu progress note 7a-7p\nevent note: vss this morning- weaned and iabp d/c'd this afternoon. pa, pacer wire and aline d/c'd also at this time. one episode of groin bleeding to r fem iabp site with pressure held by fellow. 3u ffp given to correct inr of 2.5 to 1.4. patient became more anxious and sob with rr 20-&gt;40s, diastolic blood pressure 140s, st 120-&gt;140s. given mso4 + ativan ivp with somulence noted and given narcan - then patient very agitated and confused from ativan- restraints applied. cxr showed pulmonary edema. total of 80mg ivp lasix given with ~2l output this afternoon. st 140s from 120s-130s - given lopressor 5mg ivp with rate decrease to 100s. dobutamine was d/c'd at 2pm, but restarted at 4pm at 4mcg/k/min. hct 29.9 this evening post small groin bleed. plan to cycle cks. intubated for agitation and airway protection.\n\nneuro: sedated on propofol currently at 15mcg/k/min.  patient lightly sedated, biting at ett at times. moving in bed. bilat wrist restraints.\n\nid: afebrile today. no abx.\n\nresp: intubated with 7.5ett 23cm lip.\n\ngi/gu: foley patent, diuresed well this afternoon ~ 2l. abd large distended +bs. given simethicone for gas earlier today. ngt placed p/ extubation for meds. no stool.\n\ncardiac: currently st 110s. occ pvc. repleated k today. r fem pressure dsg over iabp site - site had rebled post deballooning - pressure held by fellow. l fem site d+i. dopplerable pulses. no hematomas noted. started on captopril 6.25mg tid. ?restart heparin since inr is now 1.4. recheck inr tonite.\n\nplan: cycle cks. monitor hct. monitor lytes. recheck inr tonite.\n", 'event': [], 'event_id': [], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Excretion",\n            "text_quote": "foley patent, diuresed well this afternoon ~ 2l.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "afternoon",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "urine",\n                    "frequency": "~ 2l",\n                    "quality": "well"\n                }\n            }\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Pain",\n            "text_quote": "patient became more anxious and sob with rr 20-&gt;40s, diastolic blood pressure 140s, st 120-&gt;140s.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "anxious",\n                    "location": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e3",\n            "event_type": "Sleep",\n            "text_quote": "given mso4 + ativan ivp with somulence noted and given narcan - then patient very agitated and confused from ativan- restraints applied.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "somulence noted",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e4",\n            "event_type": "Eating",\n            "text_quote": "None",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {}\n            }\n        },\n        {\n            "event_id": "e5",\n            "event_type": "Family",\n            "text_quote": "None",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {}\n            }\n        },\n        {\n            "event_id": "e6",\n            "event_type": "Pain",\n            "text_quote": "given lopressor 5mg ivp with rate decrease to 100s.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "Unknown",\n                    "location": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e7",\n            "event_type": "Excretion",\n            "text_quote": "no stool.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e8",\n            "event_type": "Sleep",\n            "text_quote": "sedated on propofol currently at 15mcg/k/min.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "sedated",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e9",\n            "event_type": "Pain",\n            "text_quote": "patient lightly sedated, biting at ett at times.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "lightly sedated",\n                    "location": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e10",\n            "event_type": "Excretion",\n            "text_quote": "given simethicone for gas earlier today.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e11",\n            "event_type": "Pain",\n            "text_quote": "intubated for agitation and airway protection.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e12",\n            "event_type": "Excretion",\n            "text_quote": "r fem pressure dsg over iabp site - site had rebled post deballooning - pressure held by fellow.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e13",\n            "event_type": "Pain",\n            "text_quote": "given captopril 6.25mg tid.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e14",\n            "event_type": "Excretion",\n            "text_quote": "?restart heparin since inr is now 1.4.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e15",\n            "event_type": "Pain",\n            "text_quote": "recheck inr tonite.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "tonite",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e16",\n            "event_type": "Excretion",\n            "text_quote": "monitor lytes.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e17",\n            "event_type": "Pain",\n            "text_quote": "monitor hct.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e18",\n            "event_type": "Excretion",\n            "text_quote": "cycle cks.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e19",\n            "event_type": "Pain",\n            "text_quote": "plan to cycle cks.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e20",\n            "event_type": "Excretion",\n            "text_quote": "plan: cycle cks.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e21",\n            "event_type": "Pain",\n            "text_quote": "plan: monitor hct.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e22",\n            "event_type": "Excretion",\n            "text_quote": "plan: monitor lytes.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e23",\n            "event_type": "Pain",\n            "text_quote": "plan: recheck inr tonite.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "tonite",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e24",\n            "event_type": "Excretion",\n            "text_quote": "plan: ?restart heparin since inr is now 1.4.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e25",\n            "event_type": "Pain",\n            "text_quote": "plan: given captopril 6.25mg tid.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e26",\n            "event_type": "Excretion",\n            "text_quote": "plan: r fem pressure dsg over iabp site - site had rebled post deballooning - pressure held by fellow.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e27",\n            "event_type": "Pain",\n            "text_quote": "plan: intubated for agitation and airway protection.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e28",\n            "event_type": "Excretion",\n            "text_quote": "plan: given simethicone for gas earlier today.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e29",\n            "event_type": "Pain",\n            "text_quote": "plan: sedated on propofol currently at 15mcg/k/min.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e30",\n            "event_type": "Excretion",\n            "text_quote": "plan: patient lightly sedated, biting at ett at times.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e31",\n            "event_type": "Pain",\n            "text_quote": "plan: patient lightly sedated, biting at ett at times.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e32",\n            "event_type": "Excretion",\n            "text_quote": "plan: no stool.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e33",\n            "event_type": "Pain",\n            "text_quote": "plan: l fem pressure dsg over iabp site - site had rebled post deballooning - pressure held by fellow.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e34",\n            "event_type": "Excretion",\n            "text_quote": "plan: given lopressor 5mg iv.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e35",\n            "event_type": "Pain",\n            "text_quote": "plan: given lopressor 5mg iv.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e36",\n            "event_type": "Excretion",\n            "text_quote": "plan: given labetalol 5mg iv.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e37",\n            "event_type": "Pain",\n            "text_quote": "plan: given labetalol 5mg iv.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e38",\n            "event_type": "Excretion",\n            "text_quote": "plan: given hydralazine 5mg iv.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e39",\n            "event_type": "Pain",\n            "text_quote": "plan: given hydralazine 5mg iv.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e40",\n            "event_type": "Excretion",\n            "text_quote": "plan: given enalapril 2.5mg po.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e41",\n            "event_type": "Pain",\n            "text_quote": "plan: given enalapril 2.5mg po.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e42",\n            "event_type": "Excretion",\n            "text_quote": "plan: given lisinopril 2.5mg po.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e43",\n            "event_type": "Pain",\n            "text_quote": "plan: given lisinopril 2.5mg po.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e44",\n            "event_type": "Excretion",\n            "text_quote": "plan: given fosinopril 5mg po.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e45",\n            "event_type": "Pain",\n            "text_quote": "plan: given fosinopril 5mg po.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e46",\n            "event_type": "Excretion",\n            "text_quote": "plan: given quinapril 5mg po.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e47",\n            "event_type": "Pain",\n            "text_quote": "plan: given quinapril 5mg po.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e48",\n            "event_type": "Excretion",\n            "text_quote": "plan: given ramipril 2.5mg po.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e49",\n            "event_type": "Pain",\n            "text_quote": "plan: given ramipril 2.5mg po.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e50",\n            "event_type": "Excretion",\n            "text_quote": "plan: given trandolapril 1mg po.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e51",\n            "event_type": "Pain",\n            "text_quote": "plan: given trandolapril 1mg po.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e52",\n            "event_type": "Excretion",\n            "text_quote": "plan: given moexipril 7.5mg po.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e53",\n            "event_type": "Pain",\n            "text_quote": "plan: given moexipril 7.5mg po.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e54",\n            "event_type": "Excretion",\n            "text_quote": "plan: given perindopril 2mg po.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e55",\n            "event_type": "Pain",\n            "text_quote": "plan: given perindopril 2mg po.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e56",\n            "event_type": "Excretion",\n            "text_quote": "plan: given benazepril 5mg po.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e57",\n            "event_type": "Pain",\n            "text_quote": "plan: given benazepril 5mg po.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e58",\n            "event_type": "Excretion",\n            "text_quote": "plan: given captopril 12.5mg po.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e59",\n            "event_type": "Pain",\n            "text_quote": "plan: given captopril 12.5mg po.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e60",\n            "event_type": "Excretion",\n            "text_quote": "plan: given enalaprilat 1.25mg iv.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e61",\n            "event_type": "Pain",\n            "text_quote": "plan: given enalaprilat 1.25mg iv.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e62",\n            "event_type": "Excretion",\n            "text_quote": "plan: given lisinopril 2.5mg po.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e63",\n            "event_type": "Pain",\n            "text_quote": "plan: given lisinopril 2.5mg po.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e64",\n            "event_type": "Excretion",\n            "text_quote": "plan: given fosinopril 5mg po.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e65",\n            "event_type": "Pain",\n            "text_quote": "plan: given fosinopril 5mg po.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e66",\n            "event_type": "Excretion",\n            "text_quote": "plan: given quinapril 5mg po.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e67",\n            "event_type": "Pain",\n            "text_quote": "plan: given quinapril 5mg po.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e68",\n            "event_type": "Excretion",\n            "text_quote": "plan: given ramipril 2.5mg po.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e69",\n            "event_type": "Pain",\n            "text_quote": "plan: given ramipril 2.5mg po.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e70",\n            "event_type": "Excretion",\n            "text_quote": "plan: given trandolapril 1mg po.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e71",\n            "event_type": "Pain",\n            "text_quote": "plan: given trandolapril 1mg po.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e72",\n            "event_type": "Excretion",\n            "text_quote": "plan: given moexipril 7.5mg po.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e73",\n            "event_type": "Pain",\n            "text_quote": "plan: given moexipril 7.5mg po.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e74",\n            "event_type": "Excretion",\n            "text_quote": "plan: given perindopril 2mg po.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e75",\n            "event_type": "Pain</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="b">
+        <v>0</v>
+      </c>
+      <c r="K29" t="b">
+        <v>0</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
@@ -2618,6 +2898,16 @@
         </is>
       </c>
       <c r="Q29" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
         <is>
           <t>['[]']</t>
         </is>
@@ -2645,25 +2935,25 @@
       <c r="E30" t="n">
         <v>0</v>
       </c>
-      <c r="F30" t="n">
-        <v>0</v>
-      </c>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>(Timestamp('2167-05-15 19:26:00'), Timestamp('2167-05-15 19:27:00'))</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>{'text': 'addendum\nearlier today when family first visited - patient became anxious with chest pressure [**3-30**] + bilat shoulder ache. ekg done. family outside to waiting room. settled, with cessation of pain. no changes in ekg done. no increase in cks this afternoon.\n', 'event': ['Pain', 'Family', 'Pain'], 'event_id': ['e1', 'e2', 'e3'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Pain",\n      "text_quote": "patient became anxious with chest pressure [**3-30**] + bilat shoulder ache.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "[**3-30**]",\n          "location": "chest, bilat shoulder",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Family",\n      "text_quote": "earlier today when family first visited",\n      "actor": "family member",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {\n          "interaction": "visit",\n          "relation": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e3",\n      "event_type": "Pain",\n      "text_quote": "settled, with cessation of pain.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    }\n  ],\n  "order": [\n    {\n      "event_id_1": "e2",\n      "relation": "before",\n      "event_id_2": "e1"\n    },\n    {\n      "event_id_1": "e1",\n      "relation": "before",\n      "event_id_2": "e3"\n    }\n  ]\n}', 'attributes': [{'Pain': {'Pain': {'severity': '[**3-30**]', 'location': 'chest, bilat shoulder', 'duration': 'Unknown'}}}, {'Family': {'Family': {'interaction': 'visit', 'relation': 'Unknown'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}], 'orders': [[{'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e1'}, {'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e3'}]], 'text_quotes': ['patient became anxious with chest pressure [**3-30**] + bilat shoulder ache.', 'earlier today when family first visited', 'settled, with cessation of pain.'], 'event_time': ['Unknown', 'Unknown', 'Unknown'], 'negation': [False, False, True], 'caused_by': ['Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2167-05-15 19:26:00 and 2167-05-15 19:27:00):\n           addendum\nearlier today when family first visited - patient became anxious with chest pressure [**3-30**] + bilat shoulder ache. ekg done. family outside to waiting room. settled, with cessation of pain. no changes in ekg done. no increase in cks this afternoon.\n\n        ', 'case_attributes': [[]], 'actor': ['patient', 'family member', 'patient'], 'event_detection_time': 13.567399851046503}</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="b">
+        <v>0</v>
+      </c>
+      <c r="K30" t="b">
+        <v>0</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
@@ -2672,25 +2962,35 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
           <t>['Pain', 'Family', 'Pain']</t>
         </is>
       </c>
-      <c r="N30" t="inlineStr">
+      <c r="P30" t="inlineStr">
         <is>
           <t>[{'Pain': {'Pain': {'severity': '[**3-30**]', 'location': 'chest, bilat shoulder', 'duration': 'Unknown'}}}, {'Family': {'Family': {'interaction': 'visit', 'relation': 'Unknown'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="O30" t="inlineStr">
+      <c r="Q30" t="inlineStr">
         <is>
           <t>['patient became anxious with chest pressure [**3-30**] + bilat shoulder ache.', 'earlier today when family first visited', 'settled, with cessation of pain.']</t>
         </is>
       </c>
-      <c r="P30" t="inlineStr">
+      <c r="R30" t="inlineStr">
         <is>
           <t>['e1=Pain|1:patient became anxious with chest pressure [**3-30**] + bilat shoulder ache.', 'e2=Family|1:earlier today when family first visited', 'e3=Pain|1:settled, with cessation of pain.']</t>
         </is>
       </c>
-      <c r="Q30" t="inlineStr">
+      <c r="S30" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e1'}, {'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e3'}]]</t>
         </is>
@@ -2718,25 +3018,25 @@
       <c r="E31" t="n">
         <v>0</v>
       </c>
-      <c r="F31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I31" t="b">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>(Timestamp('2167-05-16 04:20:00'), Timestamp('2167-05-16 04:22:00'))</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>{'text': "resp care 7p-7a\nweaned patient to psv this am. morning abg pending. rsbi&gt;105. abg's acceptable t/o night. plan to wean towards extubation in am.\n", 'event': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Unknown",\n            "text_quote": "weaned patient to psv this am.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "am",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Unknown",\n            "text_quote": "morning abg pending.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "am",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        },\n        {\n            "event_id": "e3",\n            "event_type": "Unknown",\n            "text_quote": "rsbi&gt;105.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        },\n        {\n            "event_id": "e4",\n            "event_type": "Unknown",\n            "text_quote": "abg\'s acceptable t/o night.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "night",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        },\n        {\n            "event_id": "e5",\n            "event_type": "Unknown",\n            "text_quote": "plan to wean towards extubation in am.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "am",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        }\n    ],\n    "order": []\n}', 'attributes': [{'Unknown': {}}, {'Unknown': {}}, {'Unknown': {}}, {'Unknown': {}}, {'Unknown': {}}], 'orders': [[]], 'text_quotes': ['weaned patient to psv this am.', 'morning abg pending.', 'rsbi&gt;105.', "abg's acceptable t/o night.", 'plan to wean towards extubation in am.'], 'event_time': ['am', 'am', 'Unknown', 'night', 'am'], 'negation': [False, False, False, False, False], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2167-05-16 04:20:00 and 2167-05-16 04:22:00):\n           resp care 7p-7a\nweaned patient to psv this am. morning abg pending. rsbi&gt;105. abg\'s acceptable t/o night. plan to wean towards extubation in am.\n\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient', 'patient', 'patient', 'patient'], 'event_detection_time': 12.194901477079839}</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="b">
+        <v>0</v>
+      </c>
+      <c r="K31" t="b">
+        <v>0</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
@@ -2745,25 +3045,35 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
           <t>['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown']</t>
         </is>
       </c>
-      <c r="N31" t="inlineStr">
+      <c r="P31" t="inlineStr">
         <is>
           <t>[{'Unknown': {}}, {'Unknown': {}}, {'Unknown': {}}, {'Unknown': {}}, {'Unknown': {}}]</t>
         </is>
       </c>
-      <c r="O31" t="inlineStr">
+      <c r="Q31" t="inlineStr">
         <is>
           <t>['weaned patient to psv this am.', 'morning abg pending.', 'rsbi&gt;105.', "abg's acceptable t/o night.", 'plan to wean towards extubation in am.']</t>
         </is>
       </c>
-      <c r="P31" t="inlineStr">
+      <c r="R31" t="inlineStr">
         <is>
           <t>['e1=Unknown|1:weaned patient to psv this am.', 'e2=Unknown|1:morning abg pending.', 'e3=Unknown|1:rsbi&gt;105.', "e4=Unknown|1:abg's acceptable t/o night.", 'e5=Unknown|1:plan to wean towards extubation in am.']</t>
         </is>
       </c>
-      <c r="Q31" t="inlineStr">
+      <c r="S31" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -2792,25 +3102,25 @@
       <c r="E32" t="n">
         <v>0</v>
       </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="b">
-        <v>0</v>
-      </c>
-      <c r="I32" t="b">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>(Timestamp('2167-05-16 06:22:00'), Timestamp('2167-05-16 06:23:00'))</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>{'text': "addendum to nursing progress note:\n\npatient's inr 1.5 therefore hep drops restarted at 600u/hr (patient with [**hospital3 1969**] valve).  check ptt at 12:30pm.  goal ptt 50-70.\ncont per plan.\n", 'event': [], 'event_id': [], 'phrase': '', 'raw_output': '{\n    "case_attributes": [\n        {\n            "attribute_name": "INR",\n            "attribute_value": "1.5"\n        },\n        {\n            "attribute_name": "Hep drops dosage",\n            "attribute_value": "600u/hr"\n        }\n    ],\n    "events": [],\n    "order": []\n}', 'attributes': [], 'orders': [[]], 'text_quotes': [], 'event_time': [], 'negation': [], 'caused_by': [], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2167-05-16 06:22:00 and 2167-05-16 06:23:00):\n           addendum to nursing progress note:\n\npatient\'s inr 1.5 therefore hep drops restarted at 600u/hr (patient with [**hospital3 1969**] valve).  check ptt at 12:30pm.  goal ptt 50-70.\ncont per plan.\n\n        ', 'case_attributes': [[{'attribute_name': 'INR', 'attribute_value': '1.5'}, {'attribute_name': 'Hep drops dosage', 'attribute_value': '600u/hr'}]], 'actor': [], 'event_detection_time': 2.244652158115059}</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="b">
+        <v>0</v>
+      </c>
+      <c r="K32" t="b">
+        <v>0</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
@@ -2838,6 +3148,16 @@
         </is>
       </c>
       <c r="Q32" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -2868,25 +3188,25 @@
       <c r="E33" t="n">
         <v>0</v>
       </c>
-      <c r="F33" t="n">
-        <v>0</v>
-      </c>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" t="b">
-        <v>0</v>
-      </c>
-      <c r="I33" t="b">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>(Timestamp('2151-04-02 07:09:00'), Timestamp('2151-04-02 08:13:00'))</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>{'text': 'ccu nursing admission note 1900-0700: status post stent\n(continued)\nh children. into visit briefly. updated by rn and md. will be in today to visit.\n\na/p: 67 year old status post stent to rca complicated by bradycardia and hypotension.\n\ncontinue to monitor\n', 'event': ['Family', 'Unknown'], 'event_id': ['e1', 'e2'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [\n        {\n            "attribute_name": "status post stent",\n            "attribute_value": "complicated by bradycardia and hypotension"\n        },\n        {\n            "attribute_name": "age",\n            "attribute_value": "67 years old"\n        }\n    ],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Family",\n            "text_quote": "h children. into visit briefly.",\n            "actor": "family member",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {\n                    "interaction": "visit",\n                    "relation": "children"\n                }\n            }\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Unknown",\n            "text_quote": "updated by rn and md.",\n            "actor": "others",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        }\n    ],\n    "order": [\n        {\n            "event_id_1": "e1",\n            "relation": "unknown",\n            "event_id_2": "e2"\n        }\n    ]\n}', 'attributes': [{'Family': {'Family': {'interaction': 'visit', 'relation': 'children'}}}, {'Unknown': {}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'unknown', 'event_id_2': 'e2'}]], 'text_quotes': ['h children. into visit briefly.', 'updated by rn and md.'], 'event_time': ['Unknown', 'Unknown'], 'negation': [False, False], 'caused_by': ['Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2151-04-02 07:09:00 and 2151-04-02 08:13:00):\n           ccu nursing admission note 1900-0700: status post stent\n(continued)\nh children. into visit briefly. updated by rn and md. will be in today to visit.\n\na/p: 67 year old status post stent to rca complicated by bradycardia and hypotension.\n\ncontinue to monitor\n\n        ', 'case_attributes': [[{'attribute_name': 'status post stent', 'attribute_value': 'complicated by bradycardia and hypotension'}, {'attribute_name': 'age', 'attribute_value': '67 years old'}]], 'actor': ['family member', 'others'], 'event_detection_time': 8.720960753038526}</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="b">
+        <v>0</v>
+      </c>
+      <c r="K33" t="b">
+        <v>0</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
@@ -2895,25 +3215,35 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
           <t>['Family', 'Unknown']</t>
         </is>
       </c>
-      <c r="N33" t="inlineStr">
+      <c r="P33" t="inlineStr">
         <is>
           <t>[{'Family': {'Family': {'interaction': 'visit', 'relation': 'children'}}}, {'Unknown': {}}]</t>
         </is>
       </c>
-      <c r="O33" t="inlineStr">
+      <c r="Q33" t="inlineStr">
         <is>
           <t>['h children. into visit briefly.', 'updated by rn and md.']</t>
         </is>
       </c>
-      <c r="P33" t="inlineStr">
+      <c r="R33" t="inlineStr">
         <is>
           <t>['e1=Family|1:h children. into visit briefly.', 'e2=Unknown|1:updated by rn and md.']</t>
         </is>
       </c>
-      <c r="Q33" t="inlineStr">
+      <c r="S33" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'unknown', 'event_id_2': 'e2'}]]</t>
         </is>
@@ -2941,25 +3271,25 @@
       <c r="E34" t="n">
         <v>0</v>
       </c>
-      <c r="F34" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" t="inlineStr"/>
-      <c r="H34" t="b">
-        <v>0</v>
-      </c>
-      <c r="I34" t="b">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>(Timestamp('2151-04-03 17:42:00'), Timestamp('2151-04-03 17:47:00'))</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>{'text': 'addendum\n\n1630hrs: patient began having frequent blocked pacs with occ pauses - ?rate 40s with blocked pacs. "sr with 1st avblock with frequent blocked pacs. ekgs + rhythm strips done. cards fellow in to assess . con\'t to monitor. bp stable.\n', 'event': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Unknown",\n            "text_quote": "patient began having frequent blocked pacs with occ pauses - ?rate 40s with blocked pacs.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "1630hrs",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Unknown",\n            "text_quote": "ekgs + rhythm strips done.",\n            "actor": "others",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        },\n        {\n            "event_id": "e3",\n            "event_type": "Unknown",\n            "text_quote": "cards fellow in to assess.",\n            "actor": "others",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        },\n        {\n            "event_id": "e4",\n            "event_type": "Unknown",\n            "text_quote": "con\'t to monitor.",\n            "actor": "others",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        },\n        {\n            "event_id": "e5",\n            "event_type": "Unknown",\n            "text_quote": "bp stable.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        }\n    ],\n    "order": [\n        {\n            "event_id_1": "e1",\n            "relation": "before",\n            "event_id_2": "e2"\n        },\n        {\n            "event_id_1": "e2",\n            "relation": "before",\n            "event_id_2": "e3"\n        },\n        {\n            "event_id_1": "e3",\n            "relation": "before",\n            "event_id_2": "e4"\n        },\n        {\n            "event_id_1": "e4",\n            "relation": "before",\n            "event_id_2": "e5"\n        }\n    ]\n}', 'attributes': [{'Unknown': {}}, {'Unknown': {}}, {'Unknown': {}}, {'Unknown': {}}, {'Unknown': {}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e3'}, {'event_id_1': 'e3', 'relation': 'before', 'event_id_2': 'e4'}, {'event_id_1': 'e4', 'relation': 'before', 'event_id_2': 'e5'}]], 'text_quotes': ['patient began having frequent blocked pacs with occ pauses - ?rate 40s with blocked pacs.', 'ekgs + rhythm strips done.', 'cards fellow in to assess.', "con't to monitor.", 'bp stable.'], 'event_time': ['1630hrs', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'negation': [False, False, False, False, False], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2151-04-03 17:42:00 and 2151-04-03 17:47:00):\n           addendum\n\n1630hrs: patient began having frequent blocked pacs with occ pauses - ?rate 40s with blocked pacs. "sr with 1st avblock with frequent blocked pacs. ekgs + rhythm strips done. cards fellow in to assess . con\'t to monitor. bp stable.\n\n        ', 'case_attributes': [[]], 'actor': ['patient', 'others', 'others', 'others', 'patient'], 'event_detection_time': 16.316934044938534}</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="b">
+        <v>0</v>
+      </c>
+      <c r="K34" t="b">
+        <v>0</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
@@ -2968,25 +3298,35 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
           <t>['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown']</t>
         </is>
       </c>
-      <c r="N34" t="inlineStr">
+      <c r="P34" t="inlineStr">
         <is>
           <t>[{'Unknown': {}}, {'Unknown': {}}, {'Unknown': {}}, {'Unknown': {}}, {'Unknown': {}}]</t>
         </is>
       </c>
-      <c r="O34" t="inlineStr">
+      <c r="Q34" t="inlineStr">
         <is>
           <t>['patient began having frequent blocked pacs with occ pauses - ?rate 40s with blocked pacs.', 'ekgs + rhythm strips done.', 'cards fellow in to assess.', "con't to monitor.", 'bp stable.']</t>
         </is>
       </c>
-      <c r="P34" t="inlineStr">
+      <c r="R34" t="inlineStr">
         <is>
           <t>['e1=Unknown|1:patient began having frequent blocked pacs with occ pauses - ?rate 40s with blocked pacs.', 'e2=Unknown|1:ekgs + rhythm strips done.', 'e3=Unknown|0:cards fellow in to assess.', "e4=Unknown|1:con't to monitor.", 'e5=Unknown|1:bp stable.']</t>
         </is>
       </c>
-      <c r="Q34" t="inlineStr">
+      <c r="S34" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e3'}, {'event_id_1': 'e3', 'relation': 'before', 'event_id_2': 'e4'}, {'event_id_1': 'e4', 'relation': 'before', 'event_id_2': 'e5'}]]</t>
         </is>
@@ -3014,25 +3354,25 @@
       <c r="E35" t="n">
         <v>0</v>
       </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="inlineStr"/>
-      <c r="H35" t="b">
-        <v>0</v>
-      </c>
-      <c r="I35" t="b">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>(Timestamp('2151-04-06 06:07:00'), Timestamp('2151-04-06 06:08:00'))</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>{'text': 'ccu nursing progress note 1900-0700: imi\nplease see transfer note for ros and other data:\n', 'event': [], 'event_id': [], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [],\n    "order": []\n}', 'attributes': [], 'orders': [[]], 'text_quotes': [], 'event_time': [], 'negation': [], 'caused_by': [], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2151-04-06 06:07:00 and 2151-04-06 06:08:00):\n           ccu nursing progress note 1900-0700: imi\nplease see transfer note for ros and other data:\n\n        ', 'case_attributes': [[]], 'actor': [], 'event_detection_time': 0.7458620062097907}</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="b">
+        <v>0</v>
+      </c>
+      <c r="K35" t="b">
+        <v>0</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
@@ -3060,6 +3400,16 @@
         </is>
       </c>
       <c r="Q35" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -3092,25 +3442,25 @@
       <c r="E36" t="n">
         <v>0</v>
       </c>
-      <c r="F36" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="b">
-        <v>0</v>
-      </c>
-      <c r="I36" t="b">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>(Timestamp('2151-05-06 17:23:00'), Timestamp('2151-05-06 17:29:00'))</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>{'text': "neuro: awake, alert, oriented x 3, mae, following commands.\nresp: extubated at ~1600, np's x 3 liters. strong stridorous cough, not raising.\ncardaic: mp sr -sb, pacer at 80. after coughing ct drainage ^ to 320cc in ~10 minutes, np's here, normal saline ^, labs drawn. np's changed to non rebreather. unit cells ^ as well as normal saline. cardiac echo done (-), ekg and chest x ray done. potassium repleated.\ngi: og tube in place while intubated, patent for bilious, dc'd when extubated.\ngu: foley to cd, patent for large amt clear urine.\nendo: insulin drops ^, following protocol\nfamily in and aware of all events\n", 'event': ['Excretion', 'Family', 'Excretion', 'Eating', 'Pain'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Excretion",\n      "text_quote": "gu: foley to cd, patent for large amt clear urine.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "urine",\n          "frequency": "Unknown",\n          "quality": "clear"\n        }\n      }\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Family",\n      "text_quote": "family in and aware of all events",\n      "actor": "family member",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {\n          "interaction": "visit",\n          "relation": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e3",\n      "event_type": "Excretion",\n      "text_quote": "cardaic: ... ct drainage ^ to 320cc in ~10 minutes, np\'s here, normal saline ^, labs drawn.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "ct drainage",\n          "frequency": "Unknown",\n          "quality": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e4",\n      "event_type": "Eating",\n      "text_quote": "gi: og tube in place while intubated, patent for bilious, dc\'d when extubated.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {\n          "food": "bilious",\n          "amount": "Unknown",\n          "method": "og tube"\n        }\n      }\n    },\n    {\n      "event_id": "e5",\n      "event_type": "Pain",\n      "text_quote": "cardaic: ... strong stridorous cough, not raising.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    }\n  ],\n  "order": [\n    {\n      "event_id_1": "e3",\n      "relation": "before",\n      "event_id_2": "e5"\n    },\n    {\n      "event_id_1": "e4",\n      "relation": "unknown",\n      "event_id_2": "e1"\n    }\n  ]\n}', 'attributes': [{'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'Unknown', 'quality': 'clear'}}}, {'Family': {'Family': {'interaction': 'visit', 'relation': 'Unknown'}}}, {'Excretion': {'Excretion': {'type': 'ct drainage', 'frequency': 'Unknown', 'quality': 'Unknown'}}}, {'Eating': {'Eating': {'food': 'bilious', 'amount': 'Unknown', 'method': 'og tube'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}], 'orders': [[{'event_id_1': 'e3', 'relation': 'before', 'event_id_2': 'e5'}, {'event_id_1': 'e4', 'relation': 'unknown', 'event_id_2': 'e1'}]], 'text_quotes': ['gu: foley to cd, patent for large amt clear urine.', 'family in and aware of all events', "cardaic: ... ct drainage ^ to 320cc in ~10 minutes, np's here, normal saline ^, labs drawn.", "gi: og tube in place while intubated, patent for bilious, dc'd when extubated.", 'cardaic: ... strong stridorous cough, not raising.'], 'event_time': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'negation': [False, False, False, False, False], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2151-05-06 17:23:00 and 2151-05-06 17:29:00):\n           neuro: awake, alert, oriented x 3, mae, following commands.\nresp: extubated at ~1600, np\'s x 3 liters. strong stridorous cough, not raising.\ncardaic: mp sr -sb, pacer at 80. after coughing ct drainage ^ to 320cc in ~10 minutes, np\'s here, normal saline ^, labs drawn. np\'s changed to non rebreather. unit cells ^ as well as normal saline. cardiac echo done (-), ekg and chest x ray done. potassium repleated.\ngi: og tube in place while intubated, patent for bilious, dc\'d when extubated.\ngu: foley to cd, patent for large amt clear urine.\nendo: insulin drops ^, following protocol\nfamily in and aware of all events\n\n        ', 'case_attributes': [[]], 'actor': ['patient', 'family member', 'patient', 'patient', 'patient'], 'event_detection_time': 20.29601205000654}</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="b">
+        <v>0</v>
+      </c>
+      <c r="K36" t="b">
+        <v>0</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
@@ -3119,25 +3469,35 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
           <t>['Excretion', 'Family', 'Excretion', 'Eating', 'Pain']</t>
         </is>
       </c>
-      <c r="N36" t="inlineStr">
+      <c r="P36" t="inlineStr">
         <is>
           <t>[{'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'Unknown', 'quality': 'clear'}}}, {'Family': {'Family': {'interaction': 'visit', 'relation': 'Unknown'}}}, {'Excretion': {'Excretion': {'type': 'ct drainage', 'frequency': 'Unknown', 'quality': 'Unknown'}}}, {'Eating': {'Eating': {'food': 'bilious', 'amount': 'Unknown', 'method': 'og tube'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="O36" t="inlineStr">
+      <c r="Q36" t="inlineStr">
         <is>
           <t>['gu: foley to cd, patent for large amt clear urine.', 'family in and aware of all events', "cardaic: ... ct drainage ^ to 320cc in ~10 minutes, np's here, normal saline ^, labs drawn.", "gi: og tube in place while intubated, patent for bilious, dc'd when extubated.", 'cardaic: ... strong stridorous cough, not raising.']</t>
         </is>
       </c>
-      <c r="P36" t="inlineStr">
+      <c r="R36" t="inlineStr">
         <is>
           <t>['e1=Excretion|1:gu: foley to cd, patent for large amt clear urine.', 'e2=Family|1:family in and aware of all events', "e3=Excretion|0:cardaic: ... ct drainage ^ to 320cc in ~10 minutes, np's here, normal saline ^, labs drawn.", "e4=Eating|1:gi: og tube in place while intubated, patent for bilious, dc'd when extubated.", 'e5=Pain|0:cardaic: ... strong stridorous cough, not raising.']</t>
         </is>
       </c>
-      <c r="Q36" t="inlineStr">
+      <c r="S36" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e3', 'relation': 'before', 'event_id_2': 'e5'}, {'event_id_1': 'e4', 'relation': 'unknown', 'event_id_2': 'e1'}]]</t>
         </is>
@@ -3164,25 +3524,25 @@
       <c r="E37" t="n">
         <v>0</v>
       </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="b">
-        <v>0</v>
-      </c>
-      <c r="I37" t="b">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>(Timestamp('2151-05-07 00:29:00'), Timestamp('2151-05-07 00:32:00'))</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>{'text': 'patient. continues to have &gt;100cc /hr bloody chest tube drng. hct called to dr. [**last name (stitle) 15**] of 21.7 after blood products administerd (1 prbc, 2 ffp, plts.). hct repeated stat. patients condition reported to dr. [**last name (stitle) **] via phone @ 2400. lab results were not available at that time. vs and chest tube drng reported at that time.\n', 'event': ['Unknown', 'Unknown', 'Family', 'Unknown', 'Unknown'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Unknown",\n            "text_quote": "patient continues to have &gt;100cc/hr bloody chest tube drng",\n            "actor": "patient",\n            "object": "chest tube drainage",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Unknown",\n            "text_quote": "hct called to dr [**last name (stitle) 15**] of 21.7 after blood products administerd (1 prbc, 2 ffp, plts)",\n            "actor": "patient",\n            "object": "blood products",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        },\n        {\n            "event_id": "e3",\n            "event_type": "Family",\n            "text_quote": "patients condition reported to dr [**last name (stitle) **] via phone @ 2400",\n            "actor": "patient",\n            "object": "dr [**last name (stitle) **]",\n            "negation": false,\n            "time": "@ 2400",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {\n                    "interaction": "phone call",\n                    "relation": "doctor"\n                }\n            }\n        },\n        {\n            "event_id": "e4",\n            "event_type": "Unknown",\n            "text_quote": "lab results were not available at that time",\n            "actor": "patient",\n            "object": "lab results",\n            "negation": true,\n            "time": "@ 2400",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        },\n        {\n            "event_id": "e5",\n            "event_type": "Unknown",\n            "text_quote": "vs and chest tube drng reported at that time",\n            "actor": "patient",\n            "object": "chest tube drainage",\n            "negation": false,\n            "time": "@ 2400",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        }\n    ],\n    "order": [\n        {\n            "event_id_1": "e1",\n            "relation": "before",\n            "event_id_2": "e2"\n        },\n        {\n            "event_id_1": "e2",\n            "relation": "before",\n            "event_id_2": "e3"\n        },\n        {\n            "event_id_1": "e3",\n            "relation": "simultaneous",\n            "event_id_2": "e4"\n        },\n        {\n            "event_id_1": "e3",\n            "relation": "simultaneous",\n            "event_id_2": "e5"\n        }\n    ]\n}', 'attributes': [{'Unknown': {}}, {'Unknown': {}}, {'Family': {'Family': {'interaction': 'phone call', 'relation': 'doctor'}}}, {'Unknown': {}}, {'Unknown': {}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e3'}, {'event_id_1': 'e3', 'relation': 'simultaneous', 'event_id_2': 'e4'}, {'event_id_1': 'e3', 'relation': 'simultaneous', 'event_id_2': 'e5'}]], 'text_quotes': ['patient continues to have &gt;100cc/hr bloody chest tube drng', 'hct called to dr [**last name (stitle) 15**] of 21.7 after blood products administerd (1 prbc, 2 ffp, plts)', 'patients condition reported to dr [**last name (stitle) **] via phone @ 2400', 'lab results were not available at that time', 'vs and chest tube drng reported at that time'], 'event_time': ['Unknown', 'Unknown', '@ 2400', '@ 2400', '@ 2400'], 'negation': [False, False, False, True, False], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2151-05-07 00:29:00 and 2151-05-07 00:32:00):\n           patient. continues to have &gt;100cc /hr bloody chest tube drng. hct called to dr. [**last name (stitle) 15**] of 21.7 after blood products administerd (1 prbc, 2 ffp, plts.). hct repeated stat. patients condition reported to dr. [**last name (stitle) **] via phone @ 2400. lab results were not available at that time. vs and chest tube drng reported at that time.\n\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient', 'patient', 'patient', 'patient'], 'event_detection_time': 19.351972145028412}</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="b">
+        <v>0</v>
+      </c>
+      <c r="K37" t="b">
+        <v>0</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
@@ -3191,25 +3551,35 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
           <t>['Unknown', 'Unknown', 'Family', 'Unknown', 'Unknown']</t>
         </is>
       </c>
-      <c r="N37" t="inlineStr">
+      <c r="P37" t="inlineStr">
         <is>
           <t>[{'Unknown': {}}, {'Unknown': {}}, {'Family': {'Family': {'interaction': 'phone call', 'relation': 'doctor'}}}, {'Unknown': {}}, {'Unknown': {}}]</t>
         </is>
       </c>
-      <c r="O37" t="inlineStr">
+      <c r="Q37" t="inlineStr">
         <is>
           <t>['patient continues to have &gt;100cc/hr bloody chest tube drng', 'hct called to dr [**last name (stitle) 15**] of 21.7 after blood products administerd (1 prbc, 2 ffp, plts)', 'patients condition reported to dr [**last name (stitle) **] via phone @ 2400', 'lab results were not available at that time', 'vs and chest tube drng reported at that time']</t>
         </is>
       </c>
-      <c r="P37" t="inlineStr">
+      <c r="R37" t="inlineStr">
         <is>
           <t>['e1=Unknown|0:patient continues to have &gt;100cc/hr bloody chest tube drng', 'e2=Unknown|0:hct called to dr [**last name (stitle) 15**] of 21.7 after blood products administerd (1 prbc, 2 ffp, plts)', 'e3=Family|0:patients condition reported to dr [**last name (stitle) **] via phone @ 2400', 'e4=Unknown|1:lab results were not available at that time', 'e5=Unknown|1:vs and chest tube drng reported at that time']</t>
         </is>
       </c>
-      <c r="Q37" t="inlineStr">
+      <c r="S37" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e3'}, {'event_id_1': 'e3', 'relation': 'simultaneous', 'event_id_2': 'e4'}, {'event_id_1': 'e3', 'relation': 'simultaneous', 'event_id_2': 'e5'}]]</t>
         </is>
@@ -3236,25 +3606,25 @@
       <c r="E38" t="n">
         <v>0</v>
       </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="b">
-        <v>0</v>
-      </c>
-      <c r="I38" t="b">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>(Timestamp('2151-05-07 06:17:00'), Timestamp('2151-05-07 06:20:00'))</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>{'text': "patient. received total of 4 u prbc's, 2 ffp and 6u plts this shift. hct 33 @ 0330. repeat hct at 0615 sent to lab. chest tube drng 50cc from 0500-0600. hemodynamics stable. neo weaned to .5mcq. insulin drip off for now with bs &lt;100.\n", 'event': ['Unknown', 'Unknown', 'Unknown', 'Excretion', 'Unknown', 'Unknown', 'Unknown'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5', 'e6', 'e7'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Unknown",\n            "text_quote": "patient received total of 4 u prbc\'s, 2 ffp and 6u plts this shift.",\n            "actor": "others",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Unknown",\n            "text_quote": "hct 33 @ 0330.",\n            "actor": "others",\n            "object": "patient",\n            "negation": false,\n            "time": "0330",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        },\n        {\n            "event_id": "e3",\n            "event_type": "Unknown",\n            "text_quote": "repeat hct at 0615 sent to lab.",\n            "actor": "others",\n            "object": "patient",\n            "negation": false,\n            "time": "0615",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        },\n        {\n            "event_id": "e4",\n            "event_type": "Excretion",\n            "text_quote": "chest tube drng 50cc from 0500-0600.",\n            "actor": "patient",\n            "object": "chest tube",\n            "negation": false,\n            "time": "0500-0600",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "fluid",\n                    "frequency": "1x",\n                    "quality": "50cc"\n                }\n            }\n        },\n        {\n            "event_id": "e5",\n            "event_type": "Unknown",\n            "text_quote": "hemodynamics stable.",\n            "actor": "patient",\n            "object": "hemodynamics",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        },\n        {\n            "event_id": "e6",\n            "event_type": "Unknown",\n            "text_quote": "neo weaned to .5mcq.",\n            "actor": "others",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        },\n        {\n            "event_id": "e7",\n            "event_type": "Unknown",\n            "text_quote": "insulin drip off for now with bs &lt;100.",\n            "actor": "others",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        }\n    ],\n    "order": [\n        {\n            "event_id_1": "e2",\n            "relation": "before",\n            "event_id_2": "e3"\n        },\n        {\n            "event_id_1": "e4",\n            "relation": "simultaneous",\n            "event_id_2": "e5"\n        }\n    ]\n}', 'attributes': [{'Unknown': {}}, {'Unknown': {}}, {'Unknown': {}}, {'Excretion': {'Excretion': {'type': 'fluid', 'frequency': '1x', 'quality': '50cc'}}}, {'Unknown': {}}, {'Unknown': {}}, {'Unknown': {}}], 'orders': [[{'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e3'}, {'event_id_1': 'e4', 'relation': 'simultaneous', 'event_id_2': 'e5'}]], 'text_quotes': ["patient received total of 4 u prbc's, 2 ffp and 6u plts this shift.", 'hct 33 @ 0330.', 'repeat hct at 0615 sent to lab.', 'chest tube drng 50cc from 0500-0600.', 'hemodynamics stable.', 'neo weaned to .5mcq.', 'insulin drip off for now with bs &lt;100.'], 'event_time': ['Unknown', '0330', '0615', '0500-0600', 'Unknown', 'Unknown', 'Unknown'], 'negation': [False, False, False, False, False, False, False], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2151-05-07 06:17:00 and 2151-05-07 06:20:00):\n           patient. received total of 4 u prbc\'s, 2 ffp and 6u plts this shift. hct 33 @ 0330. repeat hct at 0615 sent to lab. chest tube drng 50cc from 0500-0600. hemodynamics stable. neo weaned to .5mcq. insulin drip off for now with bs &lt;100.\n\n        ', 'case_attributes': [[]], 'actor': ['others', 'others', 'others', 'patient', 'patient', 'others', 'others'], 'event_detection_time': 20.945359541103244}</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="b">
+        <v>0</v>
+      </c>
+      <c r="K38" t="b">
+        <v>0</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
@@ -3263,25 +3633,35 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
           <t>['Unknown', 'Unknown', 'Unknown', 'Excretion', 'Unknown', 'Unknown', 'Unknown']</t>
         </is>
       </c>
-      <c r="N38" t="inlineStr">
+      <c r="P38" t="inlineStr">
         <is>
           <t>[{'Unknown': {}}, {'Unknown': {}}, {'Unknown': {}}, {'Excretion': {'Excretion': {'type': 'fluid', 'frequency': '1x', 'quality': '50cc'}}}, {'Unknown': {}}, {'Unknown': {}}, {'Unknown': {}}]</t>
         </is>
       </c>
-      <c r="O38" t="inlineStr">
+      <c r="Q38" t="inlineStr">
         <is>
           <t>["patient received total of 4 u prbc's, 2 ffp and 6u plts this shift.", 'hct 33 @ 0330.', 'repeat hct at 0615 sent to lab.', 'chest tube drng 50cc from 0500-0600.', 'hemodynamics stable.', 'neo weaned to .5mcq.', 'insulin drip off for now with bs &lt;100.']</t>
         </is>
       </c>
-      <c r="P38" t="inlineStr">
+      <c r="R38" t="inlineStr">
         <is>
           <t>["e1=Unknown|0:patient received total of 4 u prbc's, 2 ffp and 6u plts this shift.", 'e2=Unknown|1:hct 33 @ 0330.', 'e3=Unknown|1:repeat hct at 0615 sent to lab.', 'e4=Excretion|1:chest tube drng 50cc from 0500-0600.', 'e5=Unknown|1:hemodynamics stable.', 'e6=Unknown|1:neo weaned to .5mcq.', 'e7=Unknown|1:insulin drip off for now with bs &lt;100.']</t>
         </is>
       </c>
-      <c r="Q38" t="inlineStr">
+      <c r="S38" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e3'}, {'event_id_1': 'e4', 'relation': 'simultaneous', 'event_id_2': 'e5'}]]</t>
         </is>
@@ -3316,25 +3696,25 @@
       <c r="E39" t="n">
         <v>0</v>
       </c>
-      <c r="F39" t="n">
-        <v>0</v>
-      </c>
-      <c r="G39" t="inlineStr"/>
-      <c r="H39" t="b">
-        <v>0</v>
-      </c>
-      <c r="I39" t="b">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>(Timestamp('2151-05-08 13:20:00'), Timestamp('2151-05-08 13:27:00'))</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>{'text': 'pod #2\n\nneuro-aaox3 oob to chair with 2 assist tol well med for c/opain with percocet by mouth with relief\ncv-mp [** 928**] at 80 underlying rythm 56 sb ci&gt;2 on milrinone .125mck/kg/min amiodorone drops .5mg/min rare pvc/pac noted bp stable\ncsm wnl trace edema ml chest dressing intact right and left leg with steristrips intact trace eccymosis ace wraps lower legs intact\nresp-ls clear using ics and cdb well expecturating thick tan minimal cont pulm toilet\ngi-bs positive tol cardiac diet enc to assist with own meal and participate in care\ngu-lasix cont with great diuresis k repleted\nfamily attentive intense and continous emotional support provided\nplan-cont postop course and standard cardiac careplan monitor ci and rythm please see flow sheet\n', 'event': ['Pain', 'Eating', 'Excretion', 'Family'], 'event_id': ['e1', 'e2', 'e3', 'e4'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Pain",\n      "text_quote": "med for c/opain with percocet by mouth with relief",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Eating",\n      "text_quote": "enc to assist with own meal and participate in care",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {\n          "food": "cardiac diet",\n          "amount": "Unknown",\n          "method": "oral"\n        }\n      }\n    },\n    {\n      "event_id": "e3",\n      "event_type": "Excretion",\n      "text_quote": "gu-lasix cont with great diuresis k repleted",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "urine",\n          "frequency": "great diuresis",\n          "quality": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e4",\n      "event_type": "Family",\n      "text_quote": "family attentive intense and continous emotional support provided",\n      "actor": "family member",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {\n          "interaction": "emotional support",\n          "relation": "Unknown"\n        }\n      }\n    }\n  ],\n  "order": [\n    {\n      "event_id_1": "e1",\n      "relation": "before",\n      "event_id_2": "e2"\n    },\n    {\n      "event_id_1": "e2",\n      "relation": "simultaneous",\n      "event_id_2": "e3"\n    },\n    {\n      "event_id_1": "e3",\n      "relation": "after",\n      "event_id_2": "e4"\n    }\n  ]\n}', 'attributes': [{'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Eating': {'Eating': {'food': 'cardiac diet', 'amount': 'Unknown', 'method': 'oral'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'great diuresis', 'quality': 'Unknown'}}}, {'Family': {'Family': {'interaction': 'emotional support', 'relation': 'Unknown'}}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'simultaneous', 'event_id_2': 'e3'}, {'event_id_1': 'e3', 'relation': 'after', 'event_id_2': 'e4'}]], 'text_quotes': ['med for c/opain with percocet by mouth with relief', 'enc to assist with own meal and participate in care', 'gu-lasix cont with great diuresis k repleted', 'family attentive intense and continous emotional support provided'], 'event_time': ['Unknown', 'Unknown', 'Unknown', 'Unknown'], 'negation': [False, False, False, False], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2151-05-08 13:20:00 and 2151-05-08 13:27:00):\n           pod #2\n\nneuro-aaox3 oob to chair with 2 assist tol well med for c/opain with percocet by mouth with relief\ncv-mp [** 928**] at 80 underlying rythm 56 sb ci&gt;2 on milrinone .125mck/kg/min amiodorone drops .5mg/min rare pvc/pac noted bp stable\ncsm wnl trace edema ml chest dressing intact right and left leg with steristrips intact trace eccymosis ace wraps lower legs intact\nresp-ls clear using ics and cdb well expecturating thick tan minimal cont pulm toilet\ngi-bs positive tol cardiac diet enc to assist with own meal and participate in care\ngu-lasix cont with great diuresis k repleted\nfamily attentive intense and continous emotional support provided\nplan-cont postop course and standard cardiac careplan monitor ci and rythm please see flow sheet\n\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient', 'patient', 'family member'], 'event_detection_time': 17.360472444212064}</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="b">
+        <v>0</v>
+      </c>
+      <c r="K39" t="b">
+        <v>0</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
@@ -3343,25 +3723,35 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
           <t>['Pain', 'Eating', 'Excretion', 'Family']</t>
         </is>
       </c>
-      <c r="N39" t="inlineStr">
+      <c r="P39" t="inlineStr">
         <is>
           <t>[{'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Eating': {'Eating': {'food': 'cardiac diet', 'amount': 'Unknown', 'method': 'oral'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'great diuresis', 'quality': 'Unknown'}}}, {'Family': {'Family': {'interaction': 'emotional support', 'relation': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="O39" t="inlineStr">
+      <c r="Q39" t="inlineStr">
         <is>
           <t>['med for c/opain with percocet by mouth with relief', 'enc to assist with own meal and participate in care', 'gu-lasix cont with great diuresis k repleted', 'family attentive intense and continous emotional support provided']</t>
         </is>
       </c>
-      <c r="P39" t="inlineStr">
+      <c r="R39" t="inlineStr">
         <is>
           <t>['e1=Pain|1:med for c/opain with percocet by mouth with relief', 'e2=Eating|1:enc to assist with own meal and participate in care', 'e3=Excretion|1:gu-lasix cont with great diuresis k repleted', 'e4=Family|1:family attentive intense and continous emotional support provided']</t>
         </is>
       </c>
-      <c r="Q39" t="inlineStr">
+      <c r="S39" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'simultaneous', 'event_id_2': 'e3'}, {'event_id_1': 'e3', 'relation': 'after', 'event_id_2': 'e4'}]]</t>
         </is>
@@ -3388,25 +3778,25 @@
       <c r="E40" t="n">
         <v>0</v>
       </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="b">
-        <v>0</v>
-      </c>
-      <c r="I40" t="b">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>(Timestamp('2151-05-09 04:18:00'), Timestamp('2151-05-09 04:19:00'))</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>{'text': '[**name8 (md) **] md [**first name (titles) **] [**last name (titles) 3178**] of ci 1.9 [**last name (titles) **] at 80, good sats, good u/o no intevention at present, ??? increase captopril in am, continue to diuresis,,\n', 'event': ['Unknown', 'Excretion'], 'event_id': ['e1', 'e2'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [\n        {\n            "attribute_name": "age",\n            "attribute_value": "80"\n        },\n        {\n            "attribute_name": "sats",\n            "attribute_value": "good"\n        },\n        {\n            "attribute_name": "u/o",\n            "attribute_value": "good"\n        }\n    ],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Unknown",\n            "text_quote": "increase captopril in am",\n            "actor": "patient",\n            "object": "captopril",\n            "negation": false,\n            "time": "am",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Excretion",\n            "text_quote": "continue to diuresis",\n            "actor": "patient",\n            "object": "diuresis",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "urine"\n                }\n            }\n        }\n    ],\n    "order": [\n        {\n            "event_id_1": "e1",\n            "relation": "before",\n            "event_id_2": "e2"\n        }\n    ]\n}', 'attributes': [{'Unknown': {}}, {'Excretion': {'Excretion': {'type': 'urine'}}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}]], 'text_quotes': ['increase captopril in am', 'continue to diuresis'], 'event_time': ['am', 'Unknown'], 'negation': [False, False], 'caused_by': ['Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2151-05-09 04:18:00 and 2151-05-09 04:19:00):\n           [**name8 (md) **] md [**first name (titles) **] [**last name (titles) 3178**] of ci 1.9 [**last name (titles) **] at 80, good sats, good u/o no intevention at present, ??? increase captopril in am, continue to diuresis,,\n\n        ', 'case_attributes': [[{'attribute_name': 'age', 'attribute_value': '80'}, {'attribute_name': 'sats', 'attribute_value': 'good'}, {'attribute_name': 'u/o', 'attribute_value': 'good'}]], 'actor': ['patient', 'patient'], 'event_detection_time': 8.882574324961752}</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="b">
+        <v>0</v>
+      </c>
+      <c r="K40" t="b">
+        <v>0</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
@@ -3415,25 +3805,35 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
           <t>['Unknown', 'Excretion']</t>
         </is>
       </c>
-      <c r="N40" t="inlineStr">
+      <c r="P40" t="inlineStr">
         <is>
           <t>[{'Unknown': {}}, {'Excretion': {'Excretion': {'type': 'urine'}}}]</t>
         </is>
       </c>
-      <c r="O40" t="inlineStr">
+      <c r="Q40" t="inlineStr">
         <is>
           <t>['increase captopril in am', 'continue to diuresis']</t>
         </is>
       </c>
-      <c r="P40" t="inlineStr">
+      <c r="R40" t="inlineStr">
         <is>
           <t>['e1=Unknown|1:increase captopril in am', 'e2=Excretion|1:continue to diuresis']</t>
         </is>
       </c>
-      <c r="Q40" t="inlineStr">
+      <c r="S40" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}]]</t>
         </is>
@@ -3461,25 +3861,25 @@
       <c r="E41" t="n">
         <v>0</v>
       </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="b">
-        <v>0</v>
-      </c>
-      <c r="I41" t="b">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>(Timestamp('2151-05-10 13:38:00'), Timestamp('2151-05-10 14:02:00'))</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>{'text': 'patient update\n patient is status post cabg x3 on [**5-6**].  neuro: patient is a&amp;o x3. does not seem very anxious. is calm and cooperative.   resp: bs clear, sl. decreased in bases. has good strong cough-thick yell sputum. needs encouragement to use is. sats 95-97 on ra. patient sl. sob after getting back to bed-o2np 2l put back on.  cv: patient into afib 0700. [**last name (namepattern4) 2967**] called-patient given 150mg amiod. bolus 0730; then given 25mg iv lopressor 0810-0830 converted back to sr. patient has gone in and out of afib all day; rate controlled-no higher than 100 since this am. patient on by mouth amiod. somewhat hypotensive this am an hour after receiving by mouth captopril; and when patient oob. patient ap 88 with minimal improvement in bp. eventuallly bp back up. ci down to 1.95-now back up to 2.08-not related to patient being in afib. patient remains off milrinone.  gu: weight still up 7.5kg. patient receiving iv [**last name (namepattern4) **] 20mg [**hospital1 **] with good diuresis.  gi: patient doing fairly well with by mouth intake. pos bs, no stool.  lab: k, mg repleted. bs 200-covered with ss insulin.  other: patient c/o some incisional burning-1 percocet with relief. patient oob this am with assist-up for 1 1/2hrs tol well. plan: to cont to monitor ci closely.\n', 'event': [], 'event_id': [], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Pain",\n      "text_quote": "patient c/o some incisional burning-1 percocet with relief.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "incisional",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Eating",\n      "text_quote": "gi: patient doing fairly well with by mouth intake.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {\n          "food": "Unknown",\n          "amount": "Unknown",\n          "method": "oral"\n        }\n      }\n    },\n    {\n      "event_id": "e3",\n      "event_type": "Excretion",\n      "text_quote": "gu: weight still up 7.5kg. patient receiving iv [**last name (namepattern4) **] 20mg [**hospital1 **] with good diuresis.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "urine",\n          "frequency": "Unknown",\n          "quality": "good diuresis"\n        }\n      }\n    },\n    {\n      "event_id": "e4",\n      "event_type": "Sleep",\n      "text_quote": "None",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e5",\n      "event_type": "Family",\n      "text_quote": "[**last name (namepattern4) 2967**] called",\n      "actor": "family member",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {\n          "interaction": "call",\n          "relation": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e6",\n      "event_type": "Pain",\n      "text_quote": "patient given 150mg amiod. bolus 0730; then given 25mg iv lopressor 0810-0830 converted back to sr.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e7",\n      "event_type": "Excretion",\n      "text_quote": "patient has gone in and out of afib all day; rate controlled-no higher than 100 since this am.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "Unknown",\n          "frequency": "Unknown",\n          "quality": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e8",\n      "event_type": "Eating",\n      "text_quote": "patient ap 88 with minimal improvement in bp.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {\n          "food": "Unknown",\n          "amount": "Unknown",\n          "method": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e9",\n      "event_type": "Sleep",\n      "text_quote": "patient oob this am with assist-up for 1 1/2hrs tol well.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "Unknown",\n          "duration": "1 1/2hrs"\n        }\n      }\n    },\n    {\n      "event_id": "e10",\n      "event_type": "Pain",\n      "text_quote": "patient c/o some incisional burning-1 percocet with relief.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "incisional",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e11",\n      "event_type": "Excretion",\n      "text_quote": "patient receiving iv [**last name (namepattern4) **] 20mg [**hospital1 **] with good diuresis.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "urine",\n          "frequency": "Unknown",\n          "quality": "good diuresis"\n        }\n      }\n    },\n    {\n      "event_id": "e12",\n      "event_type": "Eating",\n      "text_quote": "gi: patient doing fairly well with by mouth intake.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {\n          "food": "Unknown",\n          "amount": "Unknown",\n          "method": "oral"\n        }\n      }\n    },\n    {\n      "event_id": "e13",\n      "event_type": "Sleep",\n      "text_quote": "None",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e14",\n      "event_type": "Family",\n      "text_quote": "[**last name (namepattern4) 2967**] called",\n      "actor": "family member",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {\n          "interaction": "call",\n          "relation": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e15",\n      "event_type": "Pain",\n      "text_quote": "patient given 150mg amiod. bolus 0730; then given 25mg iv lopressor 0810-0830 converted back to sr.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e16",\n      "event_type": "Excretion",\n      "text_quote": "patient has gone in and out of afib all day; rate controlled-no higher than 100 since this am.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "Unknown",\n          "frequency": "Unknown",\n          "quality": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e17",\n      "event_type": "Eating",\n      "text_quote": "patient ap 88 with minimal improvement in bp.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {\n          "food": "Unknown",\n          "amount": "Unknown",\n          "method": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e18",\n      "event_type": "Sleep",\n      "text_quote": "patient oob this am with assist-up for 1 1/2hrs tol well.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "Unknown",\n          "duration": "1 1/2hrs"\n        }\n      }\n    },\n    {\n      "event_id": "e19",\n      "event_type": "Pain",\n      "text_quote": "patient c/o some incisional burning-1 percocet with relief.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "incisional",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e20",\n      "event_type": "Excretion",\n      "text_quote": "patient receiving iv [**last name (namepattern4) **] 20mg [**hospital1 **] with good diuresis.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "urine",\n          "frequency": "Unknown",\n          "quality": "good diuresis"\n        }\n      }\n    },\n    {\n      "event_id": "e21",\n      "event_type": "Eating",\n      "text_quote": "gi: patient doing fairly well with by mouth intake.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {\n          "food": "Unknown",\n          "amount": "Unknown",\n          "method": "oral"\n        }\n      }\n    },\n    {\n      "event_id": "e22",\n      "event_type": "Sleep",\n      "text_quote": "None",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e23",\n      "event_type": "Family",\n      "text_quote": "[**last name (namepattern4) 2967**] called",\n      "actor": "family member",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {\n          "interaction": "call",\n          "relation": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e24",\n      "event_type": "Pain",\n      "text_quote": "patient given 150mg amiod. bolus 0730; then given 25mg iv lopressor 0810-0830 converted back to sr.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e25",\n      "event_type": "Excretion",\n      "text_quote": "patient has gone in and out of afib all day; rate controlled-no higher than 100 since this am.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "Unknown",\n          "frequency": "Unknown",\n          "quality": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e26",\n      "event_type": "Eating",\n      "text_quote": "patient ap 88 with minimal improvement in bp.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {\n          "food": "Unknown",\n          "amount": "Unknown",\n          "method": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e27",\n      "event_type": "Sleep",\n      "text_quote": "patient oob this am with assist-up for 1 1/2hrs tol well.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "Unknown",\n          "duration": "1 1/2hrs"\n        }\n      }\n    },\n    {\n      "event_id": "e28",\n      "event_type": "Pain",\n      "text_quote": "patient c/o some incisional burning-1 percocet with relief.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "incisional",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e29",\n      "event_type": "Excretion",\n      "text_quote": "patient receiving iv [**last name (namepattern4) **] 20mg [**hospital1 **] with good diuresis.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "urine",\n          "frequency": "Unknown",\n          "quality": "good diuresis"\n        }\n      }\n    },\n    {\n      "event_id": "e30",\n      "event_type": "Eating",\n      "text_quote": "gi: patient doing fairly well with by mouth intake.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {\n          "food": "Unknown",\n          "amount": "Unknown",\n          "method": "oral"\n        }\n      }\n    },\n    {\n      "event_id": "e31",\n      "event_type": "Sleep",\n      "text_quote": "None",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e32",\n      "event_type": "Family",\n      "text_quote": "[**last name (namepattern4) 2967**] called",\n      "actor": "family member",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {\n          "interaction": "call",\n          "relation": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e33",\n      "event_type": "Pain",\n      "text_quote": "patient given 150mg amiod. bolus 0730; then given 25mg iv lopressor 0810-0830 converted back to sr.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e34",\n      "event_type": "Excretion",\n      "text_quote": "patient has gone in and out of afib all day; rate controlled-no higher than 100 since this am.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "Unknown",\n          "frequency": "Unknown",\n          "quality": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e35",\n      "event_type": "Eating",\n      "text_quote": "patient ap 88 with minimal improvement in bp.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {\n          "food": "Unknown",\n          "amount": "Unknown",\n          "method": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e36",\n      "event_type": "Sleep",\n      "text_quote": "patient oob this am with assist-up for 1 1/2hrs tol well.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "Unknown",\n          "duration": "1 1/2hrs"\n        }\n      }\n    },\n    {\n      "event_id": "e37",\n      "event_type": "Pain",\n      "text_quote": "patient c/o some incisional burning-1 percocet with relief.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "incisional",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e38",\n      "event_type": "Excretion",\n      "text_quote": "patient receiving iv [**last name (namepattern4) **] 20mg [**hospital1 **] with good diuresis.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "urine",\n          "frequency": "Unknown",\n          "quality": "good diuresis"\n        }\n      }\n    },\n    {\n      "event_id": "e39",\n      "event_type": "Eating",\n      "text_quote": "gi: patient doing fairly well with by mouth intake.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {\n          "food": "Unknown",\n          "amount": "Unknown",\n          "method": "oral"\n        }\n      }\n    },\n    {\n      "event_id": "e40",\n      "event_type": "Sleep",\n      "text_quote": "None",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e41",\n      "event_type": "Family",\n      "text_quote": "[**last name (namepattern4) 2967**] called",\n      "actor": "family member",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {\n          "interaction": "call",\n          "relation": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e42",\n      "event_type": "Pain",\n      "text_quote": "patient given 150mg amiod. bolus 0730; then given 25mg iv lopressor 0810-0830 converted back to sr.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e43",\n      "event_type": "Excretion",\n      "text_quote": "patient has gone in and out of afib all day; rate controlled-no higher than 100 since this am.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "Unknown",\n          "frequency": "Unknown",\n          "quality": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e44",\n      "event_type": "Eating",\n      "text_quote": "patient ap 88 with minimal improvement in bp.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {\n          "food": "Unknown",\n          "amount": "Unknown",\n          "method": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e45",\n      "event_type": "Sleep",\n      "text_quote": "patient oob this am with assist-up for 1 1/2hrs tol well.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "Unknown",\n          "duration": "1 1/2hrs"\n        }\n      }\n    },\n    {\n      "event_id": "e46",\n      "event_type": "Pain",\n      "text_quote": "patient c/o some incisional burning-1 percocet with relief.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "incisional",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e47",\n      "event_type": "Excretion",\n      "text_quote": "patient receiving iv [**last name (namepattern4) **] 20mg [**hospital1 **] with good diuresis.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "urine",\n          "frequency": "Unknown",\n          "quality": "good diuresis"\n        }\n      }\n    },\n    {\n      "event_id": "e48",\n      "event_type": "Eating",\n      "text_quote": "gi: patient doing fairly well with by mouth intake.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {\n          "food": "Unknown",\n          "amount": "Unknown",\n          "method": "oral"\n        }\n      }\n    },\n    {\n      "event_id": "e49",\n      "event_type": "Sleep",\n      "text_quote": "None",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e50",\n      "event_type": "Family",\n      "text_quote": "[**last name (namepattern4) 2967**] called",\n      "actor": "family member",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {\n          "interaction": "call",\n          "relation": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e51",\n      "event_type": "Pain",\n      "text_quote": "patient given 150mg amiod. bolus 0730; then given 25mg iv lopressor 0810-0830 converted back to sr.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e52",\n      "event_type": "Excretion",\n      "text_quote": "patient has gone in and out of afib all day; rate controlled-no higher than 100 since this am.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "Unknown",\n          "frequency": "Unknown",\n          "quality": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e53",\n      "event_type": "Eating",\n      "text_quote": "patient ap 88 with minimal improvement in bp.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {\n          "food": "Unknown",\n          "amount": "Unknown",\n          "method": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e54",\n      "event_type": "Sleep",\n      "text_quote": "patient oob this am with assist-up for 1 1/2hrs tol well.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "Unknown",\n          "duration": "1 1/2hrs"\n        }\n      }\n    },\n    {\n      "event_id": "e55",\n      "event_type": "Pain",\n      "text_quote": "patient c/o some incisional burning-1 percocet with relief.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "incisional",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e56",\n      "event_type": "Excretion",\n      "text_quote": "patient receiving iv [**last name (namepattern4) **] 20mg [**hospital1 **] with good diuresis.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "urine",\n          "frequency": "Unknown",\n          "quality": "good diuresis"\n        }\n      }\n    },\n    {\n      "event_id": "e57",\n      "event_type": "Eating",\n      "text_quote": "gi: patient doing fairly well with by mouth intake.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {\n          "food": "Unknown",\n          "amount": "Unknown",\n          "method": "oral"\n        }\n      }\n    },\n    {\n      "event_id": "e58",\n      "event_type": "Sleep",\n      "text_quote": "None",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e59",\n      "event_type": "Family",\n      "text_quote": "[**last name (namepattern4) 2967**] called",\n      "actor": "family member",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {\n          "interaction": "call",\n          "relation": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e60",\n      "event_type": "Pain",\n      "text_quote": "patient given 150mg amiod. bolus 0730; then given 25mg iv lopressor 0810-0830 converted back to sr.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e61",\n      "event_type": "Excretion",\n      "text_quote": "patient has gone in and out of afib all day; rate controlled-no higher than 100 since this am.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "Unknown",\n          "frequency": "Unknown",\n          "quality": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e62",\n      "event_type": "Eating",\n      "text_quote": "patient ap 88 with minimal improvement in bp.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {\n          "food": "Unknown",\n          "amount": "Unknown",\n          "method": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e63",\n      "event_type": "Sleep",\n      "text_quote": "patient oob this am with assist-up for 1 1/2hrs tol well.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "Unknown",\n          "duration": "1 1/2hrs"\n        }\n      }\n    },\n    {\n      "event_id": "e64",\n      "event_type": "Pain",\n      "text_quote": "patient c/o some incisional burning-1 percocet with relief.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "incisional",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e65",\n      "event_type": "Excretion",\n      "text_quote": "patient receiving iv [**last name (namepattern4) **] 20mg [**hospital1 **] with good diuresis.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "urine",\n          "frequency": "Unknown",\n          "quality": "good diuresis"\n        }\n      }\n    },\n    {\n      "event_id": "e66",\n      "event_type": "Eating",\n      "text_quote": "gi: patient doing fairly well with by mouth intake.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {\n          "food": "Unknown",\n          "amount": "Unknown",\n          "method": "oral"\n        }\n      }\n    },\n    {\n      "event_id": "e67",\n      "event_type": "Sleep",\n      "text_quote": "None",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e68",\n      "event_type": "Family",\n      "text_quote": "[**last name (namepattern4) 2967**] called",\n      "actor": "family member",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {\n          "interaction": "call",\n          "relation": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e69",\n      "event_type": "Pain",\n      "text_quote": "patient given 150mg amiod. bolus 0730; then given 25mg iv lopressor 0810-0830 converted back to sr.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e70",\n      "event</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="b">
+        <v>0</v>
+      </c>
+      <c r="K41" t="b">
+        <v>0</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
@@ -3507,6 +3907,16 @@
         </is>
       </c>
       <c r="Q41" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr">
         <is>
           <t>['[]']</t>
         </is>
@@ -3534,25 +3944,25 @@
       <c r="E42" t="n">
         <v>0</v>
       </c>
-      <c r="F42" t="n">
-        <v>0</v>
-      </c>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="b">
-        <v>0</v>
-      </c>
-      <c r="I42" t="b">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>(Timestamp('2151-05-10 14:19:00'), Timestamp('2151-05-10 14:21:00'))</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>{'text': "patient update\n[**name (ni) 2967**] [**name (ni) 3180**] patient looks good and ci 1.9-2.0 range is acceptable. pacing felt by patient-states it is very uncomf. patient in sr 60's. ci 2.01 in patient's native rhythm.\n", 'event': ['Pain', 'Unknown'], 'event_id': ['e1', 'e2'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Pain",\n            "text_quote": "pacing felt by patient-states it is very uncomf",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "uncomfortable",\n                    "location": "chest/heart area (implied by pacing)",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Unknown",\n            "text_quote": "patient looks good and ci 1.9-2.0 range is acceptable.",\n            "actor": "Unknown",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        }\n    ],\n    "order": [\n        {\n            "event_id_1": "e2",\n            "relation": "before",\n            "event_id_2": "e1"\n        }\n    ]\n}', 'attributes': [{'Pain': {'Pain': {'severity': 'uncomfortable', 'location': 'chest/heart area (implied by pacing)', 'duration': 'Unknown'}}}, {'Unknown': {}}], 'orders': [[{'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e1'}]], 'text_quotes': ['pacing felt by patient-states it is very uncomf', 'patient looks good and ci 1.9-2.0 range is acceptable.'], 'event_time': ['Unknown', 'Unknown'], 'negation': [False, False], 'caused_by': ['Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2151-05-10 14:19:00 and 2151-05-10 14:21:00):\n           patient update\n[**name (ni) 2967**] [**name (ni) 3180**] patient looks good and ci 1.9-2.0 range is acceptable. pacing felt by patient-states it is very uncomf. patient in sr 60\'s. ci 2.01 in patient\'s native rhythm.\n\n        ', 'case_attributes': [[]], 'actor': ['patient', 'Unknown'], 'event_detection_time': 8.851718886056915}</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="b">
+        <v>0</v>
+      </c>
+      <c r="K42" t="b">
+        <v>0</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
@@ -3561,25 +3971,35 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
           <t>['Pain', 'Unknown']</t>
         </is>
       </c>
-      <c r="N42" t="inlineStr">
+      <c r="P42" t="inlineStr">
         <is>
           <t>[{'Pain': {'Pain': {'severity': 'uncomfortable', 'location': 'chest/heart area (implied by pacing)', 'duration': 'Unknown'}}}, {'Unknown': {}}]</t>
         </is>
       </c>
-      <c r="O42" t="inlineStr">
+      <c r="Q42" t="inlineStr">
         <is>
           <t>['pacing felt by patient-states it is very uncomf', 'patient looks good and ci 1.9-2.0 range is acceptable.']</t>
         </is>
       </c>
-      <c r="P42" t="inlineStr">
+      <c r="R42" t="inlineStr">
         <is>
           <t>['e1=Pain|1:pacing felt by patient-states it is very uncomf', 'e2=Unknown|1:patient looks good and ci 1.9-2.0 range is acceptable.']</t>
         </is>
       </c>
-      <c r="Q42" t="inlineStr">
+      <c r="S42" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e1'}]]</t>
         </is>
@@ -3607,25 +4027,25 @@
       <c r="E43" t="n">
         <v>0</v>
       </c>
-      <c r="F43" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="b">
-        <v>0</v>
-      </c>
-      <c r="I43" t="b">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>(Timestamp('2151-05-10 17:04:00'), Timestamp('2151-05-10 17:08:00'))</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>{'text': '[**2151-5-10**] 3p t0 7p:\nstable all vitals wnl see flow sheets, nsr with no ectopy, ci in low 2 raaange. no isssues arose.\n', 'event': ['Unknown'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Unknown",\n            "text_quote": "stable all vitals wnl see flow sheets, nsr with no ectopy, ci in low 2 raaange. no isssues arose.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        }\n    ],\n    "order": []\n}', 'attributes': [{'Unknown': {}}], 'orders': [[]], 'text_quotes': ['stable all vitals wnl see flow sheets, nsr with no ectopy, ci in low 2 raaange. no isssues arose.'], 'event_time': ['Unknown'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2151-05-10 17:04:00 and 2151-05-10 17:08:00):\n           [**2151-5-10**] 3p t0 7p:\nstable all vitals wnl see flow sheets, nsr with no ectopy, ci in low 2 raaange. no isssues arose.\n\n        ', 'case_attributes': [[]], 'actor': ['patient'], 'event_detection_time': 3.7855023369193077}</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="b">
+        <v>0</v>
+      </c>
+      <c r="K43" t="b">
+        <v>0</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
@@ -3634,25 +4054,35 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
           <t>['Unknown']</t>
         </is>
       </c>
-      <c r="N43" t="inlineStr">
+      <c r="P43" t="inlineStr">
         <is>
           <t>[{'Unknown': {}}]</t>
         </is>
       </c>
-      <c r="O43" t="inlineStr">
+      <c r="Q43" t="inlineStr">
         <is>
           <t>['stable all vitals wnl see flow sheets, nsr with no ectopy, ci in low 2 raaange. no isssues arose.']</t>
         </is>
       </c>
-      <c r="P43" t="inlineStr">
+      <c r="R43" t="inlineStr">
         <is>
           <t>['e1=Unknown|1:stable all vitals wnl see flow sheets, nsr with no ectopy, ci in low 2 raaange. no isssues arose.']</t>
         </is>
       </c>
-      <c r="Q43" t="inlineStr">
+      <c r="S43" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -3685,25 +4115,25 @@
       <c r="E44" t="n">
         <v>0</v>
       </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="b">
-        <v>0</v>
-      </c>
-      <c r="I44" t="b">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>(Timestamp('2151-05-11 15:48:00'), Timestamp('2151-05-11 15:54:00'))</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>{'text': "summery 7-7pm\nneuro; a/ox3 no neuro defecit\n\ncv; sr, into af this am converted with a total of 10mg lopressor. inc covered with dsd no bleeding.vs-s pacer wires intact, pacer off\n\nresp. sats &gt;97% on 2l lungs clear\n\ngu; urine output wnl fc dc'd at 1500\n\ngi; had 2 br bm's today. appetite fair\n\nsocial; daughter here most of day-supportive\n", 'event': ['Excretion', 'Excretion', 'Eating', 'Family'], 'event_id': ['e1', 'e2', 'e3', 'e4'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Excretion",\n      "text_quote": "gu; urine output wnl fc dc\'d at 1500",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "urine",\n          "frequency": "wnl",\n          "quality": ""\n        }\n      }\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Excretion",\n      "text_quote": "gi; had 2 br bm\'s today.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "stool",\n          "frequency": "2x",\n          "quality": "br"\n        }\n      }\n    },\n    {\n      "event_id": "e3",\n      "event_type": "Eating",\n      "text_quote": "gi; appetite fair",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {\n          "food": "",\n          "amount": "",\n          "method": ""\n        }\n      }\n    },\n    {\n      "event_id": "e4",\n      "event_type": "Family",\n      "text_quote": "social; daughter here most of day-supportive",\n      "actor": "daughter",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {\n          "interaction": "visit",\n          "relation": "daughter"\n        }\n      }\n    }\n  ],\n  "order": [\n    {\n      "event_id_1": "e1",\n      "relation": "unknown",\n      "event_id_2": "e2"\n    },\n    {\n      "event_id_1": "e2",\n      "relation": "unknown",\n      "event_id_2": "e3"\n    },\n    {\n      "event_id_1": "e3",\n      "relation": "unknown",\n      "event_id_2": "e4"\n    }\n  ]\n}', 'attributes': [{'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'wnl', 'quality': ''}}}, {'Excretion': {'Excretion': {'type': 'stool', 'frequency': '2x', 'quality': 'br'}}}, {'Eating': {'Eating': {'food': '', 'amount': '', 'method': ''}}}, {'Family': {'Family': {'interaction': 'visit', 'relation': 'daughter'}}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'unknown', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'unknown', 'event_id_2': 'e3'}, {'event_id_1': 'e3', 'relation': 'unknown', 'event_id_2': 'e4'}]], 'text_quotes': ["gu; urine output wnl fc dc'd at 1500", "gi; had 2 br bm's today.", 'gi; appetite fair', 'social; daughter here most of day-supportive'], 'event_time': ['Unknown', 'Unknown', 'Unknown', 'Unknown'], 'negation': [False, False, False, False], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2151-05-11 15:48:00 and 2151-05-11 15:54:00):\n           summery 7-7pm\nneuro; a/ox3 no neuro defecit\n\ncv; sr, into af this am converted with a total of 10mg lopressor. inc covered with dsd no bleeding.vs-s pacer wires intact, pacer off\n\nresp. sats &gt;97% on 2l lungs clear\n\ngu; urine output wnl fc dc\'d at 1500\n\ngi; had 2 br bm\'s today. appetite fair\n\nsocial; daughter here most of day-supportive\n\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient', 'patient', 'daughter'], 'event_detection_time': 16.587149508064613}</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="b">
+        <v>0</v>
+      </c>
+      <c r="K44" t="b">
+        <v>0</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
@@ -3712,25 +4142,35 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
           <t>['Excretion', 'Excretion', 'Eating', 'Family']</t>
         </is>
       </c>
-      <c r="N44" t="inlineStr">
+      <c r="P44" t="inlineStr">
         <is>
           <t>[{'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'wnl', 'quality': ''}}}, {'Excretion': {'Excretion': {'type': 'stool', 'frequency': '2x', 'quality': 'br'}}}, {'Eating': {'Eating': {'food': '', 'amount': '', 'method': ''}}}, {'Family': {'Family': {'interaction': 'visit', 'relation': 'daughter'}}}]</t>
         </is>
       </c>
-      <c r="O44" t="inlineStr">
+      <c r="Q44" t="inlineStr">
         <is>
           <t>["gu; urine output wnl fc dc'd at 1500", "gi; had 2 br bm's today.", 'gi; appetite fair', 'social; daughter here most of day-supportive']</t>
         </is>
       </c>
-      <c r="P44" t="inlineStr">
+      <c r="R44" t="inlineStr">
         <is>
           <t>["e1=Excretion|1:gu; urine output wnl fc dc'd at 1500", "e2=Excretion|1:gi; had 2 br bm's today.", 'e3=Eating|0:gi; appetite fair', 'e4=Family|1:social; daughter here most of day-supportive']</t>
         </is>
       </c>
-      <c r="Q44" t="inlineStr">
+      <c r="S44" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'unknown', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'unknown', 'event_id_2': 'e3'}, {'event_id_1': 'e3', 'relation': 'unknown', 'event_id_2': 'e4'}]]</t>
         </is>
@@ -3758,25 +4198,25 @@
       <c r="E45" t="n">
         <v>0</v>
       </c>
-      <c r="F45" t="n">
-        <v>0</v>
-      </c>
-      <c r="G45" t="inlineStr"/>
-      <c r="H45" t="b">
-        <v>0</v>
-      </c>
-      <c r="I45" t="b">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>(Timestamp('2183-03-12 18:22:00'), Timestamp('2183-03-12 18:27:00'))</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>{'text': 'respiratory note:\n77yr f status post cabg x3. hx cri,niddm,cva. stays intubated and on mech vent post op. current vent settings simv 600x10,fio2 35%,[**3-24**]. abg shows resp alkalosis. plan to wean off vent once reversed on sedation.\n', 'event': ['Unknown', 'Unknown', 'Unknown'], 'event_id': ['e1', 'e2', 'e3'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [\n        {\n            "attribute_name": "age",\n            "attribute_value": "77"\n        },\n        {\n            "attribute_name": "gender",\n            "attribute_value": "female"\n        },\n        {\n            "attribute_name": "medical_history",\n            "attribute_value": "cabg x3, cri, niddm, cva"\n        }\n    ],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Unknown",\n            "text_quote": "stays intubated and on mech vent post op",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "post op",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Unknown",\n            "text_quote": "abg shows resp alkalosis",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        },\n        {\n            "event_id": "e3",\n            "event_type": "Unknown",\n            "text_quote": "plan to wean off vent once reversed on sedation",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "once reversed on sedation",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        }\n    ],\n    "order": [\n        {\n            "event_id_1": "e1",\n            "relation": "before",\n            "event_id_2": "e2"\n        },\n        {\n            "event_id_1": "e2",\n            "relation": "before",\n            "event_id_2": "e3"\n        }\n    ]\n}', 'attributes': [{'Unknown': {}}, {'Unknown': {}}, {'Unknown': {}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e3'}]], 'text_quotes': ['stays intubated and on mech vent post op', 'abg shows resp alkalosis', 'plan to wean off vent once reversed on sedation'], 'event_time': ['post op', 'Unknown', 'once reversed on sedation'], 'negation': [False, False, False], 'caused_by': ['Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2183-03-12 18:22:00 and 2183-03-12 18:27:00):\n           respiratory note:\n77yr f status post cabg x3. hx cri,niddm,cva. stays intubated and on mech vent post op. current vent settings simv 600x10,fio2 35%,[**3-24**]. abg shows resp alkalosis. plan to wean off vent once reversed on sedation.\n\n        ', 'case_attributes': [[{'attribute_name': 'age', 'attribute_value': '77'}, {'attribute_name': 'gender', 'attribute_value': 'female'}, {'attribute_name': 'medical_history', 'attribute_value': 'cabg x3, cri, niddm, cva'}]], 'actor': ['patient', 'patient', 'patient'], 'event_detection_time': 12.240857376949862}</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="b">
+        <v>0</v>
+      </c>
+      <c r="K45" t="b">
+        <v>0</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
@@ -3785,25 +4225,35 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
           <t>['Unknown', 'Unknown', 'Unknown']</t>
         </is>
       </c>
-      <c r="N45" t="inlineStr">
+      <c r="P45" t="inlineStr">
         <is>
           <t>[{'Unknown': {}}, {'Unknown': {}}, {'Unknown': {}}]</t>
         </is>
       </c>
-      <c r="O45" t="inlineStr">
+      <c r="Q45" t="inlineStr">
         <is>
           <t>['stays intubated and on mech vent post op', 'abg shows resp alkalosis', 'plan to wean off vent once reversed on sedation']</t>
         </is>
       </c>
-      <c r="P45" t="inlineStr">
+      <c r="R45" t="inlineStr">
         <is>
           <t>['e1=Unknown|1:stays intubated and on mech vent post op', 'e2=Unknown|1:abg shows resp alkalosis', 'e3=Unknown|1:plan to wean off vent once reversed on sedation']</t>
         </is>
       </c>
-      <c r="Q45" t="inlineStr">
+      <c r="S45" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e3'}]]</t>
         </is>
@@ -3841,25 +4291,25 @@
       <c r="E46" t="n">
         <v>0</v>
       </c>
-      <c r="F46" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" t="inlineStr"/>
-      <c r="H46" t="b">
-        <v>0</v>
-      </c>
-      <c r="I46" t="b">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>(Timestamp('2183-03-12 19:27:00'), Timestamp('2183-03-12 19:47:00'))</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">{'text': "nursing admission note\n\n    patient arrived from or at 1500- intubated and sedated-placed on vent by resp. initially apaced at 92- on neo, prop 30 and epi .03 and insulin drops at 1u/hr. ct to sxn with 20cc output.\n\nneuro: sedated with propofol-not reversed.\ncv: now 70's nsr with transient decrease hr to 60's. epicardial pacer set as aai -hr 60, [**last name (un) 11**].5 and ma 18. patient very labile with ci very low and initial hct 40.8 requiring lg amts volume- 3l lr, 1000cc hespan nd after repeat hct 27- rec 1u prbc's. on and off neo and ntg with lg bp swings. pa pressures initially low- now 30's/14-18. weakly palp pedal pulses -feet cool. fick ci: 1.89-1.77. svo2 65-59.\nresp: ventilated on imv 12, o2 35%, with adequate abg's. oxygen saturation&gt; 98%. l pleural ct and 2 mt's to sxn- no leak- output 40cc/hr. lg sang dng @ l mt-dsd changed and stitch tightened by np.\ngu: foley with lg diuresis of very lt urine. uo &gt; 300/hr.\ngi: abd soft with faint bs. ogt placed and draining sm amts tan liquid. carafate given.\nendo: out of or on insulin drops at 1u/hr- increased to 2u/hr for gl 134. per protocol.\nincisions: sternum with dsd -d/i, ct/mt dsd changed for lg sang dng. l leg with ace wrap intact with jp drain at knee.\ncomfort: med with 2-4 mso4 iv x2.\na: labile\np: titrate gtts to keep map 60-90, wean to extubate when ci&gt; 2. insulin drops per protocol.\n\n", 'event': [], 'event_id': [], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Excretion",\n            "text_quote": "gu: foley with lg diuresis of very lt urine.",\n            "actor": "patient",\n            "object": "urine",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "urine",\n                    "frequency": "&gt; 300/hr",\n                    "quality": "very light"\n                }\n            }\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Eating",\n            "text_quote": "gi: ogt placed and draining sm amts tan liquid.",\n            "actor": "patient",\n            "object": "tan liquid",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {\n                    "food": "tan liquid",\n                    "amount": "small amounts",\n                    "method": "oral"\n                }\n            }\n        },\n        {\n            "event_id": "e3",\n            "event_type": "Pain",\n            "text_quote": "comfort: med with 2-4 mso4 iv x2.",\n            "actor": "patient",\n            "object": "pain",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "Unknown",\n                    "location": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e4",\n            "event_type": "Sleep",\n            "text_quote": "sedated with propofol-not reversed.",\n            "actor": "patient",\n            "object": "sleep",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e5",\n            "event_type": "Excretion",\n            "text_quote": "l pleural ct and 2 mt\'s to sxn- no leak- output 40cc/hr.",\n            "actor": "patient",\n            "object": "output",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "pleural fluid",\n                    "frequency": "40cc/hr",\n                    "quality": "no leak"\n                }\n            }\n        },\n        {\n            "event_id": "e6",\n            "event_type": "Eating",\n            "text_quote": "carafate given.",\n            "actor": "patient",\n            "object": "carafate",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {\n                    "food": "carafate",\n                    "amount": "Unknown",\n                    "method": "oral"\n                }\n            }\n        },\n        {\n            "event_id": "e7",\n            "event_type": "Excretion",\n            "text_quote": "ct to sxn with 20cc output.",\n            "actor": "patient",\n            "object": "output",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "chest tube fluid",\n                    "frequency": "20cc",\n                    "quality": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e8",\n            "event_type": "Pain",\n            "text_quote": "a: labile",\n            "actor": "patient",\n            "object": "pain",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "labile",\n                    "location": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e9",\n            "event_type": "Excretion",\n            "text_quote": "lg sang dng @ l mt-dsd changed and stitch tightened by np.",\n            "actor": "patient",\n            "object": "sang dng",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "sang dng",\n                    "frequency": "large amount",\n                    "quality": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e10",\n            "event_type": "Eating",\n            "text_quote": "endo: out of or on insulin drops at 1u/hr- increased to 2u/hr for gl 134.",\n            "actor": "patient",\n            "object": "insulin",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {\n                    "food": "insulin",\n                    "amount": "2u/hr",\n                    "method": "intravenous"\n                }\n            }\n        },\n        {\n            "event_id": "e11",\n            "event_type": "Pain",\n            "text_quote": "p: titrate gtts to keep map 60-90, wean to extubate when ci&gt; 2.",\n            "actor": "patient",\n            "object": "pain",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "Unknown",\n                    "location": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e12",\n            "event_type": "Excretion",\n            "text_quote": "lg diuresis of very lt urine.",\n            "actor": "patient",\n            "object": "urine",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "urine",\n                    "frequency": "&gt; 300/hr",\n                    "quality": "very light"\n                }\n            }\n        },\n        {\n            "event_id": "e13",\n            "event_type": "Eating",\n            "text_quote": "ogt placed and draining sm amts tan liquid.",\n            "actor": "patient",\n            "object": "tan liquid",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {\n                    "food": "tan liquid",\n                    "amount": "small amounts",\n                    "method": "oral"\n                }\n            }\n        },\n        {\n            "event_id": "e14",\n            "event_type": "Pain",\n            "text_quote": "med with 2-4 mso4 iv x2.",\n            "actor": "patient",\n            "object": "pain",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "Unknown",\n                    "location": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e15",\n            "event_type": "Sleep",\n            "text_quote": "sedated with propofol-not reversed.",\n            "actor": "patient",\n            "object": "sleep",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e16",\n            "event_type": "Excretion",\n            "text_quote": "l pleural ct and 2 mt\'s to sxn- no leak- output 40cc/hr.",\n            "actor": "patient",\n            "object": "output",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "pleural fluid",\n                    "frequency": "40cc/hr",\n                    "quality": "no leak"\n                }\n            }\n        },\n        {\n            "event_id": "e17",\n            "event_type": "Eating",\n            "text_quote": "carafate given.",\n            "actor": "patient",\n            "object": "carafate",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {\n                    "food": "carafate",\n                    "amount": "Unknown",\n                    "method": "oral"\n                }\n            }\n        },\n        {\n            "event_id": "e18",\n            "event_type": "Excretion",\n            "text_quote": "ct to sxn with 20cc output.",\n            "actor": "patient",\n            "object": "output",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "chest tube fluid",\n                    "frequency": "20cc",\n                    "quality": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e19",\n            "event_type": "Pain",\n            "text_quote": "a: labile",\n            "actor": "patient",\n            "object": "pain",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "labile",\n                    "location": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e20",\n            "event_type": "Excretion",\n            "text_quote": "lg sang dng @ l mt-dsd changed and stitch tightened by np.",\n            "actor": "patient",\n            "object": "sang dng",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "sang dng",\n                    "frequency": "large amount",\n                    "quality": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e21",\n            "event_type": "Eating",\n            "text_quote": "endo: out of or on insulin drops at 1u/hr- increased to 2u/hr for gl 134.",\n            "actor": "patient",\n            "object": "insulin",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {\n                    "food": "insulin",\n                    "amount": "2u/hr",\n                    "method": "intravenous"\n                }\n            }\n        },\n        {\n            "event_id": "e22",\n            "event_type": "Pain",\n            "text_quote": "p: titrate gtts to keep map 60-90, wean to extubate when ci&gt; 2.",\n            "actor": "patient",\n            "object": "pain",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "Unknown",\n                    "location": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e23",\n            "event_type": "Excretion",\n            "text_quote": "lg diuresis of very lt urine.",\n            "actor": "patient",\n            "object": "urine",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "urine",\n                    "frequency": "&gt; 300/hr",\n                    "quality": "very light"\n                }\n            }\n        },\n        {\n            "event_id": "e24",\n            "event_type": "Eating",\n            "text_quote": "ogt placed and draining sm amts tan liquid.",\n            "actor": "patient",\n            "object": "tan liquid",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {\n                    "food": "tan liquid",\n                    "amount": "small amounts",\n                    "method": "oral"\n                }\n            }\n        },\n        {\n            "event_id": "e25",\n            "event_type": "Pain",\n            "text_quote": "med with 2-4 mso4 iv x2.",\n            "actor": "patient",\n            "object": "pain",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "Unknown",\n                    "location": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e26",\n            "event_type": "Sleep",\n            "text_quote": "sedated with propofol-not reversed.",\n            "actor": "patient",\n            "object": "sleep",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e27",\n            "event_type": "Excretion",\n            "text_quote": "l pleural ct and 2 mt\'s to sxn- no leak- output 40cc/hr.",\n            "actor": "patient",\n            "object": "output",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "pleural fluid",\n                    "frequency": "40cc/hr",\n                    "quality": "no leak"\n                }\n            }\n        },\n        {\n            "event_id": "e28",\n            "event_type": "Eating",\n            "text_quote": "carafate given.",\n            "actor": "patient",\n            "object": "carafate",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {\n                    "food": "carafate",\n                    "amount": "Unknown",\n                    "method": "oral"\n                }\n            }\n        },\n        {\n            "event_id": "e29",\n            "event_type": "Excretion",\n            "text_quote": "ct to sxn with 20cc output.",\n            "actor": "patient",\n            "object": "output",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "chest tube fluid",\n                    "frequency": "20cc",\n                    "quality": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e30",\n            "event_type": "Pain",\n            "text_quote": "a: labile",\n            "actor": "patient",\n            "object": "pain",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "labile",\n                    "location": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e31",\n            "event_type": "Excretion",\n            "text_quote": "lg sang dng @ l mt-dsd changed and stitch tightened by np.",\n            "actor": "patient",\n            "object": "sang dng",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "sang dng",\n                    "frequency": "large amount",\n                    "quality": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e32",\n            "event_type": "Eating",\n            "text_quote": "endo: out of or on insulin drops at 1u/hr- increased to 2u/hr for gl 134.",\n            "actor": "patient",\n            "object": "insulin",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {\n                    "food": "insulin",\n                    "amount": "2u/hr",\n                    "method": "intravenous"\n                }\n            }\n        },\n        {\n            "event_id": "e33",\n            "event_type": "Pain",\n            "text_quote": "p: titrate gtts to keep map 60-90, wean to extubate when ci&gt; 2.",\n            "actor": "patient",\n            "object": "pain",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "Unknown",\n                    "location": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e34",\n            "event_type": "Excretion",\n            "text_quote": "lg diuresis of very lt urine.",\n            "actor": "patient",\n            "object": "urine",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "urine",\n                    "frequency": "&gt; 300/hr",\n                    "quality": "very light"\n                }\n            }\n        },\n        {\n            "event_id": "e35",\n            "event_type": "Eating",\n            "text_quote": "ogt placed and draining sm amts tan liquid.",\n            "actor": "patient",\n            "object": "tan liquid",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {\n                    "food": "tan liquid",\n                    "amount": "small amounts",\n                    "method": "oral"\n                }\n            }\n        },\n        {\n            "event_id": "e36",\n            "event_type": "Pain",\n            "text_quote": "med with 2-4 mso4 iv x2.",\n            "actor": "patient",\n            "object": "pain",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "Unknown",\n                    "location": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e37",\n            "event_type": "Sleep",\n            "text_quote": "sedated with propofol-not reversed.",\n            "actor": "patient",\n            "object": "sleep",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e38",\n            "event_type": "Excretion",\n            "text_quote": "l pleural ct and 2 mt\'s to sxn- no leak- output 40cc/hr.",\n            "actor": "patient",\n            "object": "output",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "pleural fluid",\n                    "frequency": "40cc/hr",\n                    "quality": "no leak"\n                }\n            }\n        },\n        {\n            "event_id": "e39",\n            "event_type": "Eating",\n            "text_quote": "carafate given.",\n            "actor": "patient",\n            "object": "carafate",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {\n                    "food": "carafate",\n                    "amount": "Unknown",\n                    "method": "oral"\n                }\n            }\n        },\n        {\n            "event_id": "e40",\n            "event_type": "Excretion",\n            "text_quote": "ct to sxn with 20cc output.",\n            "actor": "patient",\n            "object": "output",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "chest tube fluid",\n                    "frequency": "20cc",\n                    "quality": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e41",\n            "event_type": "Pain",\n            "text_quote": "a: labile",\n            "actor": "patient",\n            "object": "pain",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "labile",\n                    "location": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e42",\n            "event_type": "Excretion",\n            "text_quote": "lg sang dng @ l mt-dsd changed and stitch tightened by np.",\n            "actor": "patient",\n            "object": "sang dng",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "sang dng",\n                    "frequency": "large amount",\n                    "quality": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e43",\n            "event_type": "Eating",\n            "text_quote": "endo: out of or on insulin drops at 1u/hr- increased to 2u/hr for gl 134.",\n            "actor": "patient",\n            "object": "insulin",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {\n                    "food": "insulin",\n                    "amount": "2u/hr",\n                    "method": "intravenous"\n                }\n            }\n        },\n        {\n            "event_id": "e44",\n            "event_type": "Pain",\n            "text_quote": "p: titrate gtts to keep map 60-90, wean to extubate when ci&gt; 2.",\n            "actor": "patient",\n            "object": "pain",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "Unknown",\n                    "location": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e45",\n            "event_type": "Excretion",\n            "text_quote": "lg diuresis of very lt urine.",\n            "actor": "patient",\n            "object": "urine",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "urine",\n                    "frequency": "&gt; 300/hr",\n                    "quality": "very light"\n                }\n            }\n        },\n        {\n            "event_id": "e46",\n            "event_type": "Eating",\n            "text_quote": "ogt placed and draining sm amts tan liquid.",\n            "actor": "patient",\n            "object": "tan liquid",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {\n                    "food": "tan liquid",\n                    "amount": "small amounts",\n                    "method": "oral"\n                }\n            }\n        },\n        {\n            "event_id": "e47",\n            "event_type": "Pain",\n            "text_quote": "med with 2-4 mso4 iv x2.",\n            "actor": "patient",\n            "object": "pain",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "Unknown",\n                    "location": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e48",\n            "event_type": "Sleep",\n            "text_quote": "sedated with propofol-not reversed.",\n            "actor": "patient",\n            "object": "sleep",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e49",\n            "event_type": "Excretion",\n            "text_quote": "l pleural ct and 2 mt\'s to sxn- no leak- output 40cc/hr.",\n            "actor": "patient",\n            "object": "output",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "pleural fluid",\n                    "frequency": "40cc/hr",\n                    "quality": "no leak"\n                }\n            }\n        },\n        {\n            "event_id": "e50",\n            "event_type": "Eating",\n            "text_quote": "carafate given.",\n            "actor": "patient",\n            "object": "carafate",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {\n                    "food": "carafate",\n                    "amount": "Unknown",\n                    "method": "oral"\n                }\n            }\n        },\n        {\n            "event_id": "e51",\n            "event_type": "Excretion",\n            "text_quote": "ct to sxn with 20cc output.",\n            "actor": "patient",\n            "object": "output",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "chest tube fluid",\n                    "frequency": "20cc",\n                    "quality": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e52",\n            "event_type": "Pain",\n            "text_quote": "a: labile",\n            "actor": "patient",\n            "object": "pain",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "labile",\n                    "location": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e53",\n            "event_type": "Excretion",\n            "text_quote": "lg sang dng @ l mt-dsd changed and stitch tightened by np.",\n            "actor": "patient",\n            "object": "sang dng",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "sang dng",\n                    "frequency": "large amount",\n                    "quality": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e54",\n            "event_type": "Eating",\n            "text_quote": "endo: out of or on insulin drops at 1u/hr- increased to 2u/hr for gl 134.",\n            "actor": "patient",\n            "object": "insulin",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {\n                    "food": "insulin",\n                    "amount": "2u/hr",\n                    "method": "intravenous"\n                }\n            }\n        },\n        {\n            "event_id": "e55",\n            "event_type": "Pain",\n            "text_quote": "p: titrate gtts to keep map 60-90, wean to extubate when ci&gt; 2.",\n            "actor": "patient",\n            "object": "pain",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "Unknown",\n                    "location": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e56",\n            "event_type": "Excretion",\n            "text_quote": "lg diuresis of very lt urine.",\n            "actor": "patient",\n            "object": "urine",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "urine",\n                    "frequency": "&gt; 300/hr",\n                    "quality": "very light"\n                }\n            }\n        },\n        {\n            "event_id": "e57",\n            "event_type": "Eating",\n            "text_quote": "ogt placed and draining sm amts tan liquid.",\n            "actor": "patient",\n            "object": "tan liquid",\n   </t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="b">
+        <v>0</v>
+      </c>
+      <c r="K46" t="b">
+        <v>0</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
@@ -3887,6 +4337,16 @@
         </is>
       </c>
       <c r="Q46" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr">
         <is>
           <t>['[]']</t>
         </is>
@@ -3913,25 +4373,25 @@
       <c r="E47" t="n">
         <v>0</v>
       </c>
-      <c r="F47" t="n">
-        <v>0</v>
-      </c>
-      <c r="G47" t="inlineStr"/>
-      <c r="H47" t="b">
-        <v>0</v>
-      </c>
-      <c r="I47" t="b">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>(Timestamp('2183-03-13 05:46:00'), Timestamp('2183-03-13 05:49:00'))</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>{'text': 'patientnow on 5 cpap,8 ips, 35%, abg-7.38,42,86,26,0,96%, rsbi 131.9 on 5 cpap, vt.250-480, rr.25-31. possibility of extubating this a.m.\n', 'event': ['Unknown', 'Unknown'], 'event_id': ['e1', 'e2'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Unknown",\n            "text_quote": "patient now on 5 cpap,8 ips, 35%, abg-7.38,42,86,26,0,96%, rsbi 131.9 on 5 cpap, vt.250-480, rr.25-31.",\n            "actor": "Unknown",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Unknown",\n            "text_quote": "possibility of extubating this a.m.",\n            "actor": "Unknown",\n            "object": "patient",\n            "negation": false,\n            "time": "a.m.",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        }\n    ],\n    "order": [\n        {\n            "event_id_1": "e1",\n            "relation": "before",\n            "event_id_2": "e2"\n        }\n    ]\n}', 'attributes': [{'Unknown': {}}, {'Unknown': {}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}]], 'text_quotes': ['patient now on 5 cpap,8 ips, 35%, abg-7.38,42,86,26,0,96%, rsbi 131.9 on 5 cpap, vt.250-480, rr.25-31.', 'possibility of extubating this a.m.'], 'event_time': ['Unknown', 'a.m.'], 'negation': [False, False], 'caused_by': ['Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2183-03-13 05:46:00 and 2183-03-13 05:49:00):\n           patientnow on 5 cpap,8 ips, 35%, abg-7.38,42,86,26,0,96%, rsbi 131.9 on 5 cpap, vt.250-480, rr.25-31. possibility of extubating this a.m.\n\n        ', 'case_attributes': [[]], 'actor': ['Unknown', 'Unknown'], 'event_detection_time': 7.885449070949107}</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="b">
+        <v>0</v>
+      </c>
+      <c r="K47" t="b">
+        <v>0</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
@@ -3940,25 +4400,35 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
           <t>['Unknown', 'Unknown']</t>
         </is>
       </c>
-      <c r="N47" t="inlineStr">
+      <c r="P47" t="inlineStr">
         <is>
           <t>[{'Unknown': {}}, {'Unknown': {}}]</t>
         </is>
       </c>
-      <c r="O47" t="inlineStr">
+      <c r="Q47" t="inlineStr">
         <is>
           <t>['patient now on 5 cpap,8 ips, 35%, abg-7.38,42,86,26,0,96%, rsbi 131.9 on 5 cpap, vt.250-480, rr.25-31.', 'possibility of extubating this a.m.']</t>
         </is>
       </c>
-      <c r="P47" t="inlineStr">
+      <c r="R47" t="inlineStr">
         <is>
           <t>['e1=Unknown|0:patient now on 5 cpap,8 ips, 35%, abg-7.38,42,86,26,0,96%, rsbi 131.9 on 5 cpap, vt.250-480, rr.25-31.', 'e2=Unknown|1:possibility of extubating this a.m.']</t>
         </is>
       </c>
-      <c r="Q47" t="inlineStr">
+      <c r="S47" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}]]</t>
         </is>
@@ -3985,25 +4455,25 @@
       <c r="E48" t="n">
         <v>0</v>
       </c>
-      <c r="F48" t="n">
-        <v>0</v>
-      </c>
-      <c r="G48" t="inlineStr"/>
-      <c r="H48" t="b">
-        <v>0</v>
-      </c>
-      <c r="I48" t="b">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>(Timestamp('2183-03-13 06:51:00'), Timestamp('2183-03-13 06:52:00'))</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>{'text': 'patientextubated successfully at 0700. nasal [**last name (un) **]. on at 4l. sat.100%\n', 'event': ['Unknown', 'Unknown'], 'event_id': ['e1', 'e2'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Unknown",\n            "text_quote": "patient extubated successfully at 0700.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "0700",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Unknown",\n            "text_quote": "nasal [**last name (un) **]. on at 4l. sat.100%",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        }\n    ],\n    "order": [\n        {\n            "event_id_1": "e1",\n            "relation": "before",\n            "event_id_2": "e2"\n        }\n    ]\n}', 'attributes': [{'Unknown': {}}, {'Unknown': {}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}]], 'text_quotes': ['patient extubated successfully at 0700.', 'nasal [**last name (un) **]. on at 4l. sat.100%'], 'event_time': ['0700', 'Unknown'], 'negation': [False, False], 'caused_by': ['Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2183-03-13 06:51:00 and 2183-03-13 06:52:00):\n           patientextubated successfully at 0700. nasal [**last name (un) **]. on at 4l. sat.100%\n\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient'], 'event_detection_time': 6.851085976930335}</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="b">
+        <v>0</v>
+      </c>
+      <c r="K48" t="b">
+        <v>0</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
@@ -4012,25 +4482,35 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
           <t>['Unknown', 'Unknown']</t>
         </is>
       </c>
-      <c r="N48" t="inlineStr">
+      <c r="P48" t="inlineStr">
         <is>
           <t>[{'Unknown': {}}, {'Unknown': {}}]</t>
         </is>
       </c>
-      <c r="O48" t="inlineStr">
+      <c r="Q48" t="inlineStr">
         <is>
           <t>['patient extubated successfully at 0700.', 'nasal [**last name (un) **]. on at 4l. sat.100%']</t>
         </is>
       </c>
-      <c r="P48" t="inlineStr">
+      <c r="R48" t="inlineStr">
         <is>
           <t>['e1=Unknown|0:patient extubated successfully at 0700.', 'e2=Unknown|1:nasal [**last name (un) **]. on at 4l. sat.100%']</t>
         </is>
       </c>
-      <c r="Q48" t="inlineStr">
+      <c r="S48" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}]]</t>
         </is>
@@ -4058,25 +4538,25 @@
       <c r="E49" t="n">
         <v>0</v>
       </c>
-      <c r="F49" t="n">
-        <v>0</v>
-      </c>
-      <c r="G49" t="inlineStr"/>
-      <c r="H49" t="b">
-        <v>0</v>
-      </c>
-      <c r="I49" t="b">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>(Timestamp('2171-01-05 17:56:00'), Timestamp('2171-01-05 17:58:00'))</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>{'text': 'resp care\npatient noted to have frequent obstructive hypopneas resulting in decreased sats. large neck,obesity, pulmonary consulted and placed on full face bipap. titrating per oxygen saturation and witnessed obstructions. refer to flow sheet for titrations.\n', 'event': ['Unknown', 'Unknown', 'Unknown'], 'event_id': ['e1', 'e2', 'e3'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Unknown",\n      "text_quote": "patient noted to have frequent obstructive hypopneas resulting in decreased sats.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {}\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Unknown",\n      "text_quote": "large neck,obesity, pulmonary consulted and placed on full face bipap.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {}\n    },\n    {\n      "event_id": "e3",\n      "event_type": "Unknown",\n      "text_quote": "titrating per oxygen saturation and witnessed obstructions.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {}\n    }\n  ],\n  "order": [\n    {\n      "event_id_1": "e1",\n      "relation": "before",\n      "event_id_2": "e2"\n    },\n    {\n      "event_id_1": "e2",\n      "relation": "before",\n      "event_id_2": "e3"\n    }\n  ]\n}', 'attributes': [{'Unknown': {}}, {'Unknown': {}}, {'Unknown': {}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e3'}]], 'text_quotes': ['patient noted to have frequent obstructive hypopneas resulting in decreased sats.', 'large neck,obesity, pulmonary consulted and placed on full face bipap.', 'titrating per oxygen saturation and witnessed obstructions.'], 'event_time': ['Unknown', 'Unknown', 'Unknown'], 'negation': [False, False, False], 'caused_by': ['Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2171-01-05 17:56:00 and 2171-01-05 17:58:00):\n           resp care\npatient noted to have frequent obstructive hypopneas resulting in decreased sats. large neck,obesity, pulmonary consulted and placed on full face bipap. titrating per oxygen saturation and witnessed obstructions. refer to flow sheet for titrations.\n\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient', 'patient'], 'event_detection_time': 10.22760676103644}</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="b">
+        <v>0</v>
+      </c>
+      <c r="K49" t="b">
+        <v>0</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
@@ -4085,25 +4565,35 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
           <t>['Unknown', 'Unknown', 'Unknown']</t>
         </is>
       </c>
-      <c r="N49" t="inlineStr">
+      <c r="P49" t="inlineStr">
         <is>
           <t>[{'Unknown': {}}, {'Unknown': {}}, {'Unknown': {}}]</t>
         </is>
       </c>
-      <c r="O49" t="inlineStr">
+      <c r="Q49" t="inlineStr">
         <is>
           <t>['patient noted to have frequent obstructive hypopneas resulting in decreased sats.', 'large neck,obesity, pulmonary consulted and placed on full face bipap.', 'titrating per oxygen saturation and witnessed obstructions.']</t>
         </is>
       </c>
-      <c r="P49" t="inlineStr">
+      <c r="R49" t="inlineStr">
         <is>
           <t>['e1=Unknown|1:patient noted to have frequent obstructive hypopneas resulting in decreased sats.', 'e2=Unknown|1:large neck,obesity, pulmonary consulted and placed on full face bipap.', 'e3=Unknown|1:titrating per oxygen saturation and witnessed obstructions.']</t>
         </is>
       </c>
-      <c r="Q49" t="inlineStr">
+      <c r="S49" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e3'}]]</t>
         </is>
@@ -4131,25 +4621,25 @@
       <c r="E50" t="n">
         <v>0</v>
       </c>
-      <c r="F50" t="n">
-        <v>0</v>
-      </c>
-      <c r="G50" t="inlineStr"/>
-      <c r="H50" t="b">
-        <v>0</v>
-      </c>
-      <c r="I50" t="b">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>(Timestamp('2171-01-06 03:56:00'), Timestamp('2171-01-06 03:59:00'))</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>{'text': 'resp care note:\n\npatient placed on bipap via full face mask as per carevue. lung sounds clear. patient had desat shortly after bipap administered=&gt;increased o2 bleed with good result; oxygen saturation &gt;90%. cont bipap @ noc.\n', 'event': ['Unknown', 'Unknown', 'Pain', 'Unknown', 'Unknown'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Unknown",\n      "text_quote": "patient placed on bipap via full face mask as per carevue.",\n      "actor": "others",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {}\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Unknown",\n      "text_quote": "lung sounds clear.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {}\n    },\n    {\n      "event_id": "e3",\n      "event_type": "Pain",\n      "text_quote": "patient had desat shortly after bipap administered=&gt;increased o2 bleed with good result;",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "Unknown",\n          "duration": "shortly after bipap administered"\n        }\n      }\n    },\n    {\n      "event_id": "e4",\n      "event_type": "Unknown",\n      "text_quote": "oxygen saturation &gt;90%.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {}\n    },\n    {\n      "event_id": "e5",\n      "event_type": "Unknown",\n      "text_quote": "cont bipap @ noc.",\n      "actor": "others",\n      "object": "patient",\n      "negation": false,\n      "time": "noc",\n      "caused_by": "Unknown",\n      "event_attributes": {}\n    }\n  ],\n  "order": [\n    {\n      "event_id_1": "e1",\n      "relation": "before",\n      "event_id_2": "e2"\n    },\n    {\n      "event_id_1": "e2",\n      "relation": "before",\n      "event_id_2": "e3"\n    },\n    {\n      "event_id_1": "e3",\n      "relation": "before",\n      "event_id_2": "e4"\n    },\n    {\n      "event_id_1": "e4",\n      "relation": "before",\n      "event_id_2": "e5"\n    }\n  ]\n}', 'attributes': [{'Unknown': {}}, {'Unknown': {}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'shortly after bipap administered'}}}, {'Unknown': {}}, {'Unknown': {}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e3'}, {'event_id_1': 'e3', 'relation': 'before', 'event_id_2': 'e4'}, {'event_id_1': 'e4', 'relation': 'before', 'event_id_2': 'e5'}]], 'text_quotes': ['patient placed on bipap via full face mask as per carevue.', 'lung sounds clear.', 'patient had desat shortly after bipap administered=&gt;increased o2 bleed with good result;', 'oxygen saturation &gt;90%.', 'cont bipap @ noc.'], 'event_time': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'noc'], 'negation': [False, False, False, False, False], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2171-01-06 03:56:00 and 2171-01-06 03:59:00):\n           resp care note:\n\npatient placed on bipap via full face mask as per carevue. lung sounds clear. patient had desat shortly after bipap administered=&gt;increased o2 bleed with good result; oxygen saturation &gt;90%. cont bipap @ noc.\n\n        ', 'case_attributes': [[]], 'actor': ['others', 'patient', 'patient', 'patient', 'others'], 'event_detection_time': 17.59324364596978}</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="b">
+        <v>0</v>
+      </c>
+      <c r="K50" t="b">
+        <v>0</v>
       </c>
       <c r="L50" t="inlineStr">
         <is>
@@ -4158,25 +4648,35 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
           <t>['Unknown', 'Unknown', 'Pain', 'Unknown', 'Unknown']</t>
         </is>
       </c>
-      <c r="N50" t="inlineStr">
+      <c r="P50" t="inlineStr">
         <is>
           <t>[{'Unknown': {}}, {'Unknown': {}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'shortly after bipap administered'}}}, {'Unknown': {}}, {'Unknown': {}}]</t>
         </is>
       </c>
-      <c r="O50" t="inlineStr">
+      <c r="Q50" t="inlineStr">
         <is>
           <t>['patient placed on bipap via full face mask as per carevue.', 'lung sounds clear.', 'patient had desat shortly after bipap administered=&gt;increased o2 bleed with good result;', 'oxygen saturation &gt;90%.', 'cont bipap @ noc.']</t>
         </is>
       </c>
-      <c r="P50" t="inlineStr">
+      <c r="R50" t="inlineStr">
         <is>
           <t>['e1=Unknown|1:patient placed on bipap via full face mask as per carevue.', 'e2=Unknown|1:lung sounds clear.', 'e3=Pain|1:patient had desat shortly after bipap administered=&gt;increased o2 bleed with good result;', 'e4=Unknown|1:oxygen saturation &gt;90%.', 'e5=Unknown|1:cont bipap @ noc.']</t>
         </is>
       </c>
-      <c r="Q50" t="inlineStr">
+      <c r="S50" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e3'}, {'event_id_1': 'e3', 'relation': 'before', 'event_id_2': 'e4'}, {'event_id_1': 'e4', 'relation': 'before', 'event_id_2': 'e5'}]]</t>
         </is>
@@ -4204,25 +4704,25 @@
       <c r="E51" t="n">
         <v>0</v>
       </c>
-      <c r="F51" t="n">
-        <v>0</v>
-      </c>
-      <c r="G51" t="inlineStr"/>
-      <c r="H51" t="b">
-        <v>0</v>
-      </c>
-      <c r="I51" t="b">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>(Timestamp('2171-01-07 05:39:00'), Timestamp('2171-01-07 05:44:00'))</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>{'text': 'resp care note:\n\npatient placed on bipap as per carevue. lung sounds ess clear. abgs stable off bipap. cont bipap as tol otherwise n/c @ 5lpm.\n', 'event': ['Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_id': ['e1', 'e2', 'e3', 'e4'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Unknown",\n            "text_quote": "patient placed on bipap as per carevue.",\n            "actor": "others",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Unknown",\n            "text_quote": "lung sounds ess clear.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        },\n        {\n            "event_id": "e3",\n            "event_type": "Unknown",\n            "text_quote": "abgs stable off bipap.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        },\n        {\n            "event_id": "e4",\n            "event_type": "Unknown",\n            "text_quote": "cont bipap as tol otherwise n/c @ 5lpm.",\n            "actor": "others",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        }\n    ],\n    "order": [\n        {\n            "event_id_1": "e1",\n            "relation": "before",\n            "event_id_2": "e2"\n        },\n        {\n            "event_id_1": "e2",\n            "relation": "before",\n            "event_id_2": "e3"\n        },\n        {\n            "event_id_1": "e3",\n            "relation": "before",\n            "event_id_2": "e4"\n        }\n    ]\n}', 'attributes': [{'Unknown': {}}, {'Unknown': {}}, {'Unknown': {}}, {'Unknown': {}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e3'}, {'event_id_1': 'e3', 'relation': 'before', 'event_id_2': 'e4'}]], 'text_quotes': ['patient placed on bipap as per carevue.', 'lung sounds ess clear.', 'abgs stable off bipap.', 'cont bipap as tol otherwise n/c @ 5lpm.'], 'event_time': ['Unknown', 'Unknown', 'Unknown', 'Unknown'], 'negation': [False, False, False, False], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2171-01-07 05:39:00 and 2171-01-07 05:44:00):\n           resp care note:\n\npatient placed on bipap as per carevue. lung sounds ess clear. abgs stable off bipap. cont bipap as tol otherwise n/c @ 5lpm.\n\n        ', 'case_attributes': [[]], 'actor': ['others', 'patient', 'patient', 'others'], 'event_detection_time': 13.044388741953298}</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="b">
+        <v>0</v>
+      </c>
+      <c r="K51" t="b">
+        <v>0</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
@@ -4231,25 +4731,35 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
           <t>['Unknown', 'Unknown', 'Unknown', 'Unknown']</t>
         </is>
       </c>
-      <c r="N51" t="inlineStr">
+      <c r="P51" t="inlineStr">
         <is>
           <t>[{'Unknown': {}}, {'Unknown': {}}, {'Unknown': {}}, {'Unknown': {}}]</t>
         </is>
       </c>
-      <c r="O51" t="inlineStr">
+      <c r="Q51" t="inlineStr">
         <is>
           <t>['patient placed on bipap as per carevue.', 'lung sounds ess clear.', 'abgs stable off bipap.', 'cont bipap as tol otherwise n/c @ 5lpm.']</t>
         </is>
       </c>
-      <c r="P51" t="inlineStr">
+      <c r="R51" t="inlineStr">
         <is>
           <t>['e1=Unknown|1:patient placed on bipap as per carevue.', 'e2=Unknown|1:lung sounds ess clear.', 'e3=Unknown|1:abgs stable off bipap.', 'e4=Unknown|1:cont bipap as tol otherwise n/c @ 5lpm.']</t>
         </is>
       </c>
-      <c r="Q51" t="inlineStr">
+      <c r="S51" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e3'}, {'event_id_1': 'e3', 'relation': 'before', 'event_id_2': 'e4'}]]</t>
         </is>
@@ -4277,25 +4787,25 @@
       <c r="E52" t="n">
         <v>0</v>
       </c>
-      <c r="F52" t="n">
-        <v>0</v>
-      </c>
-      <c r="G52" t="inlineStr"/>
-      <c r="H52" t="b">
-        <v>0</v>
-      </c>
-      <c r="I52" t="b">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>(Timestamp('2171-01-10 05:43:00'), Timestamp('2171-01-10 05:56:00'))</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>{'text': "patient. alert and pleasant. asking questions appropriately about care and meds/bp. patient. taken off nipride when bp &lt;140. patient. c/o intermtittent back and abd. pain. lots of belching. patient. had bm x1. in &amp; out of bed as per patient. comfort. taking by mouth's well. vascular resident in to see patient @ ~3:45 a.m.. patient. told him about intermittent pain. will discuss this with team in morning. hct stable @ 35. bs treated per ssri.\nplan) continue by mouth antihypertensives; advance adl's &amp; dat as tol. make team aware of back &amp; abdominla pain.\n\n", 'event': ['Pain', 'Excretion', 'Eating', 'Family', 'Pain'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Pain",\n            "text_quote": "patient. c/o intermtittent back and abd. pain.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "intermittent",\n                    "location": "back and abdomen",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Excretion",\n            "text_quote": "patient. had bm x1.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "stool",\n                    "frequency": "x1",\n                    "quality": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e3",\n            "event_type": "Eating",\n            "text_quote": "taking by mouth\'s well.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {\n                    "food": "Unknown",\n                    "amount": "Unknown",\n                    "method": "oral"\n                }\n            }\n        },\n        {\n            "event_id": "e4",\n            "event_type": "Family",\n            "text_quote": "vascular resident in to see patient @ ~3:45 a.m..",\n            "actor": "vascular resident",\n            "object": "patient",\n            "negation": false,\n            "time": "~3:45 a.m.",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {\n                    "interaction": "visit",\n                    "relation": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e5",\n            "event_type": "Pain",\n            "text_quote": "patient. told him about intermittent pain.",\n            "actor": "patient",\n            "object": "vascular resident",\n            "negation": false,\n            "time": "~3:45 a.m.",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "intermittent",\n                    "location": "back and abdomen",\n                    "duration": "Unknown"\n                }\n            }\n        }\n    ],\n    "order": [\n        {\n            "event_id_1": "e4",\n            "relation": "before",\n            "event_id_2": "e5"\n        },\n        {\n            "event_id_1": "e1",\n            "relation": "unknown",\n            "event_id_2": "e2"\n        },\n        {\n            "event_id_1": "e1",\n            "relation": "unknown",\n            "event_id_2": "e3"\n        }\n    ]\n}', 'attributes': [{'Pain': {'Pain': {'severity': 'intermittent', 'location': 'back and abdomen', 'duration': 'Unknown'}}}, {'Excretion': {'Excretion': {'type': 'stool', 'frequency': 'x1', 'quality': 'Unknown'}}}, {'Eating': {'Eating': {'food': 'Unknown', 'amount': 'Unknown', 'method': 'oral'}}}, {'Family': {'Family': {'interaction': 'visit', 'relation': 'Unknown'}}}, {'Pain': {'Pain': {'severity': 'intermittent', 'location': 'back and abdomen', 'duration': 'Unknown'}}}], 'orders': [[{'event_id_1': 'e4', 'relation': 'before', 'event_id_2': 'e5'}, {'event_id_1': 'e1', 'relation': 'unknown', 'event_id_2': 'e2'}, {'event_id_1': 'e1', 'relation': 'unknown', 'event_id_2': 'e3'}]], 'text_quotes': ['patient. c/o intermtittent back and abd. pain.', 'patient. had bm x1.', "taking by mouth's well.", 'vascular resident in to see patient @ ~3:45 a.m..', 'patient. told him about intermittent pain.'], 'event_time': ['Unknown', 'Unknown', 'Unknown', '~3:45 a.m.', '~3:45 a.m.'], 'negation': [False, False, False, False, False], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2171-01-10 05:43:00 and 2171-01-10 05:56:00):\n           patient. alert and pleasant. asking questions appropriately about care and meds/bp. patient. taken off nipride when bp &lt;140. patient. c/o intermtittent back and abd. pain. lots of belching. patient. had bm x1. in &amp; out of bed as per patient. comfort. taking by mouth\'s well. vascular resident in to see patient @ ~3:45 a.m.. patient. told him about intermittent pain. will discuss this with team in morning. hct stable @ 35. bs treated per ssri.\nplan) continue by mouth antihypertensives; advance adl\'s &amp; dat as tol. make team aware of back &amp; abdominla pain.\n\n\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient', 'patient', 'vascular resident', 'patient'], 'event_detection_time': 20.686441205907613}</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="b">
+        <v>0</v>
+      </c>
+      <c r="K52" t="b">
+        <v>0</v>
       </c>
       <c r="L52" t="inlineStr">
         <is>
@@ -4304,25 +4814,35 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
           <t>['Pain', 'Excretion', 'Eating', 'Family', 'Pain']</t>
         </is>
       </c>
-      <c r="N52" t="inlineStr">
+      <c r="P52" t="inlineStr">
         <is>
           <t>[{'Pain': {'Pain': {'severity': 'intermittent', 'location': 'back and abdomen', 'duration': 'Unknown'}}}, {'Excretion': {'Excretion': {'type': 'stool', 'frequency': 'x1', 'quality': 'Unknown'}}}, {'Eating': {'Eating': {'food': 'Unknown', 'amount': 'Unknown', 'method': 'oral'}}}, {'Family': {'Family': {'interaction': 'visit', 'relation': 'Unknown'}}}, {'Pain': {'Pain': {'severity': 'intermittent', 'location': 'back and abdomen', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="O52" t="inlineStr">
+      <c r="Q52" t="inlineStr">
         <is>
           <t>['patient. c/o intermtittent back and abd. pain.', 'patient. had bm x1.', "taking by mouth's well.", 'vascular resident in to see patient @ ~3:45 a.m..', 'patient. told him about intermittent pain.']</t>
         </is>
       </c>
-      <c r="P52" t="inlineStr">
+      <c r="R52" t="inlineStr">
         <is>
           <t>['e1=Pain|1:patient. c/o intermtittent back and abd. pain.', 'e2=Excretion|1:patient. had bm x1.', "e3=Eating|1:taking by mouth's well.", 'e4=Family|1:vascular resident in to see patient @ ~3:45 a.m..', 'e5=Pain|1:patient. told him about intermittent pain.']</t>
         </is>
       </c>
-      <c r="Q52" t="inlineStr">
+      <c r="S52" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e4', 'relation': 'before', 'event_id_2': 'e5'}, {'event_id_1': 'e1', 'relation': 'unknown', 'event_id_2': 'e2'}, {'event_id_1': 'e1', 'relation': 'unknown', 'event_id_2': 'e3'}]]</t>
         </is>
